--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/INVENTARIO ALMACEN  Dic   -2023 rtr.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/INVENTARIO ALMACEN  Dic   -2023 rtr.xlsx
@@ -23,7 +23,7 @@
     <sheet name="SEPTIEMBRE     2 0 2 3        " sheetId="10" r:id="rId9"/>
     <sheet name="  OCTUBRE    2 0 2 3        " sheetId="11" r:id="rId10"/>
     <sheet name="  NOVIEMBRE   2 0 2 3          " sheetId="12" r:id="rId11"/>
-    <sheet name="Hoja1" sheetId="13" r:id="rId12"/>
+    <sheet name="  D I C I E M B R E      2023  " sheetId="13" r:id="rId12"/>
     <sheet name="Hoja2" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="173">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -1546,7 +1546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="125">
+  <borders count="136">
     <border>
       <left/>
       <right/>
@@ -3136,13 +3136,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="771">
+  <cellXfs count="794">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4914,12 +5043,6 @@
     <xf numFmtId="1" fontId="12" fillId="28" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="28" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4932,6 +5055,57 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4968,48 +5142,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5109,6 +5241,21 @@
     <xf numFmtId="1" fontId="30" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="30" fillId="8" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="8" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="8" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="8" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5127,21 +5274,6 @@
     <xf numFmtId="0" fontId="12" fillId="26" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="8" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="8" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="8" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="8" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="42" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5157,13 +5289,79 @@
     <xf numFmtId="0" fontId="12" fillId="27" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="8" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5602,10 +5800,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="693" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="694"/>
+      <c r="B1" s="708" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="709"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5617,21 +5815,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="695">
+      <c r="B2" s="710">
         <v>44955</v>
       </c>
-      <c r="C2" s="696"/>
-      <c r="F2" s="697" t="s">
+      <c r="C2" s="711"/>
+      <c r="F2" s="712" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="697"/>
-      <c r="H2" s="697"/>
+      <c r="G2" s="712"/>
+      <c r="H2" s="712"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="698" t="s">
+      <c r="K2" s="713" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="698"/>
+      <c r="L2" s="713"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="Q2" s="12"/>
@@ -5641,30 +5839,30 @@
     </row>
     <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="699" t="s">
+      <c r="C3" s="714" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="700"/>
+      <c r="D3" s="715"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="701" t="s">
+      <c r="F3" s="716" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="702"/>
+      <c r="G3" s="717"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="703" t="s">
+      <c r="I3" s="718" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="698"/>
-      <c r="L3" s="698"/>
-      <c r="M3" s="706" t="s">
+      <c r="K3" s="713"/>
+      <c r="L3" s="713"/>
+      <c r="M3" s="695" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="707"/>
-      <c r="O3" s="708" t="s">
+      <c r="N3" s="696"/>
+      <c r="O3" s="697" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="709"/>
+      <c r="P3" s="698"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -5690,7 +5888,7 @@
       <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="704"/>
+      <c r="I4" s="719"/>
       <c r="J4" s="16"/>
       <c r="K4" s="21" t="s">
         <v>10</v>
@@ -5751,8 +5949,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="710"/>
-      <c r="P5" s="710"/>
+      <c r="O5" s="699"/>
+      <c r="P5" s="699"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -5794,8 +5992,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="711"/>
-      <c r="P6" s="711"/>
+      <c r="O6" s="700"/>
+      <c r="P6" s="700"/>
       <c r="Q6" s="45"/>
       <c r="R6" s="13"/>
       <c r="S6" s="46"/>
@@ -5878,8 +6076,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="712"/>
-      <c r="P8" s="712"/>
+      <c r="O8" s="701"/>
+      <c r="P8" s="701"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -5960,8 +6158,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="713"/>
-      <c r="P10" s="713"/>
+      <c r="O10" s="702"/>
+      <c r="P10" s="702"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -6089,8 +6287,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="714"/>
-      <c r="P13" s="714"/>
+      <c r="O13" s="703"/>
+      <c r="P13" s="703"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="66"/>
       <c r="S13" s="66"/>
@@ -6358,8 +6556,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="715"/>
-      <c r="P20" s="715"/>
+      <c r="O20" s="704"/>
+      <c r="P20" s="704"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -6444,8 +6642,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="716"/>
-      <c r="P22" s="716"/>
+      <c r="O22" s="705"/>
+      <c r="P22" s="705"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="78"/>
       <c r="S22" s="78"/>
@@ -6487,8 +6685,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="717"/>
-      <c r="P23" s="717"/>
+      <c r="O23" s="706"/>
+      <c r="P23" s="706"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -6610,8 +6808,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="718"/>
-      <c r="P26" s="718"/>
+      <c r="O26" s="707"/>
+      <c r="P26" s="707"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
@@ -7124,10 +7322,10 @@
     <row r="40" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="145"/>
       <c r="D40" s="147"/>
-      <c r="F40" s="705" t="s">
+      <c r="F40" s="694" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="705"/>
+      <c r="G40" s="694"/>
       <c r="H40" s="148">
         <f>SUM(H5:H31)</f>
         <v>51250.14</v>
@@ -7327,6 +7525,13 @@
     <sortCondition ref="B5:B38"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -7339,13 +7544,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7388,10 +7586,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="746" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="746"/>
+      <c r="B1" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="747"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -7409,26 +7607,26 @@
         <v>45201</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="721" t="s">
+      <c r="F2" s="722" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="723"/>
-      <c r="I2" s="724"/>
-      <c r="J2" s="725" t="s">
+      <c r="G2" s="723"/>
+      <c r="H2" s="724"/>
+      <c r="I2" s="725"/>
+      <c r="J2" s="726" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="725"/>
-      <c r="L2" s="726"/>
+      <c r="K2" s="726"/>
+      <c r="L2" s="727"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="743" t="s">
+      <c r="N2" s="744" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="743"/>
-      <c r="P2" s="752" t="s">
+      <c r="O2" s="744"/>
+      <c r="P2" s="758" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="753"/>
+      <c r="Q2" s="759"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -7436,27 +7634,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="747" t="s">
+      <c r="C3" s="748" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="730"/>
+      <c r="D3" s="731"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="731" t="s">
+      <c r="F3" s="732" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="732"/>
+      <c r="G3" s="733"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="756" t="s">
+      <c r="I3" s="762" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="727"/>
-      <c r="K3" s="727"/>
-      <c r="L3" s="728"/>
+      <c r="J3" s="728"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="729"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="743"/>
-      <c r="O3" s="743"/>
-      <c r="P3" s="754"/>
-      <c r="Q3" s="755"/>
+      <c r="N3" s="744"/>
+      <c r="O3" s="744"/>
+      <c r="P3" s="760"/>
+      <c r="Q3" s="761"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -7483,7 +7681,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="757"/>
+      <c r="I4" s="763"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -7944,10 +8142,10 @@
         <v>24</v>
       </c>
       <c r="M14" s="526"/>
-      <c r="N14" s="763">
+      <c r="N14" s="764">
         <v>744.11</v>
       </c>
-      <c r="O14" s="765">
+      <c r="O14" s="766">
         <v>24</v>
       </c>
       <c r="P14" s="562">
@@ -7959,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="411"/>
-      <c r="S14" s="762"/>
+      <c r="S14" s="757"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
@@ -7985,8 +8183,8 @@
       <c r="K15" s="524"/>
       <c r="L15" s="525"/>
       <c r="M15" s="526"/>
-      <c r="N15" s="764"/>
-      <c r="O15" s="766"/>
+      <c r="N15" s="765"/>
+      <c r="O15" s="767"/>
       <c r="P15" s="562">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7996,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="412"/>
-      <c r="S15" s="762"/>
+      <c r="S15" s="757"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
@@ -8209,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="413"/>
-      <c r="S20" s="762"/>
+      <c r="S20" s="757"/>
       <c r="T20" s="77"/>
       <c r="U20" s="77"/>
       <c r="V20" s="13"/>
@@ -8246,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="623"/>
-      <c r="S21" s="762"/>
+      <c r="S21" s="757"/>
       <c r="T21" s="78"/>
       <c r="U21" s="78"/>
       <c r="V21" s="13"/>
@@ -8295,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="624"/>
-      <c r="S22" s="762"/>
+      <c r="S22" s="757"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
@@ -8332,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="414"/>
-      <c r="S23" s="762"/>
+      <c r="S23" s="757"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -9403,10 +9601,10 @@
     <row r="50" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="145"/>
       <c r="D50" s="147"/>
-      <c r="F50" s="735" t="s">
+      <c r="F50" s="736" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="735"/>
+      <c r="G50" s="736"/>
       <c r="H50" s="560">
         <f>SUM(H5:H33)</f>
         <v>25434.93</v>
@@ -9633,8 +9831,2312 @@
   </sheetPr>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="146" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="7" style="156" customWidth="1"/>
+    <col min="16" max="16" width="13" style="161" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="146" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" style="109" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="46.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="747"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="569">
+        <v>45255</v>
+      </c>
+      <c r="C2" s="570"/>
+      <c r="F2" s="722" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="723"/>
+      <c r="H2" s="724"/>
+      <c r="I2" s="725"/>
+      <c r="J2" s="726" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="726"/>
+      <c r="L2" s="727"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="744"/>
+      <c r="O2" s="744"/>
+      <c r="P2" s="758" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="759"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="568"/>
+      <c r="C3" s="748" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="731"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="732" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="733"/>
+      <c r="H3" s="586"/>
+      <c r="I3" s="762" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="728"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="729"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="744"/>
+      <c r="O3" s="744"/>
+      <c r="P3" s="760"/>
+      <c r="Q3" s="761"/>
+      <c r="R3" s="434"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+    </row>
+    <row r="4" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="587" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="763"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="237" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="222"/>
+      <c r="N4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="588" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="589" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="435"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="2:26" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="28">
+        <v>967.84</v>
+      </c>
+      <c r="G5" s="31">
+        <v>81</v>
+      </c>
+      <c r="H5" s="223">
+        <f t="shared" ref="H5:H48" si="0">F5+C5</f>
+        <v>967.84</v>
+      </c>
+      <c r="I5" s="41">
+        <f t="shared" ref="I5:I48" si="1">G5+D5</f>
+        <v>81</v>
+      </c>
+      <c r="J5" s="54"/>
+      <c r="K5" s="287">
+        <v>967.84</v>
+      </c>
+      <c r="L5" s="288">
+        <v>81</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="786"/>
+      <c r="O5" s="787"/>
+      <c r="P5" s="239">
+        <f>H5-K5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="44">
+        <f>I5-L5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="653"/>
+      <c r="S5" s="430"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+    </row>
+    <row r="6" spans="2:26" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="267"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="54"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="786"/>
+      <c r="O6" s="787"/>
+      <c r="P6" s="775">
+        <f>N6-K6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="326">
+        <f>O6-L6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="654"/>
+      <c r="S6" s="426"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="60">
+        <v>236.53</v>
+      </c>
+      <c r="D7" s="29">
+        <v>20</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="28">
+        <v>595.49</v>
+      </c>
+      <c r="G7" s="31">
+        <v>49</v>
+      </c>
+      <c r="H7" s="223">
+        <f t="shared" si="0"/>
+        <v>832.02</v>
+      </c>
+      <c r="I7" s="41">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="279">
+        <v>832.02</v>
+      </c>
+      <c r="L7" s="214">
+        <v>69</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="786"/>
+      <c r="O7" s="787"/>
+      <c r="P7" s="775">
+        <f t="shared" ref="P7:Q9" si="2">N7-K7</f>
+        <v>-832.02</v>
+      </c>
+      <c r="Q7" s="326">
+        <f t="shared" si="2"/>
+        <v>-69</v>
+      </c>
+      <c r="R7" s="53"/>
+      <c r="S7" s="426"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+    </row>
+    <row r="8" spans="2:26" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="514" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="224">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="225">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="279"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="786"/>
+      <c r="O8" s="787"/>
+      <c r="P8" s="775">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="326">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="655"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="2:26" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="514" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="28">
+        <v>167.58</v>
+      </c>
+      <c r="D9" s="29">
+        <v>9</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="639"/>
+      <c r="G9" s="640"/>
+      <c r="H9" s="224">
+        <f t="shared" si="0"/>
+        <v>167.58</v>
+      </c>
+      <c r="I9" s="225">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="279">
+        <v>167.58</v>
+      </c>
+      <c r="L9" s="214">
+        <v>9</v>
+      </c>
+      <c r="M9" s="42"/>
+      <c r="N9" s="786"/>
+      <c r="O9" s="787"/>
+      <c r="P9" s="775">
+        <f t="shared" si="2"/>
+        <v>-167.58</v>
+      </c>
+      <c r="Q9" s="326">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="R9" s="655"/>
+      <c r="S9" s="603"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="2:26" ht="22.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="514" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="225">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="598"/>
+      <c r="L10" s="599"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="786"/>
+      <c r="O10" s="787"/>
+      <c r="P10" s="776">
+        <f t="shared" ref="P10:Q50" si="3">H10-K10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="448">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="410"/>
+      <c r="S10" s="604"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="2:26" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="514" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="28">
+        <v>90</v>
+      </c>
+      <c r="G11" s="31">
+        <v>9</v>
+      </c>
+      <c r="H11" s="535">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="I11" s="522">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J11" s="523"/>
+      <c r="K11" s="524">
+        <v>90</v>
+      </c>
+      <c r="L11" s="525">
+        <v>9</v>
+      </c>
+      <c r="M11" s="42"/>
+      <c r="N11" s="786"/>
+      <c r="O11" s="787"/>
+      <c r="P11" s="776"/>
+      <c r="Q11" s="448"/>
+      <c r="R11" s="410"/>
+      <c r="S11" s="617"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="514" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="60">
+        <v>130</v>
+      </c>
+      <c r="G12" s="31">
+        <v>13</v>
+      </c>
+      <c r="H12" s="521">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="I12" s="522">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J12" s="523"/>
+      <c r="K12" s="524">
+        <v>130</v>
+      </c>
+      <c r="L12" s="525">
+        <v>13</v>
+      </c>
+      <c r="M12" s="526"/>
+      <c r="N12" s="786"/>
+      <c r="O12" s="787"/>
+      <c r="P12" s="776">
+        <f>N12-H12</f>
+        <v>-130</v>
+      </c>
+      <c r="Q12" s="328">
+        <f>O12-I12</f>
+        <v>-13</v>
+      </c>
+      <c r="R12" s="656"/>
+      <c r="S12" s="605"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="515" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="28">
+        <v>1022.39</v>
+      </c>
+      <c r="G13" s="31">
+        <v>42</v>
+      </c>
+      <c r="H13" s="521">
+        <f t="shared" si="0"/>
+        <v>1022.39</v>
+      </c>
+      <c r="I13" s="522">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J13" s="523"/>
+      <c r="K13" s="665">
+        <v>1719.97</v>
+      </c>
+      <c r="L13" s="666">
+        <v>67</v>
+      </c>
+      <c r="M13" s="526"/>
+      <c r="N13" s="788">
+        <f>K13-H13</f>
+        <v>697.58</v>
+      </c>
+      <c r="O13" s="789">
+        <f>L13-I13</f>
+        <v>25</v>
+      </c>
+      <c r="P13" s="562">
+        <f t="shared" ref="P13:Q40" si="4">N13-H13</f>
+        <v>-324.80999999999995</v>
+      </c>
+      <c r="Q13" s="448">
+        <f t="shared" si="4"/>
+        <v>-17</v>
+      </c>
+      <c r="R13" s="411"/>
+      <c r="S13" s="768" t="s">
+        <v>163</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="515" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="28">
+        <v>697.58</v>
+      </c>
+      <c r="G14" s="31">
+        <v>24</v>
+      </c>
+      <c r="H14" s="521">
+        <f t="shared" si="0"/>
+        <v>697.58</v>
+      </c>
+      <c r="I14" s="522">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J14" s="523"/>
+      <c r="K14" s="667">
+        <v>0</v>
+      </c>
+      <c r="L14" s="666">
+        <v>0</v>
+      </c>
+      <c r="M14" s="526"/>
+      <c r="N14" s="790"/>
+      <c r="O14" s="791"/>
+      <c r="P14" s="562">
+        <f t="shared" si="4"/>
+        <v>-697.58</v>
+      </c>
+      <c r="Q14" s="448">
+        <f t="shared" si="4"/>
+        <v>-24</v>
+      </c>
+      <c r="R14" s="412"/>
+      <c r="S14" s="768"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="2:26" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="514" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="522">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="523"/>
+      <c r="K15" s="524"/>
+      <c r="L15" s="525"/>
+      <c r="M15" s="526"/>
+      <c r="N15" s="786"/>
+      <c r="O15" s="787"/>
+      <c r="P15" s="777">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="564">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="412"/>
+      <c r="S15" s="607"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+    </row>
+    <row r="16" spans="2:26" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="506" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="508"/>
+      <c r="D16" s="509"/>
+      <c r="E16" s="507"/>
+      <c r="F16" s="641">
+        <v>1054.58</v>
+      </c>
+      <c r="G16" s="642">
+        <v>47</v>
+      </c>
+      <c r="H16" s="583">
+        <f t="shared" si="0"/>
+        <v>1054.58</v>
+      </c>
+      <c r="I16" s="584">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="J16" s="523"/>
+      <c r="K16" s="524">
+        <v>1054.58</v>
+      </c>
+      <c r="L16" s="525">
+        <v>47</v>
+      </c>
+      <c r="M16" s="526"/>
+      <c r="N16" s="786"/>
+      <c r="O16" s="787"/>
+      <c r="P16" s="778">
+        <f t="shared" si="4"/>
+        <v>-1054.58</v>
+      </c>
+      <c r="Q16" s="567">
+        <f t="shared" si="4"/>
+        <v>-47</v>
+      </c>
+      <c r="R16" s="436"/>
+      <c r="S16" s="661"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="514" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="28">
+        <v>374.77</v>
+      </c>
+      <c r="G17" s="31">
+        <v>12</v>
+      </c>
+      <c r="H17" s="521">
+        <f t="shared" si="0"/>
+        <v>374.77</v>
+      </c>
+      <c r="I17" s="522">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J17" s="523"/>
+      <c r="K17" s="524">
+        <v>374.77</v>
+      </c>
+      <c r="L17" s="525">
+        <v>12</v>
+      </c>
+      <c r="M17" s="526"/>
+      <c r="N17" s="786"/>
+      <c r="O17" s="787"/>
+      <c r="P17" s="779">
+        <f t="shared" si="4"/>
+        <v>-374.77</v>
+      </c>
+      <c r="Q17" s="326">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="R17" s="437"/>
+      <c r="S17" s="608"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="662" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="28">
+        <v>806.98</v>
+      </c>
+      <c r="G18" s="31">
+        <v>30</v>
+      </c>
+      <c r="H18" s="521">
+        <f t="shared" si="0"/>
+        <v>806.98</v>
+      </c>
+      <c r="I18" s="522">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J18" s="523"/>
+      <c r="K18" s="524">
+        <v>806.98</v>
+      </c>
+      <c r="L18" s="525">
+        <v>30</v>
+      </c>
+      <c r="M18" s="526"/>
+      <c r="N18" s="786"/>
+      <c r="O18" s="787"/>
+      <c r="P18" s="779">
+        <f t="shared" ref="P18:P19" si="5">N18-H18</f>
+        <v>-806.98</v>
+      </c>
+      <c r="Q18" s="326">
+        <f t="shared" ref="Q18:Q19" si="6">O18-I18</f>
+        <v>-30</v>
+      </c>
+      <c r="R18" s="437"/>
+      <c r="S18" s="608"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+    </row>
+    <row r="19" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="664" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="28">
+        <v>737.87</v>
+      </c>
+      <c r="G19" s="31">
+        <v>28</v>
+      </c>
+      <c r="H19" s="521">
+        <f t="shared" si="0"/>
+        <v>737.87</v>
+      </c>
+      <c r="I19" s="522">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J19" s="523"/>
+      <c r="K19" s="524">
+        <v>737.87</v>
+      </c>
+      <c r="L19" s="525">
+        <v>28</v>
+      </c>
+      <c r="M19" s="526"/>
+      <c r="N19" s="786"/>
+      <c r="O19" s="787"/>
+      <c r="P19" s="779">
+        <f t="shared" si="5"/>
+        <v>-737.87</v>
+      </c>
+      <c r="Q19" s="326">
+        <f t="shared" si="6"/>
+        <v>-28</v>
+      </c>
+      <c r="R19" s="657"/>
+      <c r="S19" s="607"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+    </row>
+    <row r="20" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="514" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="28">
+        <v>1862.88</v>
+      </c>
+      <c r="G20" s="31">
+        <v>78</v>
+      </c>
+      <c r="H20" s="521">
+        <f t="shared" si="0"/>
+        <v>1862.88</v>
+      </c>
+      <c r="I20" s="522">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="J20" s="523"/>
+      <c r="K20" s="524">
+        <v>1862.97</v>
+      </c>
+      <c r="L20" s="525">
+        <v>78</v>
+      </c>
+      <c r="M20" s="526"/>
+      <c r="N20" s="786"/>
+      <c r="O20" s="787"/>
+      <c r="P20" s="779">
+        <f t="shared" ref="P20:P21" si="7">N20-H20</f>
+        <v>-1862.88</v>
+      </c>
+      <c r="Q20" s="326">
+        <f t="shared" ref="Q20:Q21" si="8">O20-I20</f>
+        <v>-78</v>
+      </c>
+      <c r="R20" s="657"/>
+      <c r="S20" s="607"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+    </row>
+    <row r="21" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="514" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="522">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="523"/>
+      <c r="K21" s="524"/>
+      <c r="L21" s="525"/>
+      <c r="M21" s="526"/>
+      <c r="N21" s="786"/>
+      <c r="O21" s="787"/>
+      <c r="P21" s="779">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="326">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="413"/>
+      <c r="S21" s="757"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="13"/>
+    </row>
+    <row r="22" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="514" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="28">
+        <v>300.44</v>
+      </c>
+      <c r="G22" s="31">
+        <v>12</v>
+      </c>
+      <c r="H22" s="521">
+        <f t="shared" si="0"/>
+        <v>300.44</v>
+      </c>
+      <c r="I22" s="522">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J22" s="523"/>
+      <c r="K22" s="524">
+        <v>300.44</v>
+      </c>
+      <c r="L22" s="525">
+        <v>12</v>
+      </c>
+      <c r="M22" s="526"/>
+      <c r="N22" s="786"/>
+      <c r="O22" s="787"/>
+      <c r="P22" s="776">
+        <f t="shared" si="4"/>
+        <v>-300.44</v>
+      </c>
+      <c r="Q22" s="328">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="R22" s="658"/>
+      <c r="S22" s="757"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="13"/>
+    </row>
+    <row r="23" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="514" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="28">
+        <v>1405.89</v>
+      </c>
+      <c r="G23" s="31">
+        <v>82</v>
+      </c>
+      <c r="H23" s="521">
+        <f t="shared" si="0"/>
+        <v>1405.89</v>
+      </c>
+      <c r="I23" s="522">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="J23" s="523"/>
+      <c r="K23" s="667">
+        <v>1458.4</v>
+      </c>
+      <c r="L23" s="666">
+        <v>85</v>
+      </c>
+      <c r="M23" s="526"/>
+      <c r="N23" s="792">
+        <f>K23-H23</f>
+        <v>52.509999999999991</v>
+      </c>
+      <c r="O23" s="793">
+        <f>L23-I23</f>
+        <v>3</v>
+      </c>
+      <c r="P23" s="776"/>
+      <c r="Q23" s="328">
+        <f t="shared" si="4"/>
+        <v>-79</v>
+      </c>
+      <c r="R23" s="659"/>
+      <c r="S23" s="768" t="s">
+        <v>164</v>
+      </c>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+    </row>
+    <row r="24" spans="2:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="514" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="522">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="523"/>
+      <c r="K24" s="524"/>
+      <c r="L24" s="525"/>
+      <c r="M24" s="526"/>
+      <c r="N24" s="786"/>
+      <c r="O24" s="787"/>
+      <c r="P24" s="776">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="328">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="414"/>
+      <c r="S24" s="768"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+    </row>
+    <row r="25" spans="2:22" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="514" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="28">
+        <v>2674.06</v>
+      </c>
+      <c r="G25" s="31">
+        <v>589</v>
+      </c>
+      <c r="H25" s="521">
+        <f t="shared" si="0"/>
+        <v>2674.06</v>
+      </c>
+      <c r="I25" s="522">
+        <f t="shared" si="1"/>
+        <v>589</v>
+      </c>
+      <c r="J25" s="523"/>
+      <c r="K25" s="524">
+        <v>2674.55</v>
+      </c>
+      <c r="L25" s="525">
+        <v>589</v>
+      </c>
+      <c r="M25" s="526"/>
+      <c r="N25" s="786"/>
+      <c r="O25" s="787"/>
+      <c r="P25" s="776">
+        <f t="shared" si="4"/>
+        <v>-2674.06</v>
+      </c>
+      <c r="Q25" s="328">
+        <f t="shared" si="4"/>
+        <v>-589</v>
+      </c>
+      <c r="R25" s="438"/>
+      <c r="S25" s="609"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+    </row>
+    <row r="26" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="514" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="115"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="28">
+        <v>241.18</v>
+      </c>
+      <c r="G26" s="31">
+        <v>9</v>
+      </c>
+      <c r="H26" s="521">
+        <f t="shared" si="0"/>
+        <v>241.18</v>
+      </c>
+      <c r="I26" s="522">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J26" s="523"/>
+      <c r="K26" s="524">
+        <v>241.18</v>
+      </c>
+      <c r="L26" s="525">
+        <v>9</v>
+      </c>
+      <c r="M26" s="526"/>
+      <c r="N26" s="786"/>
+      <c r="O26" s="787"/>
+      <c r="P26" s="776">
+        <f t="shared" si="4"/>
+        <v>-241.18</v>
+      </c>
+      <c r="Q26" s="328">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="R26" s="660"/>
+      <c r="S26" s="610"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+    </row>
+    <row r="27" spans="2:22" ht="29.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="514" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="522">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="523"/>
+      <c r="K27" s="524"/>
+      <c r="L27" s="525"/>
+      <c r="M27" s="526"/>
+      <c r="N27" s="786"/>
+      <c r="O27" s="787"/>
+      <c r="P27" s="776">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="328">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="211"/>
+      <c r="S27" s="605"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+    </row>
+    <row r="28" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="515" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="115"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="87">
+        <v>16793.16</v>
+      </c>
+      <c r="G28" s="88">
+        <v>644</v>
+      </c>
+      <c r="H28" s="521">
+        <f t="shared" si="0"/>
+        <v>16793.16</v>
+      </c>
+      <c r="I28" s="522">
+        <f t="shared" si="1"/>
+        <v>644</v>
+      </c>
+      <c r="J28" s="523"/>
+      <c r="K28" s="524">
+        <v>16793.22</v>
+      </c>
+      <c r="L28" s="525">
+        <v>644</v>
+      </c>
+      <c r="M28" s="526"/>
+      <c r="N28" s="786"/>
+      <c r="O28" s="787"/>
+      <c r="P28" s="776">
+        <f t="shared" si="4"/>
+        <v>-16793.16</v>
+      </c>
+      <c r="Q28" s="328">
+        <f t="shared" si="4"/>
+        <v>-644</v>
+      </c>
+      <c r="R28" s="211"/>
+      <c r="S28" s="611"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+    </row>
+    <row r="29" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="514" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="115"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="522">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="523"/>
+      <c r="K29" s="524"/>
+      <c r="L29" s="525"/>
+      <c r="M29" s="526"/>
+      <c r="N29" s="786"/>
+      <c r="O29" s="787"/>
+      <c r="P29" s="776">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="328">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="211"/>
+      <c r="S29" s="605"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+    </row>
+    <row r="30" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="514" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="115"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="522">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="523"/>
+      <c r="K30" s="524"/>
+      <c r="L30" s="525"/>
+      <c r="M30" s="526"/>
+      <c r="N30" s="786"/>
+      <c r="O30" s="787"/>
+      <c r="P30" s="776">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="328">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="415"/>
+      <c r="S30" s="610"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+    </row>
+    <row r="31" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="514" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="115"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="87">
+        <v>6259.29</v>
+      </c>
+      <c r="G31" s="88">
+        <v>230</v>
+      </c>
+      <c r="H31" s="535">
+        <f t="shared" si="0"/>
+        <v>6259.29</v>
+      </c>
+      <c r="I31" s="536">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="J31" s="523"/>
+      <c r="K31" s="667">
+        <v>6259.29</v>
+      </c>
+      <c r="L31" s="666">
+        <v>229</v>
+      </c>
+      <c r="M31" s="526"/>
+      <c r="N31" s="792">
+        <f>K31-H31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="793">
+        <f>L31-I31</f>
+        <v>-1</v>
+      </c>
+      <c r="P31" s="776">
+        <f t="shared" si="4"/>
+        <v>-6259.29</v>
+      </c>
+      <c r="Q31" s="328">
+        <f t="shared" si="4"/>
+        <v>-231</v>
+      </c>
+      <c r="R31" s="656"/>
+      <c r="S31" s="668" t="s">
+        <v>165</v>
+      </c>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="2:22" ht="29.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="592" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="115"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="535">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="536">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="523"/>
+      <c r="K32" s="524"/>
+      <c r="L32" s="525"/>
+      <c r="M32" s="526"/>
+      <c r="N32" s="786"/>
+      <c r="O32" s="787"/>
+      <c r="P32" s="776">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="328">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="656"/>
+      <c r="S32" s="613"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+    </row>
+    <row r="33" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="514" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="115">
+        <v>4020</v>
+      </c>
+      <c r="D33" s="29">
+        <v>402</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="535">
+        <f t="shared" si="0"/>
+        <v>4020</v>
+      </c>
+      <c r="I33" s="536">
+        <f t="shared" si="1"/>
+        <v>402</v>
+      </c>
+      <c r="J33" s="523"/>
+      <c r="K33" s="524">
+        <v>4020</v>
+      </c>
+      <c r="L33" s="525">
+        <v>402</v>
+      </c>
+      <c r="M33" s="526"/>
+      <c r="N33" s="786"/>
+      <c r="O33" s="787"/>
+      <c r="P33" s="776">
+        <f t="shared" si="4"/>
+        <v>-4020</v>
+      </c>
+      <c r="Q33" s="328">
+        <f t="shared" si="4"/>
+        <v>-402</v>
+      </c>
+      <c r="R33" s="416"/>
+      <c r="S33" s="605"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+    </row>
+    <row r="34" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="514" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="255">
+        <v>1020</v>
+      </c>
+      <c r="D34" s="97">
+        <v>102</v>
+      </c>
+      <c r="E34" s="98"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="535">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="I34" s="536">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="J34" s="523"/>
+      <c r="K34" s="524">
+        <v>1020</v>
+      </c>
+      <c r="L34" s="525">
+        <v>102</v>
+      </c>
+      <c r="M34" s="526"/>
+      <c r="N34" s="786"/>
+      <c r="O34" s="787"/>
+      <c r="P34" s="776">
+        <f t="shared" si="4"/>
+        <v>-1020</v>
+      </c>
+      <c r="Q34" s="328">
+        <f t="shared" si="4"/>
+        <v>-102</v>
+      </c>
+      <c r="R34" s="417"/>
+      <c r="S34" s="605"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+    </row>
+    <row r="35" spans="1:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="514" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="255"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="96">
+        <v>16632.23</v>
+      </c>
+      <c r="G35" s="103">
+        <v>676</v>
+      </c>
+      <c r="H35" s="535">
+        <f t="shared" si="0"/>
+        <v>16632.23</v>
+      </c>
+      <c r="I35" s="536">
+        <f t="shared" si="1"/>
+        <v>676</v>
+      </c>
+      <c r="J35" s="523"/>
+      <c r="K35" s="524">
+        <v>16632.23</v>
+      </c>
+      <c r="L35" s="525">
+        <v>676</v>
+      </c>
+      <c r="M35" s="526"/>
+      <c r="N35" s="786"/>
+      <c r="O35" s="787"/>
+      <c r="P35" s="776">
+        <f t="shared" si="4"/>
+        <v>-16632.23</v>
+      </c>
+      <c r="Q35" s="328">
+        <f t="shared" si="4"/>
+        <v>-676</v>
+      </c>
+      <c r="R35" s="418"/>
+      <c r="S35" s="605"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+    </row>
+    <row r="36" spans="1:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="514" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="255"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="535">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="536">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="523"/>
+      <c r="K36" s="524"/>
+      <c r="L36" s="525"/>
+      <c r="M36" s="526"/>
+      <c r="N36" s="786"/>
+      <c r="O36" s="787"/>
+      <c r="P36" s="776">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="328">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="418"/>
+      <c r="S36" s="614"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+    </row>
+    <row r="37" spans="1:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="514" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="115"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="96">
+        <v>1470</v>
+      </c>
+      <c r="G37" s="103">
+        <v>98</v>
+      </c>
+      <c r="H37" s="535">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="I37" s="536">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="J37" s="523"/>
+      <c r="K37" s="524">
+        <v>1470</v>
+      </c>
+      <c r="L37" s="525">
+        <v>98</v>
+      </c>
+      <c r="M37" s="526"/>
+      <c r="N37" s="786"/>
+      <c r="O37" s="787"/>
+      <c r="P37" s="776">
+        <f t="shared" si="4"/>
+        <v>-1470</v>
+      </c>
+      <c r="Q37" s="328">
+        <f t="shared" si="4"/>
+        <v>-98</v>
+      </c>
+      <c r="R37" s="658"/>
+      <c r="S37" s="605"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+    </row>
+    <row r="38" spans="1:22" ht="29.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="109"/>
+      <c r="B38" s="515" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="115"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="535">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="536">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="523"/>
+      <c r="K38" s="524"/>
+      <c r="L38" s="525"/>
+      <c r="M38" s="526"/>
+      <c r="N38" s="786"/>
+      <c r="O38" s="787"/>
+      <c r="P38" s="776">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="328">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="658"/>
+      <c r="S38" s="615"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+    </row>
+    <row r="39" spans="1:22" ht="39" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="663" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="115"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="537">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="538">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="523"/>
+      <c r="K39" s="524"/>
+      <c r="L39" s="525"/>
+      <c r="M39" s="526"/>
+      <c r="N39" s="786"/>
+      <c r="O39" s="787"/>
+      <c r="P39" s="776">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="328">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="114"/>
+      <c r="S39" s="616"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+    </row>
+    <row r="40" spans="1:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="505" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="115"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="537">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="538">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="523"/>
+      <c r="K40" s="524"/>
+      <c r="L40" s="525"/>
+      <c r="M40" s="526"/>
+      <c r="N40" s="786"/>
+      <c r="O40" s="787"/>
+      <c r="P40" s="776">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="328">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="419"/>
+      <c r="S40" s="617"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+    </row>
+    <row r="41" spans="1:22" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="514" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="255">
+        <v>413.95</v>
+      </c>
+      <c r="D41" s="97">
+        <v>16</v>
+      </c>
+      <c r="E41" s="102"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="258"/>
+      <c r="H41" s="539">
+        <f t="shared" si="0"/>
+        <v>413.95</v>
+      </c>
+      <c r="I41" s="538">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J41" s="523"/>
+      <c r="K41" s="540">
+        <v>413.95</v>
+      </c>
+      <c r="L41" s="541">
+        <v>16</v>
+      </c>
+      <c r="M41" s="526"/>
+      <c r="N41" s="786"/>
+      <c r="O41" s="787"/>
+      <c r="P41" s="776">
+        <f t="shared" ref="P41:Q44" si="9">H41-K41</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="328">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="419"/>
+      <c r="S41" s="605"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+    </row>
+    <row r="42" spans="1:22" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="514" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="255"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="258"/>
+      <c r="H42" s="539">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="538">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="542"/>
+      <c r="K42" s="543"/>
+      <c r="L42" s="544"/>
+      <c r="M42" s="542"/>
+      <c r="N42" s="780"/>
+      <c r="O42" s="781"/>
+      <c r="P42" s="776">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="328">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="420"/>
+      <c r="S42" s="605"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+    </row>
+    <row r="43" spans="1:22" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="515" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="115"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="259"/>
+      <c r="H43" s="539">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="538">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="523"/>
+      <c r="K43" s="543"/>
+      <c r="L43" s="544"/>
+      <c r="M43" s="542"/>
+      <c r="N43" s="782"/>
+      <c r="O43" s="783"/>
+      <c r="P43" s="776">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="328">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="658"/>
+      <c r="S43" s="605"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+    </row>
+    <row r="44" spans="1:22" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="515" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="115"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="259"/>
+      <c r="H44" s="539">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="538">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="523"/>
+      <c r="K44" s="543"/>
+      <c r="L44" s="544"/>
+      <c r="M44" s="542"/>
+      <c r="N44" s="782"/>
+      <c r="O44" s="783"/>
+      <c r="P44" s="776">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="328">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="658"/>
+      <c r="S44" s="605"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+    </row>
+    <row r="45" spans="1:22" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="514" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="115"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="28">
+        <v>176.44</v>
+      </c>
+      <c r="G45" s="259">
+        <v>6</v>
+      </c>
+      <c r="H45" s="539">
+        <f t="shared" si="0"/>
+        <v>176.44</v>
+      </c>
+      <c r="I45" s="538">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J45" s="523"/>
+      <c r="K45" s="543">
+        <v>176.35</v>
+      </c>
+      <c r="L45" s="544">
+        <v>6</v>
+      </c>
+      <c r="M45" s="542"/>
+      <c r="N45" s="784"/>
+      <c r="O45" s="785"/>
+      <c r="P45" s="776">
+        <f>N45-H45</f>
+        <v>-176.44</v>
+      </c>
+      <c r="Q45" s="328">
+        <f>O45-I45</f>
+        <v>-6</v>
+      </c>
+      <c r="R45" s="658"/>
+      <c r="S45" s="605"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+    </row>
+    <row r="46" spans="1:22" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="519" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="375"/>
+      <c r="D46" s="374"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="28">
+        <v>1175.79</v>
+      </c>
+      <c r="G46" s="259">
+        <v>46</v>
+      </c>
+      <c r="H46" s="539">
+        <f t="shared" si="0"/>
+        <v>1175.79</v>
+      </c>
+      <c r="I46" s="538">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J46" s="523"/>
+      <c r="K46" s="543">
+        <v>1175.79</v>
+      </c>
+      <c r="L46" s="544">
+        <v>46</v>
+      </c>
+      <c r="M46" s="542"/>
+      <c r="N46" s="635"/>
+      <c r="O46" s="636"/>
+      <c r="P46" s="327">
+        <f t="shared" ref="P46:Q47" si="10">N46-H46</f>
+        <v>-1175.79</v>
+      </c>
+      <c r="Q46" s="328">
+        <f t="shared" si="10"/>
+        <v>-46</v>
+      </c>
+      <c r="R46" s="658"/>
+      <c r="S46" s="611"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+    </row>
+    <row r="47" spans="1:22" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="519" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="115"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="259"/>
+      <c r="H47" s="539">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="538">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="523"/>
+      <c r="K47" s="543"/>
+      <c r="L47" s="544"/>
+      <c r="M47" s="542"/>
+      <c r="N47" s="631"/>
+      <c r="O47" s="632"/>
+      <c r="P47" s="327">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="328">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="658"/>
+      <c r="S47" s="605"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+    </row>
+    <row r="48" spans="1:22" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="265" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="440"/>
+      <c r="D48" s="441"/>
+      <c r="E48" s="442"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="259"/>
+      <c r="H48" s="539">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="538">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="523"/>
+      <c r="K48" s="543"/>
+      <c r="L48" s="544"/>
+      <c r="M48" s="542"/>
+      <c r="N48" s="629"/>
+      <c r="O48" s="630"/>
+      <c r="P48" s="327">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="328">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="658"/>
+      <c r="S48" s="605"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+    </row>
+    <row r="49" spans="2:22" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="261"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="259"/>
+      <c r="H49" s="539">
+        <f t="shared" ref="H49:I50" si="11">F49+C49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="538">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="523"/>
+      <c r="K49" s="543"/>
+      <c r="L49" s="544"/>
+      <c r="M49" s="542"/>
+      <c r="N49" s="629"/>
+      <c r="O49" s="630"/>
+      <c r="P49" s="327">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="328">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="658"/>
+      <c r="S49" s="605"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+    </row>
+    <row r="50" spans="2:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="266"/>
+      <c r="C50" s="269"/>
+      <c r="D50" s="271"/>
+      <c r="E50" s="273"/>
+      <c r="F50" s="275"/>
+      <c r="G50" s="277"/>
+      <c r="H50" s="539">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="538">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="523"/>
+      <c r="K50" s="543"/>
+      <c r="L50" s="544"/>
+      <c r="M50" s="542"/>
+      <c r="N50" s="246"/>
+      <c r="O50" s="247"/>
+      <c r="P50" s="329">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="330">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="143"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+    </row>
+    <row r="51" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="145"/>
+      <c r="D51" s="147"/>
+      <c r="F51" s="736" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="736"/>
+      <c r="H51" s="560">
+        <f>SUM(H5:H34)</f>
+        <v>41458.51</v>
+      </c>
+      <c r="I51" s="561">
+        <f>SUM(I5:I34)</f>
+        <v>2512</v>
+      </c>
+      <c r="J51" s="149"/>
+      <c r="K51" s="149"/>
+      <c r="L51" s="149"/>
+      <c r="M51" s="150"/>
+      <c r="N51" s="559">
+        <f>SUM(N5:N42)</f>
+        <v>750.09</v>
+      </c>
+      <c r="O51" s="559">
+        <f>SUM(O5:O42)</f>
+        <v>27</v>
+      </c>
+      <c r="P51" s="153"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="155"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="P52" s="157"/>
+      <c r="Q52" s="158"/>
+      <c r="R52" s="439"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+    </row>
+    <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="77"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="1"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+    </row>
+    <row r="54" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="352" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="353"/>
+      <c r="E54" s="354"/>
+      <c r="F54" s="354"/>
+      <c r="G54" s="355"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="166"/>
+      <c r="M54" s="166"/>
+      <c r="N54" s="166"/>
+      <c r="O54" s="167"/>
+      <c r="P54" s="168"/>
+      <c r="Q54" s="169"/>
+    </row>
+    <row r="55" spans="2:22" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="170"/>
+      <c r="D55" s="315"/>
+      <c r="E55" s="316"/>
+      <c r="F55" s="316"/>
+      <c r="G55" s="317"/>
+      <c r="H55" s="317"/>
+      <c r="I55" s="317"/>
+      <c r="J55" s="301"/>
+      <c r="K55" s="301"/>
+      <c r="L55" s="301"/>
+      <c r="M55" s="301"/>
+      <c r="N55" s="301"/>
+      <c r="O55" s="302"/>
+      <c r="P55" s="303"/>
+      <c r="Q55" s="304"/>
+      <c r="R55" s="174"/>
+      <c r="S55" s="173"/>
+      <c r="T55" s="174"/>
+    </row>
+    <row r="56" spans="2:22" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="175"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="177"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="178"/>
+      <c r="P56" s="179"/>
+      <c r="Q56" s="169"/>
+    </row>
+    <row r="57" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="175"/>
+      <c r="C57" s="485"/>
+      <c r="D57" s="486"/>
+      <c r="E57" s="487"/>
+      <c r="F57" s="487"/>
+      <c r="G57" s="487"/>
+      <c r="H57" s="487"/>
+      <c r="I57" s="488"/>
+      <c r="J57" s="488"/>
+      <c r="K57" s="488"/>
+      <c r="L57" s="181"/>
+      <c r="M57" s="181"/>
+      <c r="N57" s="181"/>
+      <c r="O57" s="181"/>
+      <c r="P57" s="179"/>
+      <c r="Q57" s="169"/>
+    </row>
+    <row r="58" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="175"/>
+      <c r="C58" s="600"/>
+      <c r="D58" s="601"/>
+      <c r="E58" s="602"/>
+      <c r="F58" s="602"/>
+      <c r="G58" s="602"/>
+      <c r="H58" s="602"/>
+      <c r="I58" s="602"/>
+      <c r="J58" s="602"/>
+      <c r="K58" s="602"/>
+      <c r="L58" s="183"/>
+      <c r="M58" s="183"/>
+      <c r="N58" s="183"/>
+      <c r="O58" s="178"/>
+      <c r="P58" s="184"/>
+      <c r="Q58" s="185"/>
+    </row>
+    <row r="59" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="175"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="186"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="178"/>
+      <c r="P59" s="184"/>
+      <c r="Q59" s="185"/>
+    </row>
+    <row r="60" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="175"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="187"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="178"/>
+      <c r="P60" s="184"/>
+      <c r="Q60" s="185"/>
+    </row>
+    <row r="61" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="175"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="188"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="178"/>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B5:L49">
+    <sortCondition ref="B5:B49"/>
+  </sortState>
+  <mergeCells count="12">
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="65" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:Z63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -9661,10 +12163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="746" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="746"/>
+      <c r="B1" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="747"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -9679,29 +12181,29 @@
     </row>
     <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="569">
-        <v>45255</v>
+        <v>45297</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="721" t="s">
+      <c r="F2" s="722" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="723"/>
-      <c r="I2" s="724"/>
-      <c r="J2" s="725" t="s">
+      <c r="G2" s="723"/>
+      <c r="H2" s="724"/>
+      <c r="I2" s="725"/>
+      <c r="J2" s="726" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="725"/>
-      <c r="L2" s="726"/>
+      <c r="K2" s="726"/>
+      <c r="L2" s="727"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="743" t="s">
-        <v>126</v>
-      </c>
-      <c r="O2" s="743"/>
-      <c r="P2" s="752" t="s">
+      <c r="N2" s="744" t="s">
+        <v>171</v>
+      </c>
+      <c r="O2" s="744"/>
+      <c r="P2" s="758" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="753"/>
+      <c r="Q2" s="759"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -9709,27 +12211,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="747" t="s">
+      <c r="C3" s="748" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="730"/>
+      <c r="D3" s="731"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="731" t="s">
+      <c r="F3" s="732" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="732"/>
+      <c r="G3" s="733"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="756" t="s">
+      <c r="I3" s="762" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="727"/>
-      <c r="K3" s="727"/>
-      <c r="L3" s="728"/>
+      <c r="J3" s="728"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="729"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="743"/>
-      <c r="O3" s="743"/>
-      <c r="P3" s="754"/>
-      <c r="Q3" s="755"/>
+      <c r="N3" s="744"/>
+      <c r="O3" s="744"/>
+      <c r="P3" s="760"/>
+      <c r="Q3" s="761"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -9756,7 +12258,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="757"/>
+      <c r="I4" s="763"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -9791,2291 +12293,6 @@
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
       <c r="F5" s="28">
-        <v>967.84</v>
-      </c>
-      <c r="G5" s="31">
-        <v>81</v>
-      </c>
-      <c r="H5" s="223">
-        <f t="shared" ref="H5:H48" si="0">F5+C5</f>
-        <v>967.84</v>
-      </c>
-      <c r="I5" s="41">
-        <f t="shared" ref="I5:I48" si="1">G5+D5</f>
-        <v>81</v>
-      </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="287">
-        <v>967.84</v>
-      </c>
-      <c r="L5" s="288">
-        <v>81</v>
-      </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="627"/>
-      <c r="O5" s="628"/>
-      <c r="P5" s="239">
-        <f>H5-K5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="44">
-        <f>I5-L5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="653"/>
-      <c r="S5" s="430"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-    </row>
-    <row r="6" spans="2:26" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="267"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="223">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="279"/>
-      <c r="L6" s="214"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="627"/>
-      <c r="O6" s="628"/>
-      <c r="P6" s="325">
-        <f>N6-K6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="326">
-        <f>O6-L6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="654"/>
-      <c r="S6" s="426"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="60">
-        <v>236.53</v>
-      </c>
-      <c r="D7" s="29">
-        <v>20</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="28">
-        <v>595.49</v>
-      </c>
-      <c r="G7" s="31">
-        <v>49</v>
-      </c>
-      <c r="H7" s="223">
-        <f t="shared" si="0"/>
-        <v>832.02</v>
-      </c>
-      <c r="I7" s="41">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="279">
-        <v>832.02</v>
-      </c>
-      <c r="L7" s="214">
-        <v>69</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="627"/>
-      <c r="O7" s="628"/>
-      <c r="P7" s="325">
-        <f t="shared" ref="P7:Q9" si="2">N7-K7</f>
-        <v>-832.02</v>
-      </c>
-      <c r="Q7" s="326">
-        <f t="shared" si="2"/>
-        <v>-69</v>
-      </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="426"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-    </row>
-    <row r="8" spans="2:26" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="514" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="224">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="225">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="279"/>
-      <c r="L8" s="214"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="627"/>
-      <c r="O8" s="628"/>
-      <c r="P8" s="325">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="326">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="655"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-    </row>
-    <row r="9" spans="2:26" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="514" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="28">
-        <v>167.58</v>
-      </c>
-      <c r="D9" s="29">
-        <v>9</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="639"/>
-      <c r="G9" s="640"/>
-      <c r="H9" s="224">
-        <f t="shared" si="0"/>
-        <v>167.58</v>
-      </c>
-      <c r="I9" s="225">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="279">
-        <v>167.58</v>
-      </c>
-      <c r="L9" s="214">
-        <v>9</v>
-      </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="627"/>
-      <c r="O9" s="628"/>
-      <c r="P9" s="325">
-        <f t="shared" si="2"/>
-        <v>-167.58</v>
-      </c>
-      <c r="Q9" s="326">
-        <f t="shared" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="R9" s="655"/>
-      <c r="S9" s="603"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-    </row>
-    <row r="10" spans="2:26" ht="22.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="514" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="226">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="225">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="598"/>
-      <c r="L10" s="599"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="627"/>
-      <c r="O10" s="628"/>
-      <c r="P10" s="327">
-        <f t="shared" ref="P10:Q50" si="3">H10-K10</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="448">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="410"/>
-      <c r="S10" s="604"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-    </row>
-    <row r="11" spans="2:26" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="514" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="28">
-        <v>90</v>
-      </c>
-      <c r="G11" s="31">
-        <v>9</v>
-      </c>
-      <c r="H11" s="535">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="I11" s="522">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="J11" s="523"/>
-      <c r="K11" s="524">
-        <v>90</v>
-      </c>
-      <c r="L11" s="525">
-        <v>9</v>
-      </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="627"/>
-      <c r="O11" s="628"/>
-      <c r="P11" s="327"/>
-      <c r="Q11" s="448"/>
-      <c r="R11" s="410"/>
-      <c r="S11" s="617"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-    </row>
-    <row r="12" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="514" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="60">
-        <v>130</v>
-      </c>
-      <c r="G12" s="31">
-        <v>13</v>
-      </c>
-      <c r="H12" s="521">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="I12" s="522">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="J12" s="523"/>
-      <c r="K12" s="524">
-        <v>130</v>
-      </c>
-      <c r="L12" s="525">
-        <v>13</v>
-      </c>
-      <c r="M12" s="526"/>
-      <c r="N12" s="627"/>
-      <c r="O12" s="628"/>
-      <c r="P12" s="327">
-        <f>N12-H12</f>
-        <v>-130</v>
-      </c>
-      <c r="Q12" s="328">
-        <f>O12-I12</f>
-        <v>-13</v>
-      </c>
-      <c r="R12" s="656"/>
-      <c r="S12" s="605"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="13"/>
-    </row>
-    <row r="13" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="515" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28">
-        <v>1022.39</v>
-      </c>
-      <c r="G13" s="31">
-        <v>42</v>
-      </c>
-      <c r="H13" s="521">
-        <f t="shared" si="0"/>
-        <v>1022.39</v>
-      </c>
-      <c r="I13" s="522">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="J13" s="523"/>
-      <c r="K13" s="665">
-        <v>1719.97</v>
-      </c>
-      <c r="L13" s="666">
-        <v>67</v>
-      </c>
-      <c r="M13" s="526"/>
-      <c r="N13" s="627"/>
-      <c r="O13" s="628"/>
-      <c r="P13" s="562">
-        <f t="shared" ref="P13:Q40" si="4">N13-H13</f>
-        <v>-1022.39</v>
-      </c>
-      <c r="Q13" s="448">
-        <f t="shared" si="4"/>
-        <v>-42</v>
-      </c>
-      <c r="R13" s="411"/>
-      <c r="S13" s="767" t="s">
-        <v>163</v>
-      </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-    </row>
-    <row r="14" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="515" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="28">
-        <v>697.58</v>
-      </c>
-      <c r="G14" s="31">
-        <v>24</v>
-      </c>
-      <c r="H14" s="521">
-        <f t="shared" si="0"/>
-        <v>697.58</v>
-      </c>
-      <c r="I14" s="522">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="J14" s="523"/>
-      <c r="K14" s="667">
-        <v>0</v>
-      </c>
-      <c r="L14" s="666">
-        <v>0</v>
-      </c>
-      <c r="M14" s="526"/>
-      <c r="N14" s="627"/>
-      <c r="O14" s="628"/>
-      <c r="P14" s="562">
-        <f t="shared" si="4"/>
-        <v>-697.58</v>
-      </c>
-      <c r="Q14" s="448">
-        <f t="shared" si="4"/>
-        <v>-24</v>
-      </c>
-      <c r="R14" s="412"/>
-      <c r="S14" s="767"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-    </row>
-    <row r="15" spans="2:26" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="514" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="521">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="522">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="523"/>
-      <c r="K15" s="524"/>
-      <c r="L15" s="525"/>
-      <c r="M15" s="526"/>
-      <c r="N15" s="627"/>
-      <c r="O15" s="628"/>
-      <c r="P15" s="563">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="564">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="412"/>
-      <c r="S15" s="607"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-    </row>
-    <row r="16" spans="2:26" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="506" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="508"/>
-      <c r="D16" s="509"/>
-      <c r="E16" s="507"/>
-      <c r="F16" s="641">
-        <v>1054.58</v>
-      </c>
-      <c r="G16" s="642">
-        <v>47</v>
-      </c>
-      <c r="H16" s="583">
-        <f t="shared" si="0"/>
-        <v>1054.58</v>
-      </c>
-      <c r="I16" s="584">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="J16" s="523"/>
-      <c r="K16" s="524">
-        <v>1054.58</v>
-      </c>
-      <c r="L16" s="525">
-        <v>47</v>
-      </c>
-      <c r="M16" s="526"/>
-      <c r="N16" s="627"/>
-      <c r="O16" s="628"/>
-      <c r="P16" s="566">
-        <f t="shared" si="4"/>
-        <v>-1054.58</v>
-      </c>
-      <c r="Q16" s="567">
-        <f t="shared" si="4"/>
-        <v>-47</v>
-      </c>
-      <c r="R16" s="436"/>
-      <c r="S16" s="661"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-    </row>
-    <row r="17" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="514" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="28">
-        <v>374.77</v>
-      </c>
-      <c r="G17" s="31">
-        <v>12</v>
-      </c>
-      <c r="H17" s="521">
-        <f t="shared" si="0"/>
-        <v>374.77</v>
-      </c>
-      <c r="I17" s="522">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J17" s="523"/>
-      <c r="K17" s="524">
-        <v>374.77</v>
-      </c>
-      <c r="L17" s="525">
-        <v>12</v>
-      </c>
-      <c r="M17" s="526"/>
-      <c r="N17" s="627"/>
-      <c r="O17" s="628"/>
-      <c r="P17" s="585">
-        <f t="shared" si="4"/>
-        <v>-374.77</v>
-      </c>
-      <c r="Q17" s="326">
-        <f t="shared" si="4"/>
-        <v>-12</v>
-      </c>
-      <c r="R17" s="437"/>
-      <c r="S17" s="608"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-    </row>
-    <row r="18" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="662" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="28">
-        <v>806.98</v>
-      </c>
-      <c r="G18" s="31">
-        <v>30</v>
-      </c>
-      <c r="H18" s="521">
-        <f t="shared" si="0"/>
-        <v>806.98</v>
-      </c>
-      <c r="I18" s="522">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J18" s="523"/>
-      <c r="K18" s="524">
-        <v>806.98</v>
-      </c>
-      <c r="L18" s="525">
-        <v>30</v>
-      </c>
-      <c r="M18" s="526"/>
-      <c r="N18" s="627"/>
-      <c r="O18" s="628"/>
-      <c r="P18" s="585">
-        <f t="shared" ref="P18:P19" si="5">N18-H18</f>
-        <v>-806.98</v>
-      </c>
-      <c r="Q18" s="326">
-        <f t="shared" ref="Q18:Q19" si="6">O18-I18</f>
-        <v>-30</v>
-      </c>
-      <c r="R18" s="437"/>
-      <c r="S18" s="608"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-    </row>
-    <row r="19" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="664" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="28">
-        <v>737.87</v>
-      </c>
-      <c r="G19" s="31">
-        <v>28</v>
-      </c>
-      <c r="H19" s="521">
-        <f t="shared" si="0"/>
-        <v>737.87</v>
-      </c>
-      <c r="I19" s="522">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="J19" s="523"/>
-      <c r="K19" s="524">
-        <v>737.87</v>
-      </c>
-      <c r="L19" s="525">
-        <v>28</v>
-      </c>
-      <c r="M19" s="526"/>
-      <c r="N19" s="627"/>
-      <c r="O19" s="628"/>
-      <c r="P19" s="585">
-        <f t="shared" si="5"/>
-        <v>-737.87</v>
-      </c>
-      <c r="Q19" s="326">
-        <f t="shared" si="6"/>
-        <v>-28</v>
-      </c>
-      <c r="R19" s="657"/>
-      <c r="S19" s="607"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-    </row>
-    <row r="20" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="514" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="28">
-        <v>1862.88</v>
-      </c>
-      <c r="G20" s="31">
-        <v>78</v>
-      </c>
-      <c r="H20" s="521">
-        <f t="shared" si="0"/>
-        <v>1862.88</v>
-      </c>
-      <c r="I20" s="522">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="J20" s="523"/>
-      <c r="K20" s="524">
-        <v>1862.97</v>
-      </c>
-      <c r="L20" s="525">
-        <v>78</v>
-      </c>
-      <c r="M20" s="526"/>
-      <c r="N20" s="627"/>
-      <c r="O20" s="628"/>
-      <c r="P20" s="585">
-        <f t="shared" ref="P20:P21" si="7">N20-H20</f>
-        <v>-1862.88</v>
-      </c>
-      <c r="Q20" s="326">
-        <f t="shared" ref="Q20:Q21" si="8">O20-I20</f>
-        <v>-78</v>
-      </c>
-      <c r="R20" s="657"/>
-      <c r="S20" s="607"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-    </row>
-    <row r="21" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="514" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="521">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="522">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="523"/>
-      <c r="K21" s="524"/>
-      <c r="L21" s="525"/>
-      <c r="M21" s="526"/>
-      <c r="N21" s="627"/>
-      <c r="O21" s="628"/>
-      <c r="P21" s="585">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="326">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="413"/>
-      <c r="S21" s="762"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="13"/>
-    </row>
-    <row r="22" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="514" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28">
-        <v>300.44</v>
-      </c>
-      <c r="G22" s="31">
-        <v>12</v>
-      </c>
-      <c r="H22" s="521">
-        <f t="shared" si="0"/>
-        <v>300.44</v>
-      </c>
-      <c r="I22" s="522">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J22" s="523"/>
-      <c r="K22" s="524">
-        <v>300.44</v>
-      </c>
-      <c r="L22" s="525">
-        <v>12</v>
-      </c>
-      <c r="M22" s="526"/>
-      <c r="N22" s="627"/>
-      <c r="O22" s="628"/>
-      <c r="P22" s="327">
-        <f t="shared" si="4"/>
-        <v>-300.44</v>
-      </c>
-      <c r="Q22" s="328">
-        <f t="shared" si="4"/>
-        <v>-12</v>
-      </c>
-      <c r="R22" s="658"/>
-      <c r="S22" s="762"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="13"/>
-    </row>
-    <row r="23" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="514" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="28">
-        <v>1405.89</v>
-      </c>
-      <c r="G23" s="31">
-        <v>82</v>
-      </c>
-      <c r="H23" s="521">
-        <f t="shared" si="0"/>
-        <v>1405.89</v>
-      </c>
-      <c r="I23" s="522">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="J23" s="523"/>
-      <c r="K23" s="667">
-        <v>1458.4</v>
-      </c>
-      <c r="L23" s="666">
-        <v>85</v>
-      </c>
-      <c r="M23" s="526"/>
-      <c r="N23" s="627"/>
-      <c r="O23" s="628"/>
-      <c r="P23" s="327"/>
-      <c r="Q23" s="328">
-        <f t="shared" si="4"/>
-        <v>-82</v>
-      </c>
-      <c r="R23" s="659"/>
-      <c r="S23" s="767" t="s">
-        <v>164</v>
-      </c>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-    </row>
-    <row r="24" spans="2:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="514" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="521">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="522">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="523"/>
-      <c r="K24" s="524"/>
-      <c r="L24" s="525"/>
-      <c r="M24" s="526"/>
-      <c r="N24" s="627"/>
-      <c r="O24" s="628"/>
-      <c r="P24" s="327">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="328">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="414"/>
-      <c r="S24" s="767"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-    </row>
-    <row r="25" spans="2:22" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="514" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="28">
-        <v>2674.06</v>
-      </c>
-      <c r="G25" s="31">
-        <v>589</v>
-      </c>
-      <c r="H25" s="521">
-        <f t="shared" si="0"/>
-        <v>2674.06</v>
-      </c>
-      <c r="I25" s="522">
-        <f t="shared" si="1"/>
-        <v>589</v>
-      </c>
-      <c r="J25" s="523"/>
-      <c r="K25" s="524">
-        <v>2674.55</v>
-      </c>
-      <c r="L25" s="525">
-        <v>589</v>
-      </c>
-      <c r="M25" s="526"/>
-      <c r="N25" s="627"/>
-      <c r="O25" s="628"/>
-      <c r="P25" s="327">
-        <f t="shared" si="4"/>
-        <v>-2674.06</v>
-      </c>
-      <c r="Q25" s="328">
-        <f t="shared" si="4"/>
-        <v>-589</v>
-      </c>
-      <c r="R25" s="438"/>
-      <c r="S25" s="609"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-    </row>
-    <row r="26" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="514" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="28">
-        <v>241.18</v>
-      </c>
-      <c r="G26" s="31">
-        <v>9</v>
-      </c>
-      <c r="H26" s="521">
-        <f t="shared" si="0"/>
-        <v>241.18</v>
-      </c>
-      <c r="I26" s="522">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="J26" s="523"/>
-      <c r="K26" s="524">
-        <v>241.18</v>
-      </c>
-      <c r="L26" s="525">
-        <v>9</v>
-      </c>
-      <c r="M26" s="526"/>
-      <c r="N26" s="627"/>
-      <c r="O26" s="628"/>
-      <c r="P26" s="327">
-        <f t="shared" si="4"/>
-        <v>-241.18</v>
-      </c>
-      <c r="Q26" s="328">
-        <f t="shared" si="4"/>
-        <v>-9</v>
-      </c>
-      <c r="R26" s="660"/>
-      <c r="S26" s="610"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-    </row>
-    <row r="27" spans="2:22" ht="29.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="514" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="521">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="522">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="523"/>
-      <c r="K27" s="524"/>
-      <c r="L27" s="525"/>
-      <c r="M27" s="526"/>
-      <c r="N27" s="627"/>
-      <c r="O27" s="628"/>
-      <c r="P27" s="327">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="328">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="211"/>
-      <c r="S27" s="605"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-    </row>
-    <row r="28" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="515" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="87">
-        <v>16793.16</v>
-      </c>
-      <c r="G28" s="88">
-        <v>644</v>
-      </c>
-      <c r="H28" s="521">
-        <f t="shared" si="0"/>
-        <v>16793.16</v>
-      </c>
-      <c r="I28" s="522">
-        <f t="shared" si="1"/>
-        <v>644</v>
-      </c>
-      <c r="J28" s="523"/>
-      <c r="K28" s="524">
-        <v>16793.22</v>
-      </c>
-      <c r="L28" s="525">
-        <v>644</v>
-      </c>
-      <c r="M28" s="526"/>
-      <c r="N28" s="627"/>
-      <c r="O28" s="628"/>
-      <c r="P28" s="327">
-        <f t="shared" si="4"/>
-        <v>-16793.16</v>
-      </c>
-      <c r="Q28" s="328">
-        <f t="shared" si="4"/>
-        <v>-644</v>
-      </c>
-      <c r="R28" s="211"/>
-      <c r="S28" s="611"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-    </row>
-    <row r="29" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="514" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="521">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="522">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="523"/>
-      <c r="K29" s="524"/>
-      <c r="L29" s="525"/>
-      <c r="M29" s="526"/>
-      <c r="N29" s="627"/>
-      <c r="O29" s="628"/>
-      <c r="P29" s="327">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="328">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="211"/>
-      <c r="S29" s="605"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-    </row>
-    <row r="30" spans="2:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="514" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="521">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="522">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="523"/>
-      <c r="K30" s="524"/>
-      <c r="L30" s="525"/>
-      <c r="M30" s="526"/>
-      <c r="N30" s="627"/>
-      <c r="O30" s="628"/>
-      <c r="P30" s="327">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="328">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="415"/>
-      <c r="S30" s="610"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-    </row>
-    <row r="31" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="514" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="87">
-        <v>6259.29</v>
-      </c>
-      <c r="G31" s="88">
-        <v>230</v>
-      </c>
-      <c r="H31" s="535">
-        <f t="shared" si="0"/>
-        <v>6259.29</v>
-      </c>
-      <c r="I31" s="536">
-        <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
-      <c r="J31" s="523"/>
-      <c r="K31" s="667">
-        <v>6259.29</v>
-      </c>
-      <c r="L31" s="666">
-        <v>229</v>
-      </c>
-      <c r="M31" s="526"/>
-      <c r="N31" s="627"/>
-      <c r="O31" s="628"/>
-      <c r="P31" s="327">
-        <f t="shared" si="4"/>
-        <v>-6259.29</v>
-      </c>
-      <c r="Q31" s="328">
-        <f t="shared" si="4"/>
-        <v>-230</v>
-      </c>
-      <c r="R31" s="656"/>
-      <c r="S31" s="668" t="s">
-        <v>165</v>
-      </c>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-    </row>
-    <row r="32" spans="2:22" ht="29.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="592" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="535">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="536">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="523"/>
-      <c r="K32" s="524"/>
-      <c r="L32" s="525"/>
-      <c r="M32" s="526"/>
-      <c r="N32" s="627"/>
-      <c r="O32" s="628"/>
-      <c r="P32" s="327">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="328">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="656"/>
-      <c r="S32" s="613"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-    </row>
-    <row r="33" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="514" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="115">
-        <v>4020</v>
-      </c>
-      <c r="D33" s="29">
-        <v>402</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="535">
-        <f t="shared" si="0"/>
-        <v>4020</v>
-      </c>
-      <c r="I33" s="536">
-        <f t="shared" si="1"/>
-        <v>402</v>
-      </c>
-      <c r="J33" s="523"/>
-      <c r="K33" s="524">
-        <v>4020</v>
-      </c>
-      <c r="L33" s="525">
-        <v>402</v>
-      </c>
-      <c r="M33" s="526"/>
-      <c r="N33" s="627"/>
-      <c r="O33" s="628"/>
-      <c r="P33" s="327">
-        <f t="shared" si="4"/>
-        <v>-4020</v>
-      </c>
-      <c r="Q33" s="328">
-        <f t="shared" si="4"/>
-        <v>-402</v>
-      </c>
-      <c r="R33" s="416"/>
-      <c r="S33" s="605"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-    </row>
-    <row r="34" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="514" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="255">
-        <v>1020</v>
-      </c>
-      <c r="D34" s="97">
-        <v>102</v>
-      </c>
-      <c r="E34" s="98"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="535">
-        <f t="shared" si="0"/>
-        <v>1020</v>
-      </c>
-      <c r="I34" s="536">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="J34" s="523"/>
-      <c r="K34" s="524">
-        <v>1020</v>
-      </c>
-      <c r="L34" s="525">
-        <v>102</v>
-      </c>
-      <c r="M34" s="526"/>
-      <c r="N34" s="627"/>
-      <c r="O34" s="628"/>
-      <c r="P34" s="327">
-        <f t="shared" si="4"/>
-        <v>-1020</v>
-      </c>
-      <c r="Q34" s="328">
-        <f t="shared" si="4"/>
-        <v>-102</v>
-      </c>
-      <c r="R34" s="417"/>
-      <c r="S34" s="605"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-    </row>
-    <row r="35" spans="1:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="514" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="255"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="96">
-        <v>16632.23</v>
-      </c>
-      <c r="G35" s="103">
-        <v>676</v>
-      </c>
-      <c r="H35" s="535">
-        <f t="shared" si="0"/>
-        <v>16632.23</v>
-      </c>
-      <c r="I35" s="536">
-        <f t="shared" si="1"/>
-        <v>676</v>
-      </c>
-      <c r="J35" s="523"/>
-      <c r="K35" s="524">
-        <v>16632.23</v>
-      </c>
-      <c r="L35" s="525">
-        <v>676</v>
-      </c>
-      <c r="M35" s="526"/>
-      <c r="N35" s="627"/>
-      <c r="O35" s="628"/>
-      <c r="P35" s="327">
-        <f t="shared" si="4"/>
-        <v>-16632.23</v>
-      </c>
-      <c r="Q35" s="328">
-        <f t="shared" si="4"/>
-        <v>-676</v>
-      </c>
-      <c r="R35" s="418"/>
-      <c r="S35" s="605"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-    </row>
-    <row r="36" spans="1:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="514" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="255"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="535">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="536">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="523"/>
-      <c r="K36" s="524"/>
-      <c r="L36" s="525"/>
-      <c r="M36" s="526"/>
-      <c r="N36" s="627"/>
-      <c r="O36" s="628"/>
-      <c r="P36" s="327">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="328">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="418"/>
-      <c r="S36" s="614"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-    </row>
-    <row r="37" spans="1:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="514" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="96">
-        <v>1470</v>
-      </c>
-      <c r="G37" s="103">
-        <v>98</v>
-      </c>
-      <c r="H37" s="535">
-        <f t="shared" si="0"/>
-        <v>1470</v>
-      </c>
-      <c r="I37" s="536">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="J37" s="523"/>
-      <c r="K37" s="524">
-        <v>1470</v>
-      </c>
-      <c r="L37" s="525">
-        <v>98</v>
-      </c>
-      <c r="M37" s="526"/>
-      <c r="N37" s="627"/>
-      <c r="O37" s="628"/>
-      <c r="P37" s="327">
-        <f t="shared" si="4"/>
-        <v>-1470</v>
-      </c>
-      <c r="Q37" s="328">
-        <f t="shared" si="4"/>
-        <v>-98</v>
-      </c>
-      <c r="R37" s="658"/>
-      <c r="S37" s="605"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-    </row>
-    <row r="38" spans="1:22" ht="29.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="109"/>
-      <c r="B38" s="515" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="535">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="536">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="523"/>
-      <c r="K38" s="524"/>
-      <c r="L38" s="525"/>
-      <c r="M38" s="526"/>
-      <c r="N38" s="627"/>
-      <c r="O38" s="628"/>
-      <c r="P38" s="327">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="328">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="658"/>
-      <c r="S38" s="615"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-    </row>
-    <row r="39" spans="1:22" ht="39" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="663" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="537">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="538">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="523"/>
-      <c r="K39" s="524"/>
-      <c r="L39" s="525"/>
-      <c r="M39" s="526"/>
-      <c r="N39" s="627"/>
-      <c r="O39" s="628"/>
-      <c r="P39" s="327">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="328">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="114"/>
-      <c r="S39" s="616"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-    </row>
-    <row r="40" spans="1:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="505" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="537">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="538">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="523"/>
-      <c r="K40" s="524"/>
-      <c r="L40" s="525"/>
-      <c r="M40" s="526"/>
-      <c r="N40" s="627"/>
-      <c r="O40" s="628"/>
-      <c r="P40" s="327">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="328">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="419"/>
-      <c r="S40" s="617"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-    </row>
-    <row r="41" spans="1:22" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="514" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="255">
-        <v>413.95</v>
-      </c>
-      <c r="D41" s="97">
-        <v>16</v>
-      </c>
-      <c r="E41" s="102"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="258"/>
-      <c r="H41" s="539">
-        <f t="shared" si="0"/>
-        <v>413.95</v>
-      </c>
-      <c r="I41" s="538">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J41" s="523"/>
-      <c r="K41" s="540">
-        <v>413.95</v>
-      </c>
-      <c r="L41" s="541">
-        <v>16</v>
-      </c>
-      <c r="M41" s="526"/>
-      <c r="N41" s="627"/>
-      <c r="O41" s="628"/>
-      <c r="P41" s="327">
-        <f t="shared" ref="P41:Q44" si="9">H41-K41</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="328">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="419"/>
-      <c r="S41" s="605"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-    </row>
-    <row r="42" spans="1:22" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="514" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="255"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="258"/>
-      <c r="H42" s="539">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="538">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="542"/>
-      <c r="K42" s="543"/>
-      <c r="L42" s="544"/>
-      <c r="M42" s="542"/>
-      <c r="N42" s="627"/>
-      <c r="O42" s="628"/>
-      <c r="P42" s="327">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="328">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="420"/>
-      <c r="S42" s="605"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-    </row>
-    <row r="43" spans="1:22" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="515" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="259"/>
-      <c r="H43" s="539">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="538">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="523"/>
-      <c r="K43" s="543"/>
-      <c r="L43" s="544"/>
-      <c r="M43" s="542"/>
-      <c r="N43" s="627"/>
-      <c r="O43" s="628"/>
-      <c r="P43" s="327">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="328">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="658"/>
-      <c r="S43" s="605"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-    </row>
-    <row r="44" spans="1:22" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="515" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="259"/>
-      <c r="H44" s="539">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="538">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="523"/>
-      <c r="K44" s="543"/>
-      <c r="L44" s="544"/>
-      <c r="M44" s="542"/>
-      <c r="N44" s="627"/>
-      <c r="O44" s="628"/>
-      <c r="P44" s="327">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="328">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="658"/>
-      <c r="S44" s="605"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-    </row>
-    <row r="45" spans="1:22" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="514" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="28">
-        <v>176.44</v>
-      </c>
-      <c r="G45" s="259">
-        <v>6</v>
-      </c>
-      <c r="H45" s="539">
-        <f t="shared" si="0"/>
-        <v>176.44</v>
-      </c>
-      <c r="I45" s="538">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J45" s="523"/>
-      <c r="K45" s="543">
-        <v>176.35</v>
-      </c>
-      <c r="L45" s="544">
-        <v>6</v>
-      </c>
-      <c r="M45" s="542"/>
-      <c r="N45" s="627"/>
-      <c r="O45" s="628"/>
-      <c r="P45" s="327">
-        <f>N45-H45</f>
-        <v>-176.44</v>
-      </c>
-      <c r="Q45" s="328">
-        <f>O45-I45</f>
-        <v>-6</v>
-      </c>
-      <c r="R45" s="658"/>
-      <c r="S45" s="605"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-    </row>
-    <row r="46" spans="1:22" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="519" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="375"/>
-      <c r="D46" s="374"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="28">
-        <v>1175.79</v>
-      </c>
-      <c r="G46" s="259">
-        <v>46</v>
-      </c>
-      <c r="H46" s="539">
-        <f t="shared" si="0"/>
-        <v>1175.79</v>
-      </c>
-      <c r="I46" s="538">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="J46" s="523"/>
-      <c r="K46" s="543">
-        <v>1175.79</v>
-      </c>
-      <c r="L46" s="544">
-        <v>46</v>
-      </c>
-      <c r="M46" s="542"/>
-      <c r="N46" s="627"/>
-      <c r="O46" s="628"/>
-      <c r="P46" s="327">
-        <f t="shared" ref="P46:Q47" si="10">N46-H46</f>
-        <v>-1175.79</v>
-      </c>
-      <c r="Q46" s="328">
-        <f t="shared" si="10"/>
-        <v>-46</v>
-      </c>
-      <c r="R46" s="658"/>
-      <c r="S46" s="611"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-    </row>
-    <row r="47" spans="1:22" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="519" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="259"/>
-      <c r="H47" s="539">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="538">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="523"/>
-      <c r="K47" s="543"/>
-      <c r="L47" s="544"/>
-      <c r="M47" s="542"/>
-      <c r="N47" s="631"/>
-      <c r="O47" s="632"/>
-      <c r="P47" s="327">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="328">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="658"/>
-      <c r="S47" s="605"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-    </row>
-    <row r="48" spans="1:22" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="265" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="440"/>
-      <c r="D48" s="441"/>
-      <c r="E48" s="442"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="259"/>
-      <c r="H48" s="539">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="538">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="523"/>
-      <c r="K48" s="543"/>
-      <c r="L48" s="544"/>
-      <c r="M48" s="542"/>
-      <c r="N48" s="629"/>
-      <c r="O48" s="630"/>
-      <c r="P48" s="327">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="328">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="658"/>
-      <c r="S48" s="605"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-    </row>
-    <row r="49" spans="2:22" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="261"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="259"/>
-      <c r="H49" s="539">
-        <f t="shared" ref="H49:I50" si="11">F49+C49</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="538">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="523"/>
-      <c r="K49" s="543"/>
-      <c r="L49" s="544"/>
-      <c r="M49" s="542"/>
-      <c r="N49" s="629"/>
-      <c r="O49" s="630"/>
-      <c r="P49" s="327">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="328">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="658"/>
-      <c r="S49" s="605"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-    </row>
-    <row r="50" spans="2:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="266"/>
-      <c r="C50" s="269"/>
-      <c r="D50" s="271"/>
-      <c r="E50" s="273"/>
-      <c r="F50" s="275"/>
-      <c r="G50" s="277"/>
-      <c r="H50" s="539">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="538">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="523"/>
-      <c r="K50" s="543"/>
-      <c r="L50" s="544"/>
-      <c r="M50" s="542"/>
-      <c r="N50" s="246"/>
-      <c r="O50" s="247"/>
-      <c r="P50" s="329">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="330">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="143"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-    </row>
-    <row r="51" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="145"/>
-      <c r="D51" s="147"/>
-      <c r="F51" s="735" t="s">
-        <v>46</v>
-      </c>
-      <c r="G51" s="735"/>
-      <c r="H51" s="560">
-        <f>SUM(H5:H34)</f>
-        <v>41458.51</v>
-      </c>
-      <c r="I51" s="561">
-        <f>SUM(I5:I34)</f>
-        <v>2512</v>
-      </c>
-      <c r="J51" s="149"/>
-      <c r="K51" s="149"/>
-      <c r="L51" s="149"/>
-      <c r="M51" s="150"/>
-      <c r="N51" s="559">
-        <f>SUM(N5:N42)</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="559">
-        <f>SUM(O5:O42)</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="153"/>
-      <c r="Q51" s="154"/>
-      <c r="R51" s="155"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="P52" s="157"/>
-      <c r="Q52" s="158"/>
-      <c r="R52" s="439"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-    </row>
-    <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="77"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="1"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-    </row>
-    <row r="54" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="352" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="353"/>
-      <c r="E54" s="354"/>
-      <c r="F54" s="354"/>
-      <c r="G54" s="355"/>
-      <c r="H54" s="166"/>
-      <c r="I54" s="166"/>
-      <c r="J54" s="166"/>
-      <c r="K54" s="166"/>
-      <c r="L54" s="166"/>
-      <c r="M54" s="166"/>
-      <c r="N54" s="166"/>
-      <c r="O54" s="167"/>
-      <c r="P54" s="168"/>
-      <c r="Q54" s="169"/>
-    </row>
-    <row r="55" spans="2:22" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="170"/>
-      <c r="D55" s="315"/>
-      <c r="E55" s="316"/>
-      <c r="F55" s="316"/>
-      <c r="G55" s="317"/>
-      <c r="H55" s="317"/>
-      <c r="I55" s="317"/>
-      <c r="J55" s="301"/>
-      <c r="K55" s="301"/>
-      <c r="L55" s="301"/>
-      <c r="M55" s="301"/>
-      <c r="N55" s="301"/>
-      <c r="O55" s="302"/>
-      <c r="P55" s="303"/>
-      <c r="Q55" s="304"/>
-      <c r="R55" s="174"/>
-      <c r="S55" s="173"/>
-      <c r="T55" s="174"/>
-    </row>
-    <row r="56" spans="2:22" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="175"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="177"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="178"/>
-      <c r="P56" s="179"/>
-      <c r="Q56" s="169"/>
-    </row>
-    <row r="57" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="175"/>
-      <c r="C57" s="485"/>
-      <c r="D57" s="486"/>
-      <c r="E57" s="487"/>
-      <c r="F57" s="487"/>
-      <c r="G57" s="487"/>
-      <c r="H57" s="487"/>
-      <c r="I57" s="488"/>
-      <c r="J57" s="488"/>
-      <c r="K57" s="488"/>
-      <c r="L57" s="181"/>
-      <c r="M57" s="181"/>
-      <c r="N57" s="181"/>
-      <c r="O57" s="181"/>
-      <c r="P57" s="179"/>
-      <c r="Q57" s="169"/>
-    </row>
-    <row r="58" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="175"/>
-      <c r="C58" s="600"/>
-      <c r="D58" s="601"/>
-      <c r="E58" s="602"/>
-      <c r="F58" s="602"/>
-      <c r="G58" s="602"/>
-      <c r="H58" s="602"/>
-      <c r="I58" s="602"/>
-      <c r="J58" s="602"/>
-      <c r="K58" s="602"/>
-      <c r="L58" s="183"/>
-      <c r="M58" s="183"/>
-      <c r="N58" s="183"/>
-      <c r="O58" s="178"/>
-      <c r="P58" s="184"/>
-      <c r="Q58" s="185"/>
-    </row>
-    <row r="59" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="175"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="186"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="178"/>
-      <c r="P59" s="184"/>
-      <c r="Q59" s="185"/>
-    </row>
-    <row r="60" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="175"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="187"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="178"/>
-      <c r="P60" s="184"/>
-      <c r="Q60" s="185"/>
-    </row>
-    <row r="61" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="175"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="178"/>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
-    </row>
-  </sheetData>
-  <sortState ref="B5:L49">
-    <sortCondition ref="B5:B49"/>
-  </sortState>
-  <mergeCells count="12">
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
-  </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0.21" footer="0.16"/>
-  <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z63"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="146" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="156" customWidth="1"/>
-    <col min="16" max="16" width="13" style="161" customWidth="1"/>
-    <col min="17" max="17" width="10" style="146" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" style="109" customWidth="1"/>
-    <col min="19" max="19" width="46.28515625" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="746" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="746"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="13"/>
-    </row>
-    <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="569">
-        <v>45297</v>
-      </c>
-      <c r="C2" s="570"/>
-      <c r="F2" s="721" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="723"/>
-      <c r="I2" s="724"/>
-      <c r="J2" s="725" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="725"/>
-      <c r="L2" s="726"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="743" t="s">
-        <v>171</v>
-      </c>
-      <c r="O2" s="743"/>
-      <c r="P2" s="752" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="753"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-    </row>
-    <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="568"/>
-      <c r="C3" s="747" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="730"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="731" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="732"/>
-      <c r="H3" s="586"/>
-      <c r="I3" s="756" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="727"/>
-      <c r="K3" s="727"/>
-      <c r="L3" s="728"/>
-      <c r="M3" s="222"/>
-      <c r="N3" s="743"/>
-      <c r="O3" s="743"/>
-      <c r="P3" s="754"/>
-      <c r="Q3" s="755"/>
-      <c r="R3" s="434"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-    </row>
-    <row r="4" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="587" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="757"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="236" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="237" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="222"/>
-      <c r="N4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="588" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="589" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="435"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-    </row>
-    <row r="5" spans="2:26" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="28">
         <v>72.650000000000006</v>
       </c>
       <c r="G5" s="31">
@@ -12090,10 +12307,10 @@
         <v>6</v>
       </c>
       <c r="J5" s="54"/>
-      <c r="K5" s="689">
+      <c r="K5" s="687">
         <v>72.650000000000006</v>
       </c>
-      <c r="L5" s="690">
+      <c r="L5" s="688">
         <v>6</v>
       </c>
       <c r="M5" s="42"/>
@@ -12139,10 +12356,10 @@
         <v>105</v>
       </c>
       <c r="J6" s="54"/>
-      <c r="K6" s="691">
+      <c r="K6" s="689">
         <v>3334.48</v>
       </c>
-      <c r="L6" s="692">
+      <c r="L6" s="690">
         <v>105</v>
       </c>
       <c r="M6" s="42"/>
@@ -12192,10 +12409,10 @@
         <v>60</v>
       </c>
       <c r="J7" s="54"/>
-      <c r="K7" s="691">
+      <c r="K7" s="689">
         <v>734.29</v>
       </c>
-      <c r="L7" s="692">
+      <c r="L7" s="690">
         <v>60</v>
       </c>
       <c r="M7" s="42"/>
@@ -12241,10 +12458,10 @@
         <v>184</v>
       </c>
       <c r="J8" s="54"/>
-      <c r="K8" s="691">
+      <c r="K8" s="689">
         <v>4288.82</v>
       </c>
-      <c r="L8" s="692">
+      <c r="L8" s="690">
         <v>184</v>
       </c>
       <c r="M8" s="42"/>
@@ -12290,10 +12507,10 @@
         <v>15</v>
       </c>
       <c r="J9" s="54"/>
-      <c r="K9" s="691">
+      <c r="K9" s="689">
         <v>283.52</v>
       </c>
-      <c r="L9" s="692">
+      <c r="L9" s="690">
         <v>15</v>
       </c>
       <c r="M9" s="42"/>
@@ -12339,10 +12556,10 @@
         <v>12</v>
       </c>
       <c r="J10" s="54"/>
-      <c r="K10" s="691">
+      <c r="K10" s="689">
         <v>120</v>
       </c>
-      <c r="L10" s="692">
+      <c r="L10" s="690">
         <v>12</v>
       </c>
       <c r="M10" s="42"/>
@@ -12388,10 +12605,10 @@
         <v>7</v>
       </c>
       <c r="J11" s="523"/>
-      <c r="K11" s="691">
+      <c r="K11" s="689">
         <v>70</v>
       </c>
-      <c r="L11" s="692">
+      <c r="L11" s="690">
         <v>7</v>
       </c>
       <c r="M11" s="42"/>
@@ -12472,10 +12689,10 @@
         <v>15</v>
       </c>
       <c r="J13" s="523"/>
-      <c r="K13" s="768">
+      <c r="K13" s="691">
         <v>495.86</v>
       </c>
-      <c r="L13" s="692">
+      <c r="L13" s="690">
         <v>15</v>
       </c>
       <c r="M13" s="526"/>
@@ -12490,7 +12707,7 @@
         <v>-15</v>
       </c>
       <c r="R13" s="411"/>
-      <c r="S13" s="762"/>
+      <c r="S13" s="757"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
@@ -12513,8 +12730,8 @@
         <v>0</v>
       </c>
       <c r="J14" s="523"/>
-      <c r="K14" s="691"/>
-      <c r="L14" s="692"/>
+      <c r="K14" s="689"/>
+      <c r="L14" s="690"/>
       <c r="M14" s="526"/>
       <c r="N14" s="627"/>
       <c r="O14" s="628"/>
@@ -12527,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="412"/>
-      <c r="S14" s="762"/>
+      <c r="S14" s="757"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
@@ -12554,10 +12771,10 @@
         <v>19</v>
       </c>
       <c r="J15" s="523"/>
-      <c r="K15" s="691">
+      <c r="K15" s="689">
         <v>570.15</v>
       </c>
-      <c r="L15" s="692">
+      <c r="L15" s="690">
         <v>19</v>
       </c>
       <c r="M15" s="526"/>
@@ -12640,10 +12857,10 @@
         <v>183</v>
       </c>
       <c r="J17" s="523"/>
-      <c r="K17" s="769">
+      <c r="K17" s="692">
         <v>4556.53</v>
       </c>
-      <c r="L17" s="770">
+      <c r="L17" s="693">
         <v>227</v>
       </c>
       <c r="M17" s="526"/>
@@ -12704,7 +12921,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="2:22" ht="18.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" ht="36" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="664" t="s">
         <v>159</v>
       </c>
@@ -12814,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="413"/>
-      <c r="S21" s="762"/>
+      <c r="S21" s="757"/>
       <c r="T21" s="77"/>
       <c r="U21" s="77"/>
       <c r="V21" s="13"/>
@@ -12841,10 +13058,10 @@
         <v>10</v>
       </c>
       <c r="J22" s="523"/>
-      <c r="K22" s="691">
+      <c r="K22" s="689">
         <v>315.85000000000002</v>
       </c>
-      <c r="L22" s="692">
+      <c r="L22" s="690">
         <v>10</v>
       </c>
       <c r="M22" s="526"/>
@@ -12863,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="678"/>
-      <c r="S22" s="762"/>
+      <c r="S22" s="757"/>
       <c r="T22" s="77"/>
       <c r="U22" s="77"/>
       <c r="V22" s="13"/>
@@ -12876,39 +13093,39 @@
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
       <c r="F23" s="28">
-        <v>149.6</v>
+        <v>28.28</v>
       </c>
       <c r="G23" s="31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H23" s="521">
         <f t="shared" si="0"/>
-        <v>149.6</v>
+        <v>28.28</v>
       </c>
       <c r="I23" s="522">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J23" s="523"/>
       <c r="K23" s="679">
-        <v>98.92</v>
+        <v>28.28</v>
       </c>
       <c r="L23" s="680">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M23" s="526"/>
       <c r="N23" s="685"/>
       <c r="O23" s="686"/>
       <c r="P23" s="327">
         <f t="shared" si="3"/>
-        <v>-149.6</v>
+        <v>-28.28</v>
       </c>
       <c r="Q23" s="328">
         <f t="shared" si="3"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="R23" s="674"/>
-      <c r="S23" s="762"/>
+      <c r="S23" s="757"/>
       <c r="T23" s="78"/>
       <c r="U23" s="78"/>
       <c r="V23" s="13"/>
@@ -12921,36 +13138,40 @@
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
       <c r="F24" s="28">
-        <v>-12.43</v>
+        <v>108.89</v>
       </c>
       <c r="G24" s="31">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="H24" s="521">
         <f t="shared" si="0"/>
-        <v>-12.43</v>
+        <v>108.89</v>
       </c>
       <c r="I24" s="522">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="J24" s="523"/>
-      <c r="K24" s="679"/>
-      <c r="L24" s="680"/>
+      <c r="K24" s="692">
+        <v>98.924999999999997</v>
+      </c>
+      <c r="L24" s="693">
+        <v>6</v>
+      </c>
       <c r="M24" s="526"/>
-      <c r="N24" s="627">
+      <c r="N24" s="769">
         <v>105.72</v>
       </c>
-      <c r="O24" s="628">
+      <c r="O24" s="770">
         <v>6</v>
       </c>
       <c r="P24" s="327"/>
       <c r="Q24" s="328">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="R24" s="675"/>
-      <c r="S24" s="762"/>
+      <c r="S24" s="757"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
@@ -12987,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="414"/>
-      <c r="S25" s="762"/>
+      <c r="S25" s="757"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
@@ -13014,17 +13235,17 @@
         <v>570</v>
       </c>
       <c r="J26" s="523"/>
-      <c r="K26" s="679">
+      <c r="K26" s="689">
         <v>2588.19</v>
       </c>
-      <c r="L26" s="680">
+      <c r="L26" s="690">
         <v>570</v>
       </c>
       <c r="M26" s="526"/>
-      <c r="N26" s="627">
+      <c r="N26" s="771">
         <v>2587.8000000000002</v>
       </c>
-      <c r="O26" s="628">
+      <c r="O26" s="772">
         <v>570</v>
       </c>
       <c r="P26" s="327">
@@ -13062,8 +13283,8 @@
       <c r="K27" s="679"/>
       <c r="L27" s="680"/>
       <c r="M27" s="526"/>
-      <c r="N27" s="627"/>
-      <c r="O27" s="628"/>
+      <c r="N27" s="771"/>
+      <c r="O27" s="772"/>
       <c r="P27" s="327">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -13100,17 +13321,17 @@
         <v>9</v>
       </c>
       <c r="J28" s="523"/>
-      <c r="K28" s="679">
+      <c r="K28" s="689">
         <v>345.43</v>
       </c>
-      <c r="L28" s="680">
+      <c r="L28" s="690">
         <v>9</v>
       </c>
       <c r="M28" s="526"/>
-      <c r="N28" s="627">
+      <c r="N28" s="771">
         <v>345.93</v>
       </c>
-      <c r="O28" s="628">
+      <c r="O28" s="772">
         <v>9</v>
       </c>
       <c r="P28" s="327">
@@ -13135,32 +13356,32 @@
       <c r="D29" s="29"/>
       <c r="E29" s="30"/>
       <c r="F29" s="87">
-        <v>-174.02</v>
+        <v>-9.2899999999999991</v>
       </c>
       <c r="G29" s="88">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="H29" s="521">
         <f t="shared" si="0"/>
-        <v>-174.02</v>
+        <v>-9.2899999999999991</v>
       </c>
       <c r="I29" s="522">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J29" s="523"/>
-      <c r="K29" s="679"/>
-      <c r="L29" s="680"/>
+      <c r="K29" s="692"/>
+      <c r="L29" s="693"/>
       <c r="M29" s="526"/>
       <c r="N29" s="627"/>
       <c r="O29" s="628"/>
       <c r="P29" s="327">
         <f t="shared" si="3"/>
-        <v>174.02</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="Q29" s="328">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R29" s="211"/>
       <c r="S29" s="611"/>
@@ -13250,18 +13471,18 @@
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
       <c r="F32" s="87">
-        <v>16005.36</v>
+        <v>17366.36</v>
       </c>
       <c r="G32" s="88">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="H32" s="535">
         <f t="shared" si="0"/>
-        <v>16005.36</v>
+        <v>17366.36</v>
       </c>
       <c r="I32" s="536">
         <f t="shared" si="0"/>
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="J32" s="523"/>
       <c r="K32" s="679">
@@ -13275,11 +13496,11 @@
       <c r="O32" s="686"/>
       <c r="P32" s="327">
         <f t="shared" si="3"/>
-        <v>-16005.36</v>
+        <v>-17366.36</v>
       </c>
       <c r="Q32" s="328">
         <f t="shared" si="3"/>
-        <v>-588</v>
+        <v>-638</v>
       </c>
       <c r="R32" s="672"/>
       <c r="S32" s="612"/>
@@ -13324,40 +13545,40 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="29.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="514" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="115">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="D34" s="29">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="87"/>
       <c r="G34" s="88"/>
       <c r="H34" s="535">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="I34" s="536">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J34" s="523"/>
-      <c r="K34" s="687"/>
-      <c r="L34" s="688"/>
+      <c r="K34" s="679"/>
+      <c r="L34" s="680"/>
       <c r="M34" s="526"/>
       <c r="N34" s="627"/>
       <c r="O34" s="628"/>
       <c r="P34" s="327">
         <f t="shared" si="3"/>
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="328">
         <f t="shared" si="3"/>
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="R34" s="416"/>
       <c r="S34" s="605"/>
@@ -13370,27 +13591,27 @@
         <v>95</v>
       </c>
       <c r="C35" s="255">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="D35" s="97">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E35" s="98"/>
       <c r="F35" s="96"/>
       <c r="G35" s="103"/>
       <c r="H35" s="535">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="I35" s="536">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J35" s="523"/>
-      <c r="K35" s="679">
+      <c r="K35" s="689">
         <v>340</v>
       </c>
-      <c r="L35" s="680">
+      <c r="L35" s="690">
         <v>34</v>
       </c>
       <c r="M35" s="526"/>
@@ -13398,11 +13619,11 @@
       <c r="O35" s="628"/>
       <c r="P35" s="327">
         <f t="shared" si="3"/>
-        <v>-390</v>
+        <v>-340</v>
       </c>
       <c r="Q35" s="328">
         <f t="shared" si="3"/>
-        <v>-39</v>
+        <v>-34</v>
       </c>
       <c r="R35" s="417"/>
       <c r="S35" s="605"/>
@@ -13414,31 +13635,33 @@
       <c r="B36" s="514" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="255"/>
-      <c r="D36" s="97"/>
+      <c r="C36" s="255">
+        <v>733.65</v>
+      </c>
+      <c r="D36" s="97">
+        <v>9</v>
+      </c>
       <c r="E36" s="102"/>
       <c r="F36" s="96">
-        <f>728.65+2127.95</f>
-        <v>2856.6</v>
+        <v>2150.5300000000002</v>
       </c>
       <c r="G36" s="103">
-        <f>8+99</f>
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H36" s="535">
         <f t="shared" si="0"/>
-        <v>2856.6</v>
+        <v>2884.1800000000003</v>
       </c>
       <c r="I36" s="536">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J36" s="523"/>
-      <c r="K36" s="679">
-        <v>3383.38</v>
-      </c>
-      <c r="L36" s="680">
-        <v>142</v>
+      <c r="K36" s="689">
+        <v>2884.18</v>
+      </c>
+      <c r="L36" s="690">
+        <v>108</v>
       </c>
       <c r="M36" s="526"/>
       <c r="N36" s="627">
@@ -13451,11 +13674,11 @@
       </c>
       <c r="P36" s="327">
         <f t="shared" si="3"/>
-        <v>16.809999999999945</v>
+        <v>-10.770000000000437</v>
       </c>
       <c r="Q36" s="328">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R36" s="418"/>
       <c r="S36" s="605"/>
@@ -13463,40 +13686,36 @@
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
     </row>
-    <row r="37" spans="1:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="32.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="514" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="255"/>
       <c r="D37" s="97"/>
       <c r="E37" s="102"/>
-      <c r="F37" s="96">
-        <v>101.33</v>
-      </c>
-      <c r="G37" s="103">
-        <v>4</v>
-      </c>
+      <c r="F37" s="96"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="535">
         <f t="shared" si="0"/>
-        <v>101.33</v>
+        <v>0</v>
       </c>
       <c r="I37" s="536">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" s="523"/>
-      <c r="K37" s="687"/>
-      <c r="L37" s="688"/>
+      <c r="K37" s="679"/>
+      <c r="L37" s="680"/>
       <c r="M37" s="526"/>
       <c r="N37" s="627"/>
       <c r="O37" s="628"/>
       <c r="P37" s="327">
         <f t="shared" si="3"/>
-        <v>-101.33</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="328">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="R37" s="418"/>
       <c r="S37" s="614"/>
@@ -13526,10 +13745,10 @@
         <v>53</v>
       </c>
       <c r="J38" s="523"/>
-      <c r="K38" s="679">
+      <c r="K38" s="689">
         <v>795</v>
       </c>
-      <c r="L38" s="680">
+      <c r="L38" s="690">
         <v>53</v>
       </c>
       <c r="M38" s="526"/>
@@ -13562,24 +13781,24 @@
       <c r="D39" s="29"/>
       <c r="E39" s="102"/>
       <c r="F39" s="28">
-        <v>6609.41</v>
+        <v>7485.12</v>
       </c>
       <c r="G39" s="31">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="H39" s="535">
         <f t="shared" si="0"/>
-        <v>6609.41</v>
+        <v>7485.12</v>
       </c>
       <c r="I39" s="536">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="J39" s="523"/>
-      <c r="K39" s="679">
+      <c r="K39" s="689">
         <v>7485.12</v>
       </c>
-      <c r="L39" s="680">
+      <c r="L39" s="690">
         <v>370</v>
       </c>
       <c r="M39" s="526"/>
@@ -13591,11 +13810,11 @@
       </c>
       <c r="P39" s="327">
         <f t="shared" si="3"/>
-        <v>933.61000000000058</v>
+        <v>57.900000000000546</v>
       </c>
       <c r="Q39" s="328">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="R39" s="674"/>
       <c r="S39" s="615"/>
@@ -13847,10 +14066,10 @@
         <v>23</v>
       </c>
       <c r="J46" s="523"/>
-      <c r="K46" s="683">
+      <c r="K46" s="773">
         <v>541.46</v>
       </c>
-      <c r="L46" s="684">
+      <c r="L46" s="774">
         <v>23</v>
       </c>
       <c r="M46" s="542"/>
@@ -13896,10 +14115,10 @@
         <v>43</v>
       </c>
       <c r="J47" s="523"/>
-      <c r="K47" s="683">
+      <c r="K47" s="773">
         <v>1297.06</v>
       </c>
-      <c r="L47" s="684">
+      <c r="L47" s="774">
         <v>43</v>
       </c>
       <c r="M47" s="542"/>
@@ -14070,17 +14289,17 @@
     <row r="52" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="145"/>
       <c r="D52" s="147"/>
-      <c r="F52" s="735" t="s">
+      <c r="F52" s="736" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="735"/>
+      <c r="G52" s="736"/>
       <c r="H52" s="560">
         <f>SUM(H5:H35)</f>
-        <v>33670.29</v>
+        <v>34696.020000000004</v>
       </c>
       <c r="I52" s="561">
         <f>SUM(I5:I35)</f>
-        <v>1859</v>
+        <v>1866</v>
       </c>
       <c r="J52" s="149"/>
       <c r="K52" s="149"/>
@@ -14338,10 +14557,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="693" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="694"/>
+      <c r="B1" s="708" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="709"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -14356,26 +14575,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="719">
+      <c r="B2" s="720">
         <v>44989</v>
       </c>
-      <c r="C2" s="720"/>
-      <c r="F2" s="721" t="s">
+      <c r="C2" s="721"/>
+      <c r="F2" s="722" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="723"/>
-      <c r="I2" s="724"/>
-      <c r="J2" s="725" t="s">
+      <c r="G2" s="723"/>
+      <c r="H2" s="724"/>
+      <c r="I2" s="725"/>
+      <c r="J2" s="726" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="725"/>
-      <c r="L2" s="726"/>
+      <c r="K2" s="726"/>
+      <c r="L2" s="727"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="698" t="s">
+      <c r="N2" s="713" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="698"/>
+      <c r="O2" s="713"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -14385,33 +14604,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="729" t="s">
+      <c r="C3" s="730" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="730"/>
+      <c r="D3" s="731"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="731" t="s">
+      <c r="F3" s="732" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="732"/>
+      <c r="G3" s="733"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="733" t="s">
+      <c r="I3" s="734" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="727"/>
-      <c r="K3" s="727"/>
-      <c r="L3" s="728"/>
+      <c r="J3" s="728"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="729"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="698"/>
-      <c r="O3" s="698"/>
-      <c r="P3" s="706" t="s">
+      <c r="N3" s="713"/>
+      <c r="O3" s="713"/>
+      <c r="P3" s="695" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="707"/>
-      <c r="R3" s="708" t="s">
+      <c r="Q3" s="696"/>
+      <c r="R3" s="697" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="709"/>
+      <c r="S3" s="698"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -14437,7 +14656,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="734"/>
+      <c r="I4" s="735"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -14513,8 +14732,8 @@
       <c r="Q5" s="38">
         <v>0</v>
       </c>
-      <c r="R5" s="710"/>
-      <c r="S5" s="710"/>
+      <c r="R5" s="699"/>
+      <c r="S5" s="699"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -14551,8 +14770,8 @@
         <f>O6-I6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="711"/>
-      <c r="S6" s="711"/>
+      <c r="R6" s="700"/>
+      <c r="S6" s="700"/>
       <c r="T6" s="45"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -14639,8 +14858,8 @@
       <c r="Q8" s="52">
         <v>0</v>
       </c>
-      <c r="R8" s="712"/>
-      <c r="S8" s="712"/>
+      <c r="R8" s="701"/>
+      <c r="S8" s="701"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -14727,8 +14946,8 @@
       <c r="Q10" s="52">
         <v>0</v>
       </c>
-      <c r="R10" s="713"/>
-      <c r="S10" s="713"/>
+      <c r="R10" s="702"/>
+      <c r="S10" s="702"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -14868,8 +15087,8 @@
       <c r="Q13" s="52">
         <v>0</v>
       </c>
-      <c r="R13" s="714"/>
-      <c r="S13" s="714"/>
+      <c r="R13" s="703"/>
+      <c r="S13" s="703"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -15177,8 +15396,8 @@
       <c r="Q20" s="52">
         <v>0</v>
       </c>
-      <c r="R20" s="715"/>
-      <c r="S20" s="715"/>
+      <c r="R20" s="704"/>
+      <c r="S20" s="704"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -15265,8 +15484,8 @@
       <c r="Q22" s="52">
         <v>0</v>
       </c>
-      <c r="R22" s="716"/>
-      <c r="S22" s="716"/>
+      <c r="R22" s="705"/>
+      <c r="S22" s="705"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -15312,8 +15531,8 @@
       <c r="Q23" s="52">
         <v>0</v>
       </c>
-      <c r="R23" s="717"/>
-      <c r="S23" s="717"/>
+      <c r="R23" s="706"/>
+      <c r="S23" s="706"/>
       <c r="T23" s="45"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -15453,8 +15672,8 @@
       <c r="Q26" s="52">
         <v>0</v>
       </c>
-      <c r="R26" s="718"/>
-      <c r="S26" s="718"/>
+      <c r="R26" s="707"/>
+      <c r="S26" s="707"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -16137,10 +16356,10 @@
     <row r="43" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="145"/>
       <c r="D43" s="147"/>
-      <c r="F43" s="705" t="s">
+      <c r="F43" s="694" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="705"/>
+      <c r="G43" s="694"/>
       <c r="H43" s="148">
         <f>SUM(H5:H34)</f>
         <v>52842.86</v>
@@ -16361,6 +16580,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -16373,14 +16600,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16423,10 +16642,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="693" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="694"/>
+      <c r="B1" s="708" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="709"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -16441,26 +16660,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="719">
+      <c r="B2" s="720">
         <v>45017</v>
       </c>
-      <c r="C2" s="720"/>
-      <c r="F2" s="721" t="s">
+      <c r="C2" s="721"/>
+      <c r="F2" s="722" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="723"/>
-      <c r="I2" s="724"/>
-      <c r="J2" s="725" t="s">
+      <c r="G2" s="723"/>
+      <c r="H2" s="724"/>
+      <c r="I2" s="725"/>
+      <c r="J2" s="726" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="725"/>
-      <c r="L2" s="726"/>
+      <c r="K2" s="726"/>
+      <c r="L2" s="727"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="698" t="s">
+      <c r="N2" s="713" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="698"/>
+      <c r="O2" s="713"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -16470,33 +16689,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="729" t="s">
+      <c r="C3" s="730" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="730"/>
+      <c r="D3" s="731"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="731" t="s">
+      <c r="F3" s="732" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="732"/>
+      <c r="G3" s="733"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="733" t="s">
+      <c r="I3" s="734" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="727"/>
-      <c r="K3" s="727"/>
-      <c r="L3" s="728"/>
+      <c r="J3" s="728"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="729"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="698"/>
-      <c r="O3" s="698"/>
-      <c r="P3" s="706" t="s">
+      <c r="N3" s="713"/>
+      <c r="O3" s="713"/>
+      <c r="P3" s="695" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="707"/>
-      <c r="R3" s="708" t="s">
+      <c r="Q3" s="696"/>
+      <c r="R3" s="697" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="709"/>
+      <c r="S3" s="698"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -16522,7 +16741,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="734"/>
+      <c r="I4" s="735"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -16597,8 +16816,8 @@
         <f>O5-I5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="710"/>
-      <c r="S5" s="710"/>
+      <c r="R5" s="699"/>
+      <c r="S5" s="699"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -16651,8 +16870,8 @@
         <f>O6-I6</f>
         <v>-2</v>
       </c>
-      <c r="R6" s="711"/>
-      <c r="S6" s="711"/>
+      <c r="R6" s="700"/>
+      <c r="S6" s="700"/>
       <c r="T6" s="180" t="s">
         <v>79</v>
       </c>
@@ -16757,8 +16976,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="712"/>
-      <c r="S8" s="712"/>
+      <c r="R8" s="701"/>
+      <c r="S8" s="701"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -16845,8 +17064,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="713"/>
-      <c r="S10" s="713"/>
+      <c r="R10" s="702"/>
+      <c r="S10" s="702"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -16997,8 +17216,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="714"/>
-      <c r="S13" s="714"/>
+      <c r="R13" s="703"/>
+      <c r="S13" s="703"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -17331,8 +17550,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="715"/>
-      <c r="S20" s="715"/>
+      <c r="R20" s="704"/>
+      <c r="S20" s="704"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -17419,8 +17638,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="716"/>
-      <c r="S22" s="716"/>
+      <c r="R22" s="705"/>
+      <c r="S22" s="705"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -17469,8 +17688,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="717"/>
-      <c r="S23" s="717"/>
+      <c r="R23" s="706"/>
+      <c r="S23" s="706"/>
       <c r="T23" s="180" t="s">
         <v>80</v>
       </c>
@@ -17609,8 +17828,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="718"/>
-      <c r="S26" s="718"/>
+      <c r="R26" s="707"/>
+      <c r="S26" s="707"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -18714,10 +18933,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="735" t="s">
+      <c r="F51" s="736" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="735"/>
+      <c r="G51" s="736"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>74525.02</v>
@@ -18945,6 +19164,14 @@
     <sortCondition ref="B5:B50"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -18957,14 +19184,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.31" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19007,10 +19226,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="693" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="694"/>
+      <c r="B1" s="708" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="709"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -19025,26 +19244,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="719">
+      <c r="B2" s="720">
         <v>45056</v>
       </c>
-      <c r="C2" s="720"/>
-      <c r="F2" s="721" t="s">
+      <c r="C2" s="721"/>
+      <c r="F2" s="722" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="723"/>
-      <c r="I2" s="724"/>
-      <c r="J2" s="725" t="s">
+      <c r="G2" s="723"/>
+      <c r="H2" s="724"/>
+      <c r="I2" s="725"/>
+      <c r="J2" s="726" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="725"/>
-      <c r="L2" s="726"/>
+      <c r="K2" s="726"/>
+      <c r="L2" s="727"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="698" t="s">
+      <c r="N2" s="713" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="698"/>
+      <c r="O2" s="713"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -19054,33 +19273,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="729" t="s">
+      <c r="C3" s="730" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="730"/>
+      <c r="D3" s="731"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="731" t="s">
+      <c r="F3" s="732" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="732"/>
+      <c r="G3" s="733"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="733" t="s">
+      <c r="I3" s="734" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="727"/>
-      <c r="K3" s="727"/>
-      <c r="L3" s="728"/>
+      <c r="J3" s="728"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="729"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="698"/>
-      <c r="O3" s="698"/>
-      <c r="P3" s="706" t="s">
+      <c r="N3" s="713"/>
+      <c r="O3" s="713"/>
+      <c r="P3" s="695" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="707"/>
-      <c r="R3" s="708" t="s">
+      <c r="Q3" s="696"/>
+      <c r="R3" s="697" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="709"/>
+      <c r="S3" s="698"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -19106,7 +19325,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="734"/>
+      <c r="I4" s="735"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -19177,8 +19396,8 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="710"/>
-      <c r="S5" s="710"/>
+      <c r="R5" s="699"/>
+      <c r="S5" s="699"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -19227,8 +19446,8 @@
         <f>I6-L6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="711"/>
-      <c r="S6" s="711"/>
+      <c r="R6" s="700"/>
+      <c r="S6" s="700"/>
       <c r="T6" s="180"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -19323,8 +19542,8 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="R8" s="712"/>
-      <c r="S8" s="712"/>
+      <c r="R8" s="701"/>
+      <c r="S8" s="701"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -19399,8 +19618,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="713"/>
-      <c r="S10" s="713"/>
+      <c r="R10" s="702"/>
+      <c r="S10" s="702"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -19521,8 +19740,8 @@
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="R13" s="714"/>
-      <c r="S13" s="714"/>
+      <c r="R13" s="703"/>
+      <c r="S13" s="703"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -19803,8 +20022,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="715"/>
-      <c r="S20" s="715"/>
+      <c r="R20" s="704"/>
+      <c r="S20" s="704"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -19879,8 +20098,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="716"/>
-      <c r="S22" s="716"/>
+      <c r="R22" s="705"/>
+      <c r="S22" s="705"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -19925,8 +20144,8 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="R23" s="717"/>
-      <c r="S23" s="717"/>
+      <c r="R23" s="706"/>
+      <c r="S23" s="706"/>
       <c r="T23" s="180"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -20055,8 +20274,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="718"/>
-      <c r="S26" s="718"/>
+      <c r="R26" s="707"/>
+      <c r="S26" s="707"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -21062,10 +21281,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="735" t="s">
+      <c r="F51" s="736" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="735"/>
+      <c r="G51" s="736"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>51160.97</v>
@@ -21288,14 +21507,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -21308,6 +21519,14 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21351,10 +21570,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="693" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="694"/>
+      <c r="B1" s="708" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="709"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -21369,26 +21588,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="719">
+      <c r="B2" s="720">
         <v>45082</v>
       </c>
-      <c r="C2" s="720"/>
-      <c r="F2" s="721" t="s">
+      <c r="C2" s="721"/>
+      <c r="F2" s="722" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="723"/>
-      <c r="I2" s="724"/>
-      <c r="J2" s="725" t="s">
+      <c r="G2" s="723"/>
+      <c r="H2" s="724"/>
+      <c r="I2" s="725"/>
+      <c r="J2" s="726" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="725"/>
-      <c r="L2" s="726"/>
+      <c r="K2" s="726"/>
+      <c r="L2" s="727"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="698" t="s">
+      <c r="N2" s="713" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="698"/>
+      <c r="O2" s="713"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -21398,33 +21617,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="729" t="s">
+      <c r="C3" s="730" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="730"/>
+      <c r="D3" s="731"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="731" t="s">
+      <c r="F3" s="732" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="732"/>
+      <c r="G3" s="733"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="733" t="s">
+      <c r="I3" s="734" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="727"/>
-      <c r="K3" s="727"/>
-      <c r="L3" s="728"/>
+      <c r="J3" s="728"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="729"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="698"/>
-      <c r="O3" s="698"/>
-      <c r="P3" s="706" t="s">
+      <c r="N3" s="713"/>
+      <c r="O3" s="713"/>
+      <c r="P3" s="695" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="707"/>
-      <c r="R3" s="708" t="s">
+      <c r="Q3" s="696"/>
+      <c r="R3" s="697" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="709"/>
+      <c r="S3" s="698"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -21450,7 +21669,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="734"/>
+      <c r="I4" s="735"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -21513,8 +21732,8 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="710"/>
-      <c r="S5" s="710"/>
+      <c r="R5" s="699"/>
+      <c r="S5" s="699"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -21563,8 +21782,8 @@
         <f>O6-L6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="711"/>
-      <c r="S6" s="711"/>
+      <c r="R6" s="700"/>
+      <c r="S6" s="700"/>
       <c r="T6" s="180"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -21655,8 +21874,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="712"/>
-      <c r="S8" s="712"/>
+      <c r="R8" s="701"/>
+      <c r="S8" s="701"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -21731,8 +21950,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="713"/>
-      <c r="S10" s="713"/>
+      <c r="R10" s="702"/>
+      <c r="S10" s="702"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -21879,8 +22098,8 @@
         <f>O13-I13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="714"/>
-      <c r="S13" s="714"/>
+      <c r="R13" s="703"/>
+      <c r="S13" s="703"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -22199,8 +22418,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R20" s="715"/>
-      <c r="S20" s="715"/>
+      <c r="R20" s="704"/>
+      <c r="S20" s="704"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -22287,8 +22506,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R22" s="716"/>
-      <c r="S22" s="716"/>
+      <c r="R22" s="705"/>
+      <c r="S22" s="705"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -22337,8 +22556,8 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="R23" s="717"/>
-      <c r="S23" s="717"/>
+      <c r="R23" s="706"/>
+      <c r="S23" s="706"/>
       <c r="T23" s="347" t="s">
         <v>99</v>
       </c>
@@ -22489,8 +22708,8 @@
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="R26" s="718"/>
-      <c r="S26" s="718"/>
+      <c r="R26" s="707"/>
+      <c r="S26" s="707"/>
       <c r="T26" s="347" t="s">
         <v>99</v>
       </c>
@@ -23567,10 +23786,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="735" t="s">
+      <c r="F51" s="736" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="735"/>
+      <c r="G51" s="736"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>55132.759999999995</v>
@@ -23798,6 +24017,14 @@
     <sortCondition ref="B27:B47"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -23810,14 +24037,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23863,10 +24082,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="693" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="694"/>
+      <c r="B1" s="708" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="709"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -23880,30 +24099,30 @@
       <c r="R1" s="13"/>
     </row>
     <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="741">
+      <c r="B2" s="742">
         <v>45108</v>
       </c>
-      <c r="C2" s="742"/>
-      <c r="F2" s="721" t="s">
+      <c r="C2" s="743"/>
+      <c r="F2" s="722" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="723"/>
-      <c r="I2" s="724"/>
-      <c r="J2" s="725" t="s">
+      <c r="G2" s="723"/>
+      <c r="H2" s="724"/>
+      <c r="I2" s="725"/>
+      <c r="J2" s="726" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="725"/>
-      <c r="L2" s="726"/>
+      <c r="K2" s="726"/>
+      <c r="L2" s="727"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="698" t="s">
+      <c r="N2" s="713" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="698"/>
-      <c r="P2" s="736" t="s">
+      <c r="O2" s="713"/>
+      <c r="P2" s="737" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="737"/>
+      <c r="Q2" s="738"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -23911,27 +24130,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="729" t="s">
+      <c r="C3" s="730" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="730"/>
+      <c r="D3" s="731"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="731" t="s">
+      <c r="F3" s="732" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="732"/>
+      <c r="G3" s="733"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="733" t="s">
+      <c r="I3" s="734" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="727"/>
-      <c r="K3" s="727"/>
-      <c r="L3" s="728"/>
+      <c r="J3" s="728"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="729"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="698"/>
-      <c r="O3" s="698"/>
-      <c r="P3" s="738"/>
-      <c r="Q3" s="739"/>
+      <c r="N3" s="713"/>
+      <c r="O3" s="713"/>
+      <c r="P3" s="739"/>
+      <c r="Q3" s="740"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -23958,7 +24177,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="734"/>
+      <c r="I4" s="735"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -24483,7 +24702,7 @@
         <v>-16</v>
       </c>
       <c r="R15" s="411"/>
-      <c r="S15" s="740" t="s">
+      <c r="S15" s="741" t="s">
         <v>109</v>
       </c>
       <c r="T15" s="13"/>
@@ -24534,7 +24753,7 @@
         <v>6</v>
       </c>
       <c r="R16" s="412"/>
-      <c r="S16" s="740"/>
+      <c r="S16" s="741"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -26009,10 +26228,10 @@
     <row r="51" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="735" t="s">
+      <c r="F51" s="736" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="735"/>
+      <c r="G51" s="736"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>34034.630000000005</v>
@@ -26282,10 +26501,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="693" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="694"/>
+      <c r="B1" s="708" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="709"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -26299,30 +26518,30 @@
       <c r="R1" s="13"/>
     </row>
     <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="741">
+      <c r="B2" s="742">
         <v>45136</v>
       </c>
-      <c r="C2" s="742"/>
-      <c r="F2" s="721" t="s">
+      <c r="C2" s="743"/>
+      <c r="F2" s="722" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="723"/>
-      <c r="I2" s="724"/>
-      <c r="J2" s="725" t="s">
+      <c r="G2" s="723"/>
+      <c r="H2" s="724"/>
+      <c r="I2" s="725"/>
+      <c r="J2" s="726" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="725"/>
-      <c r="L2" s="726"/>
+      <c r="K2" s="726"/>
+      <c r="L2" s="727"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="743" t="s">
+      <c r="N2" s="744" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="743"/>
-      <c r="P2" s="736" t="s">
+      <c r="O2" s="744"/>
+      <c r="P2" s="737" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="737"/>
+      <c r="Q2" s="738"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -26330,27 +26549,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="729" t="s">
+      <c r="C3" s="730" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="730"/>
+      <c r="D3" s="731"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="731" t="s">
+      <c r="F3" s="732" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="732"/>
+      <c r="G3" s="733"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="733" t="s">
+      <c r="I3" s="734" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="727"/>
-      <c r="K3" s="727"/>
-      <c r="L3" s="728"/>
+      <c r="J3" s="728"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="729"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="743"/>
-      <c r="O3" s="743"/>
-      <c r="P3" s="738"/>
-      <c r="Q3" s="739"/>
+      <c r="N3" s="744"/>
+      <c r="O3" s="744"/>
+      <c r="P3" s="739"/>
+      <c r="Q3" s="740"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -26377,7 +26596,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="734"/>
+      <c r="I4" s="735"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -28332,10 +28551,10 @@
     <row r="51" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="735" t="s">
+      <c r="F51" s="736" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="735"/>
+      <c r="G51" s="736"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>42356.71</v>
@@ -28556,16 +28775,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
     <mergeCell ref="N2:O3"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.23622047244094491" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="65" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28608,10 +28827,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="746" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="746"/>
+      <c r="B1" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="747"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -28629,26 +28848,26 @@
         <v>45171</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="721" t="s">
+      <c r="F2" s="722" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="723"/>
-      <c r="I2" s="724"/>
-      <c r="J2" s="725" t="s">
+      <c r="G2" s="723"/>
+      <c r="H2" s="724"/>
+      <c r="I2" s="725"/>
+      <c r="J2" s="726" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="725"/>
-      <c r="L2" s="726"/>
+      <c r="K2" s="726"/>
+      <c r="L2" s="727"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="743" t="s">
+      <c r="N2" s="744" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="743"/>
-      <c r="P2" s="736" t="s">
+      <c r="O2" s="744"/>
+      <c r="P2" s="737" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="737"/>
+      <c r="Q2" s="738"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -28656,27 +28875,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="747" t="s">
+      <c r="C3" s="748" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="730"/>
+      <c r="D3" s="731"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="731" t="s">
+      <c r="F3" s="732" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="732"/>
+      <c r="G3" s="733"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="733" t="s">
+      <c r="I3" s="734" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="727"/>
-      <c r="K3" s="727"/>
-      <c r="L3" s="728"/>
+      <c r="J3" s="728"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="729"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="743"/>
-      <c r="O3" s="743"/>
-      <c r="P3" s="738"/>
-      <c r="Q3" s="739"/>
+      <c r="N3" s="744"/>
+      <c r="O3" s="744"/>
+      <c r="P3" s="739"/>
+      <c r="Q3" s="740"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -28703,7 +28922,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="734"/>
+      <c r="I4" s="735"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -29187,10 +29406,10 @@
         <v>3</v>
       </c>
       <c r="M15" s="526"/>
-      <c r="N15" s="748">
+      <c r="N15" s="749">
         <v>96.813999999999993</v>
       </c>
-      <c r="O15" s="750">
+      <c r="O15" s="751">
         <v>3</v>
       </c>
       <c r="P15" s="562">
@@ -29202,7 +29421,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="411"/>
-      <c r="S15" s="744" t="s">
+      <c r="S15" s="745" t="s">
         <v>137</v>
       </c>
       <c r="T15" s="13"/>
@@ -29234,8 +29453,8 @@
       <c r="K16" s="528"/>
       <c r="L16" s="529"/>
       <c r="M16" s="526"/>
-      <c r="N16" s="749"/>
-      <c r="O16" s="751"/>
+      <c r="N16" s="750"/>
+      <c r="O16" s="752"/>
       <c r="P16" s="562">
         <f t="shared" si="3"/>
         <v>-33.090000000000003</v>
@@ -29245,7 +29464,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="412"/>
-      <c r="S16" s="745"/>
+      <c r="S16" s="746"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -30666,10 +30885,10 @@
     <row r="51" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="735" t="s">
+      <c r="F51" s="736" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="735"/>
+      <c r="G51" s="736"/>
       <c r="H51" s="560">
         <f>SUM(H5:H34)</f>
         <v>51673.75</v>
@@ -30946,10 +31165,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="746" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="746"/>
+      <c r="B1" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="747"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -30967,26 +31186,26 @@
         <v>45201</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="721" t="s">
+      <c r="F2" s="722" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="723"/>
-      <c r="I2" s="724"/>
-      <c r="J2" s="725" t="s">
+      <c r="G2" s="723"/>
+      <c r="H2" s="724"/>
+      <c r="I2" s="725"/>
+      <c r="J2" s="726" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="725"/>
-      <c r="L2" s="726"/>
+      <c r="K2" s="726"/>
+      <c r="L2" s="727"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="743" t="s">
+      <c r="N2" s="744" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="743"/>
-      <c r="P2" s="752" t="s">
+      <c r="O2" s="744"/>
+      <c r="P2" s="758" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="753"/>
+      <c r="Q2" s="759"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -30994,27 +31213,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="747" t="s">
+      <c r="C3" s="748" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="730"/>
+      <c r="D3" s="731"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="731" t="s">
+      <c r="F3" s="732" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="732"/>
+      <c r="G3" s="733"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="756" t="s">
+      <c r="I3" s="762" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="727"/>
-      <c r="K3" s="727"/>
-      <c r="L3" s="728"/>
+      <c r="J3" s="728"/>
+      <c r="K3" s="728"/>
+      <c r="L3" s="729"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="743"/>
-      <c r="O3" s="743"/>
-      <c r="P3" s="754"/>
-      <c r="Q3" s="755"/>
+      <c r="N3" s="744"/>
+      <c r="O3" s="744"/>
+      <c r="P3" s="760"/>
+      <c r="Q3" s="761"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -31041,7 +31260,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="757"/>
+      <c r="I4" s="763"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -31535,10 +31754,10 @@
         <v>103</v>
       </c>
       <c r="M15" s="526"/>
-      <c r="N15" s="758">
+      <c r="N15" s="753">
         <v>3617.26</v>
       </c>
-      <c r="O15" s="760">
+      <c r="O15" s="755">
         <v>141</v>
       </c>
       <c r="P15" s="597">
@@ -31550,7 +31769,7 @@
         <v>38</v>
       </c>
       <c r="R15" s="411"/>
-      <c r="S15" s="762" t="s">
+      <c r="S15" s="757" t="s">
         <v>145</v>
       </c>
       <c r="T15" s="13"/>
@@ -31578,8 +31797,8 @@
       <c r="K16" s="524"/>
       <c r="L16" s="525"/>
       <c r="M16" s="526"/>
-      <c r="N16" s="759"/>
-      <c r="O16" s="761"/>
+      <c r="N16" s="754"/>
+      <c r="O16" s="756"/>
       <c r="P16" s="597">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -31589,7 +31808,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="412"/>
-      <c r="S16" s="762"/>
+      <c r="S16" s="757"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -31794,7 +32013,7 @@
         <v>-35</v>
       </c>
       <c r="R21" s="413"/>
-      <c r="S21" s="762" t="s">
+      <c r="S21" s="757" t="s">
         <v>145</v>
       </c>
       <c r="T21" s="77"/>
@@ -31833,7 +32052,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="577"/>
-      <c r="S22" s="762"/>
+      <c r="S22" s="757"/>
       <c r="T22" s="78"/>
       <c r="U22" s="78"/>
       <c r="V22" s="13"/>
@@ -31882,7 +32101,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="578"/>
-      <c r="S23" s="762" t="s">
+      <c r="S23" s="757" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="13"/>
@@ -31921,7 +32140,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="414"/>
-      <c r="S24" s="762"/>
+      <c r="S24" s="757"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
@@ -33024,10 +33243,10 @@
     <row r="51" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="735" t="s">
+      <c r="F51" s="736" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="735"/>
+      <c r="G51" s="736"/>
       <c r="H51" s="560">
         <f>SUM(H5:H34)</f>
         <v>22552.550000000003</v>
@@ -33231,12 +33450,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:L3"/>
@@ -33245,6 +33458,12 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.23622047244094491" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/INVENTARIO ALMACEN  Dic   -2023 rtr.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/INVENTARIO ALMACEN  Dic   -2023 rtr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20925" windowHeight="11745" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20925" windowHeight="11745" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name=" E N E R O    2 0 2 3      " sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="  OCTUBRE    2 0 2 3        " sheetId="11" r:id="rId10"/>
     <sheet name="  NOVIEMBRE   2 0 2 3          " sheetId="12" r:id="rId11"/>
     <sheet name="  D I C I E M B R E      2023  " sheetId="13" r:id="rId12"/>
-    <sheet name="Hoja2" sheetId="14" r:id="rId13"/>
+    <sheet name="INVENTARIO  BETY" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="185">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -917,9 +917,6 @@
     <t>BETY NO DIO DE BAJA EL TRASPASO  541 E1</t>
   </si>
   <si>
-    <t>ERROR DE BETY REGISTRO 1 CAJA MENOS</t>
-  </si>
-  <si>
     <t>BOLA  NEGRA</t>
   </si>
   <si>
@@ -940,6 +937,108 @@
   <si>
     <t>CONTRA EXCEL  pulpa blanca</t>
   </si>
+  <si>
+    <t>NO REPORTO EXISTENCIA   BRANDOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEDAN KILOS SIN CAJAS </t>
+  </si>
+  <si>
+    <t>NO REPORTO EXISTENCIA  BRANDOM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BETY NO DIO DE BAJA  NOTA  880-E1   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Y   BRANDON REPORTA MENOS EXISTENCIA  )</t>
+    </r>
+  </si>
+  <si>
+    <t>BETY ERROR  DE ENTRADA 10 Kilos MENOS   Y     HUBO      ERROR EN CAJAS POR SALIDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERROR DE BETY REGISTRO 1 CAJA MENOS  EN SU ENTRADA DE NOVIEMBRE </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BETY   TRAE UN ERROR DE NOVIEMBRE   EN SU ENTRADA   CON 1 CAJA MENOS                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (  NO REPORTO  EXISTENCIA    BRANDOM    )</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon REPORTO MAS KILOS Y CAJAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon REPORTO MAS KILOS </t>
+  </si>
+  <si>
+    <t>BRANDON REPORTO MENOS KILOS Y CAJAS</t>
+  </si>
+  <si>
+    <t>Brandom REPORTO MENOS  KILOS Y CAJAS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BETY NO DIO DE BAJA  NOTA  880-E1   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BETY   TRAE UN ERROR DE NOVIEMBRE   EN SU ENTRADA   CON 1 CAJA MENOS                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -950,7 +1049,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,6 +1474,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -1546,7 +1653,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="136">
+  <borders count="148">
     <border>
       <left/>
       <right/>
@@ -3265,13 +3372,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="794">
+  <cellXfs count="841">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4988,9 +5265,6 @@
     <xf numFmtId="4" fontId="15" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5040,30 +5314,141 @@
     <xf numFmtId="2" fontId="12" fillId="28" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="28" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5106,42 +5491,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5241,6 +5590,24 @@
     <xf numFmtId="1" fontId="30" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="30" fillId="8" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5256,24 +5623,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="42" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5289,80 +5638,149 @@
     <xf numFmtId="0" fontId="12" fillId="27" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="8" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="28" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="8" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="46" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5374,8 +5792,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF9966FF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF800000"/>
       <color rgb="FFFFCCFF"/>
@@ -5800,10 +6218,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="708" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="709"/>
+      <c r="B1" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="719"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5815,21 +6233,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="710">
+      <c r="B2" s="720">
         <v>44955</v>
       </c>
-      <c r="C2" s="711"/>
-      <c r="F2" s="712" t="s">
+      <c r="C2" s="721"/>
+      <c r="F2" s="722" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="712"/>
-      <c r="H2" s="712"/>
+      <c r="G2" s="722"/>
+      <c r="H2" s="722"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="713" t="s">
+      <c r="K2" s="723" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="713"/>
+      <c r="L2" s="723"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="Q2" s="12"/>
@@ -5839,30 +6257,30 @@
     </row>
     <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="714" t="s">
+      <c r="C3" s="724" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="715"/>
+      <c r="D3" s="725"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="716" t="s">
+      <c r="F3" s="726" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="717"/>
+      <c r="G3" s="727"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="718" t="s">
+      <c r="I3" s="728" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="713"/>
-      <c r="L3" s="713"/>
-      <c r="M3" s="695" t="s">
+      <c r="K3" s="723"/>
+      <c r="L3" s="723"/>
+      <c r="M3" s="731" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="696"/>
-      <c r="O3" s="697" t="s">
+      <c r="N3" s="732"/>
+      <c r="O3" s="733" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="698"/>
+      <c r="P3" s="734"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -5888,7 +6306,7 @@
       <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="719"/>
+      <c r="I4" s="729"/>
       <c r="J4" s="16"/>
       <c r="K4" s="21" t="s">
         <v>10</v>
@@ -5949,8 +6367,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="699"/>
-      <c r="P5" s="699"/>
+      <c r="O5" s="735"/>
+      <c r="P5" s="735"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -5992,8 +6410,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="700"/>
-      <c r="P6" s="700"/>
+      <c r="O6" s="736"/>
+      <c r="P6" s="736"/>
       <c r="Q6" s="45"/>
       <c r="R6" s="13"/>
       <c r="S6" s="46"/>
@@ -6076,8 +6494,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="701"/>
-      <c r="P8" s="701"/>
+      <c r="O8" s="737"/>
+      <c r="P8" s="737"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -6158,8 +6576,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="702"/>
-      <c r="P10" s="702"/>
+      <c r="O10" s="738"/>
+      <c r="P10" s="738"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -6287,8 +6705,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="703"/>
-      <c r="P13" s="703"/>
+      <c r="O13" s="739"/>
+      <c r="P13" s="739"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="66"/>
       <c r="S13" s="66"/>
@@ -6556,8 +6974,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="704"/>
-      <c r="P20" s="704"/>
+      <c r="O20" s="740"/>
+      <c r="P20" s="740"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -6642,8 +7060,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="705"/>
-      <c r="P22" s="705"/>
+      <c r="O22" s="741"/>
+      <c r="P22" s="741"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="78"/>
       <c r="S22" s="78"/>
@@ -6685,8 +7103,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="706"/>
-      <c r="P23" s="706"/>
+      <c r="O23" s="742"/>
+      <c r="P23" s="742"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -6808,8 +7226,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="707"/>
-      <c r="P26" s="707"/>
+      <c r="O26" s="743"/>
+      <c r="P26" s="743"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
@@ -7322,10 +7740,10 @@
     <row r="40" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="145"/>
       <c r="D40" s="147"/>
-      <c r="F40" s="694" t="s">
+      <c r="F40" s="730" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="694"/>
+      <c r="G40" s="730"/>
       <c r="H40" s="148">
         <f>SUM(H5:H31)</f>
         <v>51250.14</v>
@@ -7525,13 +7943,6 @@
     <sortCondition ref="B5:B38"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -7544,6 +7955,13 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7586,10 +8004,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="747"/>
+      <c r="B1" s="771" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="771"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -7607,26 +8025,26 @@
         <v>45201</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="722" t="s">
+      <c r="F2" s="746" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="723"/>
-      <c r="H2" s="724"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="726" t="s">
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="726"/>
-      <c r="L2" s="727"/>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="744" t="s">
+      <c r="N2" s="768" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="744"/>
-      <c r="P2" s="758" t="s">
+      <c r="O2" s="768"/>
+      <c r="P2" s="777" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="759"/>
+      <c r="Q2" s="778"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -7634,27 +8052,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="748" t="s">
+      <c r="C3" s="772" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="731"/>
+      <c r="D3" s="755"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="732" t="s">
+      <c r="F3" s="756" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="733"/>
+      <c r="G3" s="757"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="762" t="s">
+      <c r="I3" s="781" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="728"/>
-      <c r="K3" s="728"/>
-      <c r="L3" s="729"/>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="744"/>
-      <c r="O3" s="744"/>
-      <c r="P3" s="760"/>
-      <c r="Q3" s="761"/>
+      <c r="N3" s="768"/>
+      <c r="O3" s="768"/>
+      <c r="P3" s="779"/>
+      <c r="Q3" s="780"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -7681,7 +8099,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="782"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -8142,10 +8560,10 @@
         <v>24</v>
       </c>
       <c r="M14" s="526"/>
-      <c r="N14" s="764">
+      <c r="N14" s="788">
         <v>744.11</v>
       </c>
-      <c r="O14" s="766">
+      <c r="O14" s="790">
         <v>24</v>
       </c>
       <c r="P14" s="562">
@@ -8157,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="411"/>
-      <c r="S14" s="757"/>
+      <c r="S14" s="787"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
@@ -8183,8 +8601,8 @@
       <c r="K15" s="524"/>
       <c r="L15" s="525"/>
       <c r="M15" s="526"/>
-      <c r="N15" s="765"/>
-      <c r="O15" s="767"/>
+      <c r="N15" s="789"/>
+      <c r="O15" s="791"/>
       <c r="P15" s="562">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8194,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="412"/>
-      <c r="S15" s="757"/>
+      <c r="S15" s="787"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
@@ -8407,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="413"/>
-      <c r="S20" s="757"/>
+      <c r="S20" s="787"/>
       <c r="T20" s="77"/>
       <c r="U20" s="77"/>
       <c r="V20" s="13"/>
@@ -8444,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="623"/>
-      <c r="S21" s="757"/>
+      <c r="S21" s="787"/>
       <c r="T21" s="78"/>
       <c r="U21" s="78"/>
       <c r="V21" s="13"/>
@@ -8493,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="624"/>
-      <c r="S22" s="757"/>
+      <c r="S22" s="787"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
@@ -8530,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="414"/>
-      <c r="S23" s="757"/>
+      <c r="S23" s="787"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -9601,10 +10019,10 @@
     <row r="50" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="145"/>
       <c r="D50" s="147"/>
-      <c r="F50" s="736" t="s">
+      <c r="F50" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="736"/>
+      <c r="G50" s="760"/>
       <c r="H50" s="560">
         <f>SUM(H5:H33)</f>
         <v>25434.93</v>
@@ -9831,8 +10249,8 @@
   </sheetPr>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -9859,10 +10277,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="747"/>
+      <c r="B1" s="771" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="771"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -9880,24 +10298,24 @@
         <v>45255</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="722" t="s">
+      <c r="F2" s="746" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="723"/>
-      <c r="H2" s="724"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="726" t="s">
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="726"/>
-      <c r="L2" s="727"/>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="744"/>
-      <c r="O2" s="744"/>
-      <c r="P2" s="758" t="s">
+      <c r="N2" s="768"/>
+      <c r="O2" s="768"/>
+      <c r="P2" s="777" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="759"/>
+      <c r="Q2" s="778"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -9905,27 +10323,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="748" t="s">
+      <c r="C3" s="772" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="731"/>
+      <c r="D3" s="755"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="732" t="s">
+      <c r="F3" s="756" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="733"/>
+      <c r="G3" s="757"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="762" t="s">
+      <c r="I3" s="781" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="728"/>
-      <c r="K3" s="728"/>
-      <c r="L3" s="729"/>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="744"/>
-      <c r="O3" s="744"/>
-      <c r="P3" s="760"/>
-      <c r="Q3" s="761"/>
+      <c r="N3" s="768"/>
+      <c r="O3" s="768"/>
+      <c r="P3" s="779"/>
+      <c r="Q3" s="780"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -9952,7 +10370,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="782"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -10008,8 +10426,8 @@
         <v>81</v>
       </c>
       <c r="M5" s="42"/>
-      <c r="N5" s="786"/>
-      <c r="O5" s="787"/>
+      <c r="N5" s="710"/>
+      <c r="O5" s="711"/>
       <c r="P5" s="239">
         <f>H5-K5</f>
         <v>0</v>
@@ -10045,9 +10463,9 @@
       <c r="K6" s="279"/>
       <c r="L6" s="214"/>
       <c r="M6" s="42"/>
-      <c r="N6" s="786"/>
-      <c r="O6" s="787"/>
-      <c r="P6" s="775">
+      <c r="N6" s="710"/>
+      <c r="O6" s="711"/>
+      <c r="P6" s="699">
         <f>N6-K6</f>
         <v>0</v>
       </c>
@@ -10098,9 +10516,9 @@
         <v>69</v>
       </c>
       <c r="M7" s="42"/>
-      <c r="N7" s="786"/>
-      <c r="O7" s="787"/>
-      <c r="P7" s="775">
+      <c r="N7" s="710"/>
+      <c r="O7" s="711"/>
+      <c r="P7" s="699">
         <f t="shared" ref="P7:Q9" si="2">N7-K7</f>
         <v>-832.02</v>
       </c>
@@ -10114,7 +10532,7 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="2:26" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:26" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="514" t="s">
         <v>71</v>
       </c>
@@ -10135,9 +10553,9 @@
       <c r="K8" s="279"/>
       <c r="L8" s="214"/>
       <c r="M8" s="42"/>
-      <c r="N8" s="786"/>
-      <c r="O8" s="787"/>
-      <c r="P8" s="775">
+      <c r="N8" s="710"/>
+      <c r="O8" s="711"/>
+      <c r="P8" s="699">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10180,9 +10598,9 @@
         <v>9</v>
       </c>
       <c r="M9" s="42"/>
-      <c r="N9" s="786"/>
-      <c r="O9" s="787"/>
-      <c r="P9" s="775">
+      <c r="N9" s="710"/>
+      <c r="O9" s="711"/>
+      <c r="P9" s="699">
         <f t="shared" si="2"/>
         <v>-167.58</v>
       </c>
@@ -10217,9 +10635,9 @@
       <c r="K10" s="598"/>
       <c r="L10" s="599"/>
       <c r="M10" s="42"/>
-      <c r="N10" s="786"/>
-      <c r="O10" s="787"/>
-      <c r="P10" s="776">
+      <c r="N10" s="710"/>
+      <c r="O10" s="711"/>
+      <c r="P10" s="700">
         <f t="shared" ref="P10:Q50" si="3">H10-K10</f>
         <v>0</v>
       </c>
@@ -10262,9 +10680,9 @@
         <v>9</v>
       </c>
       <c r="M11" s="42"/>
-      <c r="N11" s="786"/>
-      <c r="O11" s="787"/>
-      <c r="P11" s="776"/>
+      <c r="N11" s="710"/>
+      <c r="O11" s="711"/>
+      <c r="P11" s="700"/>
       <c r="Q11" s="448"/>
       <c r="R11" s="410"/>
       <c r="S11" s="617"/>
@@ -10301,9 +10719,9 @@
         <v>13</v>
       </c>
       <c r="M12" s="526"/>
-      <c r="N12" s="786"/>
-      <c r="O12" s="787"/>
-      <c r="P12" s="776">
+      <c r="N12" s="710"/>
+      <c r="O12" s="711"/>
+      <c r="P12" s="700">
         <f>N12-H12</f>
         <v>-130</v>
       </c>
@@ -10346,11 +10764,11 @@
         <v>67</v>
       </c>
       <c r="M13" s="526"/>
-      <c r="N13" s="788">
+      <c r="N13" s="712">
         <f>K13-H13</f>
         <v>697.58</v>
       </c>
-      <c r="O13" s="789">
+      <c r="O13" s="713">
         <f>L13-I13</f>
         <v>25</v>
       </c>
@@ -10363,7 +10781,7 @@
         <v>-17</v>
       </c>
       <c r="R13" s="411"/>
-      <c r="S13" s="768" t="s">
+      <c r="S13" s="792" t="s">
         <v>163</v>
       </c>
       <c r="T13" s="13"/>
@@ -10399,8 +10817,8 @@
         <v>0</v>
       </c>
       <c r="M14" s="526"/>
-      <c r="N14" s="790"/>
-      <c r="O14" s="791"/>
+      <c r="N14" s="714"/>
+      <c r="O14" s="715"/>
       <c r="P14" s="562">
         <f t="shared" si="4"/>
         <v>-697.58</v>
@@ -10410,7 +10828,7 @@
         <v>-24</v>
       </c>
       <c r="R14" s="412"/>
-      <c r="S14" s="768"/>
+      <c r="S14" s="792"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
@@ -10436,9 +10854,9 @@
       <c r="K15" s="524"/>
       <c r="L15" s="525"/>
       <c r="M15" s="526"/>
-      <c r="N15" s="786"/>
-      <c r="O15" s="787"/>
-      <c r="P15" s="777">
+      <c r="N15" s="710"/>
+      <c r="O15" s="711"/>
+      <c r="P15" s="701">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10481,9 +10899,9 @@
         <v>47</v>
       </c>
       <c r="M16" s="526"/>
-      <c r="N16" s="786"/>
-      <c r="O16" s="787"/>
-      <c r="P16" s="778">
+      <c r="N16" s="710"/>
+      <c r="O16" s="711"/>
+      <c r="P16" s="702">
         <f t="shared" si="4"/>
         <v>-1054.58</v>
       </c>
@@ -10526,9 +10944,9 @@
         <v>12</v>
       </c>
       <c r="M17" s="526"/>
-      <c r="N17" s="786"/>
-      <c r="O17" s="787"/>
-      <c r="P17" s="779">
+      <c r="N17" s="710"/>
+      <c r="O17" s="711"/>
+      <c r="P17" s="703">
         <f t="shared" si="4"/>
         <v>-374.77</v>
       </c>
@@ -10571,9 +10989,9 @@
         <v>30</v>
       </c>
       <c r="M18" s="526"/>
-      <c r="N18" s="786"/>
-      <c r="O18" s="787"/>
-      <c r="P18" s="779">
+      <c r="N18" s="710"/>
+      <c r="O18" s="711"/>
+      <c r="P18" s="703">
         <f t="shared" ref="P18:P19" si="5">N18-H18</f>
         <v>-806.98</v>
       </c>
@@ -10616,9 +11034,9 @@
         <v>28</v>
       </c>
       <c r="M19" s="526"/>
-      <c r="N19" s="786"/>
-      <c r="O19" s="787"/>
-      <c r="P19" s="779">
+      <c r="N19" s="710"/>
+      <c r="O19" s="711"/>
+      <c r="P19" s="703">
         <f t="shared" si="5"/>
         <v>-737.87</v>
       </c>
@@ -10661,9 +11079,9 @@
         <v>78</v>
       </c>
       <c r="M20" s="526"/>
-      <c r="N20" s="786"/>
-      <c r="O20" s="787"/>
-      <c r="P20" s="779">
+      <c r="N20" s="710"/>
+      <c r="O20" s="711"/>
+      <c r="P20" s="703">
         <f t="shared" ref="P20:P21" si="7">N20-H20</f>
         <v>-1862.88</v>
       </c>
@@ -10698,9 +11116,9 @@
       <c r="K21" s="524"/>
       <c r="L21" s="525"/>
       <c r="M21" s="526"/>
-      <c r="N21" s="786"/>
-      <c r="O21" s="787"/>
-      <c r="P21" s="779">
+      <c r="N21" s="710"/>
+      <c r="O21" s="711"/>
+      <c r="P21" s="703">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10709,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="413"/>
-      <c r="S21" s="757"/>
+      <c r="S21" s="787"/>
       <c r="T21" s="77"/>
       <c r="U21" s="77"/>
       <c r="V21" s="13"/>
@@ -10743,9 +11161,9 @@
         <v>12</v>
       </c>
       <c r="M22" s="526"/>
-      <c r="N22" s="786"/>
-      <c r="O22" s="787"/>
-      <c r="P22" s="776">
+      <c r="N22" s="710"/>
+      <c r="O22" s="711"/>
+      <c r="P22" s="700">
         <f t="shared" si="4"/>
         <v>-300.44</v>
       </c>
@@ -10754,7 +11172,7 @@
         <v>-12</v>
       </c>
       <c r="R22" s="658"/>
-      <c r="S22" s="757"/>
+      <c r="S22" s="787"/>
       <c r="T22" s="78"/>
       <c r="U22" s="78"/>
       <c r="V22" s="13"/>
@@ -10788,28 +11206,28 @@
         <v>85</v>
       </c>
       <c r="M23" s="526"/>
-      <c r="N23" s="792">
+      <c r="N23" s="716">
         <f>K23-H23</f>
         <v>52.509999999999991</v>
       </c>
-      <c r="O23" s="793">
+      <c r="O23" s="717">
         <f>L23-I23</f>
         <v>3</v>
       </c>
-      <c r="P23" s="776"/>
+      <c r="P23" s="700"/>
       <c r="Q23" s="328">
         <f t="shared" si="4"/>
         <v>-79</v>
       </c>
       <c r="R23" s="659"/>
-      <c r="S23" s="768" t="s">
+      <c r="S23" s="792" t="s">
         <v>164</v>
       </c>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="2:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="514" t="s">
         <v>94</v>
       </c>
@@ -10830,9 +11248,9 @@
       <c r="K24" s="524"/>
       <c r="L24" s="525"/>
       <c r="M24" s="526"/>
-      <c r="N24" s="786"/>
-      <c r="O24" s="787"/>
-      <c r="P24" s="776">
+      <c r="N24" s="710"/>
+      <c r="O24" s="711"/>
+      <c r="P24" s="700">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10841,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="414"/>
-      <c r="S24" s="768"/>
+      <c r="S24" s="792"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
@@ -10875,9 +11293,9 @@
         <v>589</v>
       </c>
       <c r="M25" s="526"/>
-      <c r="N25" s="786"/>
-      <c r="O25" s="787"/>
-      <c r="P25" s="776">
+      <c r="N25" s="710"/>
+      <c r="O25" s="711"/>
+      <c r="P25" s="700">
         <f t="shared" si="4"/>
         <v>-2674.06</v>
       </c>
@@ -10920,9 +11338,9 @@
         <v>9</v>
       </c>
       <c r="M26" s="526"/>
-      <c r="N26" s="786"/>
-      <c r="O26" s="787"/>
-      <c r="P26" s="776">
+      <c r="N26" s="710"/>
+      <c r="O26" s="711"/>
+      <c r="P26" s="700">
         <f t="shared" si="4"/>
         <v>-241.18</v>
       </c>
@@ -10957,9 +11375,9 @@
       <c r="K27" s="524"/>
       <c r="L27" s="525"/>
       <c r="M27" s="526"/>
-      <c r="N27" s="786"/>
-      <c r="O27" s="787"/>
-      <c r="P27" s="776">
+      <c r="N27" s="710"/>
+      <c r="O27" s="711"/>
+      <c r="P27" s="700">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11002,9 +11420,9 @@
         <v>644</v>
       </c>
       <c r="M28" s="526"/>
-      <c r="N28" s="786"/>
-      <c r="O28" s="787"/>
-      <c r="P28" s="776">
+      <c r="N28" s="710"/>
+      <c r="O28" s="711"/>
+      <c r="P28" s="700">
         <f t="shared" si="4"/>
         <v>-16793.16</v>
       </c>
@@ -11039,9 +11457,9 @@
       <c r="K29" s="524"/>
       <c r="L29" s="525"/>
       <c r="M29" s="526"/>
-      <c r="N29" s="786"/>
-      <c r="O29" s="787"/>
-      <c r="P29" s="776">
+      <c r="N29" s="710"/>
+      <c r="O29" s="711"/>
+      <c r="P29" s="700">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11076,9 +11494,9 @@
       <c r="K30" s="524"/>
       <c r="L30" s="525"/>
       <c r="M30" s="526"/>
-      <c r="N30" s="786"/>
-      <c r="O30" s="787"/>
-      <c r="P30" s="776">
+      <c r="N30" s="710"/>
+      <c r="O30" s="711"/>
+      <c r="P30" s="700">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11092,7 +11510,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="514" t="s">
         <v>39</v>
       </c>
@@ -11121,15 +11539,15 @@
         <v>229</v>
       </c>
       <c r="M31" s="526"/>
-      <c r="N31" s="792">
+      <c r="N31" s="716">
         <f>K31-H31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="793">
+      <c r="O31" s="717">
         <f>L31-I31</f>
         <v>-1</v>
       </c>
-      <c r="P31" s="776">
+      <c r="P31" s="700">
         <f t="shared" si="4"/>
         <v>-6259.29</v>
       </c>
@@ -11138,8 +11556,8 @@
         <v>-231</v>
       </c>
       <c r="R31" s="656"/>
-      <c r="S31" s="668" t="s">
-        <v>165</v>
+      <c r="S31" s="813" t="s">
+        <v>177</v>
       </c>
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
@@ -11166,9 +11584,9 @@
       <c r="K32" s="524"/>
       <c r="L32" s="525"/>
       <c r="M32" s="526"/>
-      <c r="N32" s="786"/>
-      <c r="O32" s="787"/>
-      <c r="P32" s="776">
+      <c r="N32" s="710"/>
+      <c r="O32" s="711"/>
+      <c r="P32" s="700">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11211,9 +11629,9 @@
         <v>402</v>
       </c>
       <c r="M33" s="526"/>
-      <c r="N33" s="786"/>
-      <c r="O33" s="787"/>
-      <c r="P33" s="776">
+      <c r="N33" s="710"/>
+      <c r="O33" s="711"/>
+      <c r="P33" s="700">
         <f t="shared" si="4"/>
         <v>-4020</v>
       </c>
@@ -11256,9 +11674,9 @@
         <v>102</v>
       </c>
       <c r="M34" s="526"/>
-      <c r="N34" s="786"/>
-      <c r="O34" s="787"/>
-      <c r="P34" s="776">
+      <c r="N34" s="710"/>
+      <c r="O34" s="711"/>
+      <c r="P34" s="700">
         <f t="shared" si="4"/>
         <v>-1020</v>
       </c>
@@ -11301,9 +11719,9 @@
         <v>676</v>
       </c>
       <c r="M35" s="526"/>
-      <c r="N35" s="786"/>
-      <c r="O35" s="787"/>
-      <c r="P35" s="776">
+      <c r="N35" s="710"/>
+      <c r="O35" s="711"/>
+      <c r="P35" s="700">
         <f t="shared" si="4"/>
         <v>-16632.23</v>
       </c>
@@ -11338,9 +11756,9 @@
       <c r="K36" s="524"/>
       <c r="L36" s="525"/>
       <c r="M36" s="526"/>
-      <c r="N36" s="786"/>
-      <c r="O36" s="787"/>
-      <c r="P36" s="776">
+      <c r="N36" s="710"/>
+      <c r="O36" s="711"/>
+      <c r="P36" s="700">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11383,9 +11801,9 @@
         <v>98</v>
       </c>
       <c r="M37" s="526"/>
-      <c r="N37" s="786"/>
-      <c r="O37" s="787"/>
-      <c r="P37" s="776">
+      <c r="N37" s="710"/>
+      <c r="O37" s="711"/>
+      <c r="P37" s="700">
         <f t="shared" si="4"/>
         <v>-1470</v>
       </c>
@@ -11421,9 +11839,9 @@
       <c r="K38" s="524"/>
       <c r="L38" s="525"/>
       <c r="M38" s="526"/>
-      <c r="N38" s="786"/>
-      <c r="O38" s="787"/>
-      <c r="P38" s="776">
+      <c r="N38" s="710"/>
+      <c r="O38" s="711"/>
+      <c r="P38" s="700">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11458,9 +11876,9 @@
       <c r="K39" s="524"/>
       <c r="L39" s="525"/>
       <c r="M39" s="526"/>
-      <c r="N39" s="786"/>
-      <c r="O39" s="787"/>
-      <c r="P39" s="776">
+      <c r="N39" s="710"/>
+      <c r="O39" s="711"/>
+      <c r="P39" s="700">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11495,9 +11913,9 @@
       <c r="K40" s="524"/>
       <c r="L40" s="525"/>
       <c r="M40" s="526"/>
-      <c r="N40" s="786"/>
-      <c r="O40" s="787"/>
-      <c r="P40" s="776">
+      <c r="N40" s="710"/>
+      <c r="O40" s="711"/>
+      <c r="P40" s="700">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11540,9 +11958,9 @@
         <v>16</v>
       </c>
       <c r="M41" s="526"/>
-      <c r="N41" s="786"/>
-      <c r="O41" s="787"/>
-      <c r="P41" s="776">
+      <c r="N41" s="710"/>
+      <c r="O41" s="711"/>
+      <c r="P41" s="700">
         <f t="shared" ref="P41:Q44" si="9">H41-K41</f>
         <v>0</v>
       </c>
@@ -11577,9 +11995,9 @@
       <c r="K42" s="543"/>
       <c r="L42" s="544"/>
       <c r="M42" s="542"/>
-      <c r="N42" s="780"/>
-      <c r="O42" s="781"/>
-      <c r="P42" s="776">
+      <c r="N42" s="704"/>
+      <c r="O42" s="705"/>
+      <c r="P42" s="700">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -11614,9 +12032,9 @@
       <c r="K43" s="543"/>
       <c r="L43" s="544"/>
       <c r="M43" s="542"/>
-      <c r="N43" s="782"/>
-      <c r="O43" s="783"/>
-      <c r="P43" s="776">
+      <c r="N43" s="706"/>
+      <c r="O43" s="707"/>
+      <c r="P43" s="700">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -11651,9 +12069,9 @@
       <c r="K44" s="543"/>
       <c r="L44" s="544"/>
       <c r="M44" s="542"/>
-      <c r="N44" s="782"/>
-      <c r="O44" s="783"/>
-      <c r="P44" s="776">
+      <c r="N44" s="706"/>
+      <c r="O44" s="707"/>
+      <c r="P44" s="700">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -11696,9 +12114,9 @@
         <v>6</v>
       </c>
       <c r="M45" s="542"/>
-      <c r="N45" s="784"/>
-      <c r="O45" s="785"/>
-      <c r="P45" s="776">
+      <c r="N45" s="708"/>
+      <c r="O45" s="709"/>
+      <c r="P45" s="700">
         <f>N45-H45</f>
         <v>-176.44</v>
       </c>
@@ -11904,10 +12322,10 @@
     <row r="51" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="736" t="s">
+      <c r="F51" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="736"/>
+      <c r="G51" s="760"/>
       <c r="H51" s="560">
         <f>SUM(H5:H34)</f>
         <v>41458.51</v>
@@ -12135,8 +12553,8 @@
   </sheetPr>
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -12163,10 +12581,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="747"/>
+      <c r="B1" s="771" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="771"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -12184,26 +12602,26 @@
         <v>45297</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="722" t="s">
+      <c r="F2" s="746" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="723"/>
-      <c r="H2" s="724"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="726" t="s">
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="726"/>
-      <c r="L2" s="727"/>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="744" t="s">
-        <v>171</v>
-      </c>
-      <c r="O2" s="744"/>
-      <c r="P2" s="758" t="s">
+      <c r="N2" s="768" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="768"/>
+      <c r="P2" s="777" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="759"/>
+      <c r="Q2" s="778"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -12211,27 +12629,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="748" t="s">
+      <c r="C3" s="772" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="731"/>
+      <c r="D3" s="755"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="732" t="s">
+      <c r="F3" s="756" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="733"/>
+      <c r="G3" s="757"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="762" t="s">
+      <c r="I3" s="781" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="728"/>
-      <c r="K3" s="728"/>
-      <c r="L3" s="729"/>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="744"/>
-      <c r="O3" s="744"/>
-      <c r="P3" s="760"/>
-      <c r="Q3" s="761"/>
+      <c r="N3" s="768"/>
+      <c r="O3" s="768"/>
+      <c r="P3" s="779"/>
+      <c r="Q3" s="780"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -12258,7 +12676,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="782"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -12307,10 +12725,10 @@
         <v>6</v>
       </c>
       <c r="J5" s="54"/>
-      <c r="K5" s="687">
+      <c r="K5" s="805">
         <v>72.650000000000006</v>
       </c>
-      <c r="L5" s="688">
+      <c r="L5" s="806">
         <v>6</v>
       </c>
       <c r="M5" s="42"/>
@@ -12328,7 +12746,7 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="669"/>
+      <c r="R5" s="668"/>
       <c r="S5" s="430"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
@@ -12356,10 +12774,10 @@
         <v>105</v>
       </c>
       <c r="J6" s="54"/>
-      <c r="K6" s="689">
+      <c r="K6" s="678">
         <v>3334.48</v>
       </c>
-      <c r="L6" s="690">
+      <c r="L6" s="679">
         <v>105</v>
       </c>
       <c r="M6" s="42"/>
@@ -12369,16 +12787,18 @@
       <c r="O6" s="628">
         <v>90</v>
       </c>
-      <c r="P6" s="325">
+      <c r="P6" s="839">
         <f>N6-K6</f>
         <v>-507.4699999999998</v>
       </c>
-      <c r="Q6" s="326">
+      <c r="Q6" s="840">
         <f>O6-L6</f>
         <v>-15</v>
       </c>
-      <c r="R6" s="670"/>
-      <c r="S6" s="426"/>
+      <c r="R6" s="669"/>
+      <c r="S6" s="816" t="s">
+        <v>181</v>
+      </c>
       <c r="T6" s="13"/>
       <c r="U6" s="46"/>
       <c r="V6" s="47"/>
@@ -12409,10 +12829,10 @@
         <v>60</v>
       </c>
       <c r="J7" s="54"/>
-      <c r="K7" s="689">
+      <c r="K7" s="678">
         <v>734.29</v>
       </c>
-      <c r="L7" s="690">
+      <c r="L7" s="679">
         <v>60</v>
       </c>
       <c r="M7" s="42"/>
@@ -12438,7 +12858,7 @@
     </row>
     <row r="8" spans="2:26" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="514" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
@@ -12458,10 +12878,10 @@
         <v>184</v>
       </c>
       <c r="J8" s="54"/>
-      <c r="K8" s="689">
+      <c r="K8" s="678">
         <v>4288.82</v>
       </c>
-      <c r="L8" s="690">
+      <c r="L8" s="679">
         <v>184</v>
       </c>
       <c r="M8" s="42"/>
@@ -12479,13 +12899,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="R8" s="671"/>
+      <c r="R8" s="670"/>
       <c r="S8" s="45"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="2:26" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:26" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="514" t="s">
         <v>17</v>
       </c>
@@ -12507,10 +12927,10 @@
         <v>15</v>
       </c>
       <c r="J9" s="54"/>
-      <c r="K9" s="689">
+      <c r="K9" s="678">
         <v>283.52</v>
       </c>
-      <c r="L9" s="690">
+      <c r="L9" s="679">
         <v>15</v>
       </c>
       <c r="M9" s="42"/>
@@ -12528,15 +12948,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="671"/>
-      <c r="S9" s="603"/>
+      <c r="R9" s="670"/>
+      <c r="S9" s="795"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
     </row>
     <row r="10" spans="2:26" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="514" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
@@ -12556,10 +12976,10 @@
         <v>12</v>
       </c>
       <c r="J10" s="54"/>
-      <c r="K10" s="689">
+      <c r="K10" s="678">
         <v>120</v>
       </c>
-      <c r="L10" s="690">
+      <c r="L10" s="679">
         <v>12</v>
       </c>
       <c r="M10" s="42"/>
@@ -12578,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="410"/>
-      <c r="S10" s="604"/>
+      <c r="S10" s="446"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -12605,10 +13025,10 @@
         <v>7</v>
       </c>
       <c r="J11" s="523"/>
-      <c r="K11" s="689">
+      <c r="K11" s="678">
         <v>70</v>
       </c>
-      <c r="L11" s="690">
+      <c r="L11" s="679">
         <v>7</v>
       </c>
       <c r="M11" s="42"/>
@@ -12621,7 +13041,7 @@
       <c r="P11" s="327"/>
       <c r="Q11" s="448"/>
       <c r="R11" s="410"/>
-      <c r="S11" s="617"/>
+      <c r="S11" s="432"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
@@ -12648,8 +13068,8 @@
         <v>0</v>
       </c>
       <c r="J12" s="523"/>
-      <c r="K12" s="679"/>
-      <c r="L12" s="680"/>
+      <c r="K12" s="678"/>
+      <c r="L12" s="679"/>
       <c r="M12" s="526"/>
       <c r="N12" s="627"/>
       <c r="O12" s="628"/>
@@ -12661,13 +13081,13 @@
         <f>O12-I12</f>
         <v>0</v>
       </c>
-      <c r="R12" s="672"/>
-      <c r="S12" s="605"/>
+      <c r="R12" s="671"/>
+      <c r="S12" s="810"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
       <c r="V12" s="13"/>
     </row>
-    <row r="13" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:26" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="515" t="s">
         <v>151</v>
       </c>
@@ -12689,25 +13109,27 @@
         <v>15</v>
       </c>
       <c r="J13" s="523"/>
-      <c r="K13" s="691">
+      <c r="K13" s="807">
         <v>495.86</v>
       </c>
-      <c r="L13" s="690">
+      <c r="L13" s="679">
         <v>15</v>
       </c>
       <c r="M13" s="526"/>
-      <c r="N13" s="685"/>
-      <c r="O13" s="686"/>
-      <c r="P13" s="562">
+      <c r="N13" s="697"/>
+      <c r="O13" s="698"/>
+      <c r="P13" s="837">
         <f t="shared" ref="P13:Q41" si="3">N13-H13</f>
         <v>-495.86</v>
       </c>
-      <c r="Q13" s="448">
+      <c r="Q13" s="838">
         <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R13" s="411"/>
-      <c r="S13" s="757"/>
+      <c r="S13" s="811" t="s">
+        <v>172</v>
+      </c>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
@@ -12730,8 +13152,8 @@
         <v>0</v>
       </c>
       <c r="J14" s="523"/>
-      <c r="K14" s="689"/>
-      <c r="L14" s="690"/>
+      <c r="K14" s="678"/>
+      <c r="L14" s="679"/>
       <c r="M14" s="526"/>
       <c r="N14" s="627"/>
       <c r="O14" s="628"/>
@@ -12744,14 +13166,14 @@
         <v>0</v>
       </c>
       <c r="R14" s="412"/>
-      <c r="S14" s="757"/>
+      <c r="S14" s="812"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
     </row>
     <row r="15" spans="2:26" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="514" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -12771,10 +13193,10 @@
         <v>19</v>
       </c>
       <c r="J15" s="523"/>
-      <c r="K15" s="689">
+      <c r="K15" s="678">
         <v>570.15</v>
       </c>
-      <c r="L15" s="690">
+      <c r="L15" s="679">
         <v>19</v>
       </c>
       <c r="M15" s="526"/>
@@ -12793,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="412"/>
-      <c r="S15" s="607"/>
+      <c r="S15" s="794"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
@@ -12816,8 +13238,8 @@
         <v>0</v>
       </c>
       <c r="J16" s="523"/>
-      <c r="K16" s="679"/>
-      <c r="L16" s="680"/>
+      <c r="K16" s="678"/>
+      <c r="L16" s="679"/>
       <c r="M16" s="526"/>
       <c r="N16" s="627"/>
       <c r="O16" s="628"/>
@@ -12830,14 +13252,14 @@
         <v>0</v>
       </c>
       <c r="R16" s="436"/>
-      <c r="S16" s="677"/>
+      <c r="S16" s="676"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
     </row>
     <row r="17" spans="2:22" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="663" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -12857,10 +13279,10 @@
         <v>183</v>
       </c>
       <c r="J17" s="523"/>
-      <c r="K17" s="692">
+      <c r="K17" s="685">
         <v>4556.53</v>
       </c>
-      <c r="L17" s="693">
+      <c r="L17" s="686">
         <v>227</v>
       </c>
       <c r="M17" s="526"/>
@@ -12870,16 +13292,18 @@
       <c r="O17" s="628">
         <v>189</v>
       </c>
-      <c r="P17" s="585">
+      <c r="P17" s="817">
         <f t="shared" si="3"/>
         <v>-60.539999999999964</v>
       </c>
-      <c r="Q17" s="326">
+      <c r="Q17" s="808">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="R17" s="437"/>
-      <c r="S17" s="608"/>
+      <c r="S17" s="809" t="s">
+        <v>175</v>
+      </c>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
@@ -12902,8 +13326,8 @@
         <v>0</v>
       </c>
       <c r="J18" s="523"/>
-      <c r="K18" s="679"/>
-      <c r="L18" s="680"/>
+      <c r="K18" s="678"/>
+      <c r="L18" s="679"/>
       <c r="M18" s="526"/>
       <c r="N18" s="627"/>
       <c r="O18" s="628"/>
@@ -12939,8 +13363,8 @@
         <v>0</v>
       </c>
       <c r="J19" s="523"/>
-      <c r="K19" s="679"/>
-      <c r="L19" s="680"/>
+      <c r="K19" s="678"/>
+      <c r="L19" s="679"/>
       <c r="M19" s="526"/>
       <c r="N19" s="627"/>
       <c r="O19" s="628"/>
@@ -12952,7 +13376,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R19" s="673"/>
+      <c r="R19" s="672"/>
       <c r="S19" s="607"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -12980,8 +13404,8 @@
         <v>0</v>
       </c>
       <c r="J20" s="523"/>
-      <c r="K20" s="679"/>
-      <c r="L20" s="680"/>
+      <c r="K20" s="678"/>
+      <c r="L20" s="679"/>
       <c r="M20" s="526"/>
       <c r="N20" s="627"/>
       <c r="O20" s="628"/>
@@ -12993,7 +13417,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R20" s="673"/>
+      <c r="R20" s="672"/>
       <c r="S20" s="607"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -13017,8 +13441,8 @@
         <v>0</v>
       </c>
       <c r="J21" s="523"/>
-      <c r="K21" s="679"/>
-      <c r="L21" s="680"/>
+      <c r="K21" s="678"/>
+      <c r="L21" s="679"/>
       <c r="M21" s="526"/>
       <c r="N21" s="627"/>
       <c r="O21" s="628"/>
@@ -13031,14 +13455,14 @@
         <v>0</v>
       </c>
       <c r="R21" s="413"/>
-      <c r="S21" s="757"/>
+      <c r="S21" s="797"/>
       <c r="T21" s="77"/>
       <c r="U21" s="77"/>
       <c r="V21" s="13"/>
     </row>
     <row r="22" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="514" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
@@ -13058,10 +13482,10 @@
         <v>10</v>
       </c>
       <c r="J22" s="523"/>
-      <c r="K22" s="689">
+      <c r="K22" s="678">
         <v>315.85000000000002</v>
       </c>
-      <c r="L22" s="690">
+      <c r="L22" s="679">
         <v>10</v>
       </c>
       <c r="M22" s="526"/>
@@ -13079,8 +13503,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R22" s="678"/>
-      <c r="S22" s="757"/>
+      <c r="R22" s="677"/>
+      <c r="S22" s="798"/>
       <c r="T22" s="77"/>
       <c r="U22" s="77"/>
       <c r="V22" s="13"/>
@@ -13107,15 +13531,15 @@
         <v>0</v>
       </c>
       <c r="J23" s="523"/>
-      <c r="K23" s="679">
+      <c r="K23" s="678">
         <v>28.28</v>
       </c>
-      <c r="L23" s="680">
+      <c r="L23" s="679">
         <v>0</v>
       </c>
       <c r="M23" s="526"/>
-      <c r="N23" s="685"/>
-      <c r="O23" s="686"/>
+      <c r="N23" s="697"/>
+      <c r="O23" s="698"/>
       <c r="P23" s="327">
         <f t="shared" si="3"/>
         <v>-28.28</v>
@@ -13124,13 +13548,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R23" s="674"/>
-      <c r="S23" s="757"/>
+      <c r="R23" s="673"/>
+      <c r="S23" s="804" t="s">
+        <v>173</v>
+      </c>
       <c r="T23" s="78"/>
       <c r="U23" s="78"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:22" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="514" t="s">
         <v>26</v>
       </c>
@@ -13140,7 +13566,7 @@
       <c r="F24" s="28">
         <v>108.89</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="793">
         <v>-1</v>
       </c>
       <c r="H24" s="521">
@@ -13152,26 +13578,31 @@
         <v>-1</v>
       </c>
       <c r="J24" s="523"/>
-      <c r="K24" s="692">
+      <c r="K24" s="685">
         <v>98.924999999999997</v>
       </c>
-      <c r="L24" s="693">
+      <c r="L24" s="686">
         <v>6</v>
       </c>
       <c r="M24" s="526"/>
-      <c r="N24" s="769">
+      <c r="N24" s="627">
         <v>105.72</v>
       </c>
-      <c r="O24" s="770">
+      <c r="O24" s="628">
         <v>6</v>
       </c>
-      <c r="P24" s="327"/>
-      <c r="Q24" s="328">
+      <c r="P24" s="818">
+        <f t="shared" si="3"/>
+        <v>-3.1700000000000017</v>
+      </c>
+      <c r="Q24" s="819">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="R24" s="675"/>
-      <c r="S24" s="757"/>
+      <c r="R24" s="674"/>
+      <c r="S24" s="802" t="s">
+        <v>176</v>
+      </c>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
@@ -13194,8 +13625,8 @@
         <v>0</v>
       </c>
       <c r="J25" s="523"/>
-      <c r="K25" s="679"/>
-      <c r="L25" s="680"/>
+      <c r="K25" s="678"/>
+      <c r="L25" s="679"/>
       <c r="M25" s="526"/>
       <c r="N25" s="627"/>
       <c r="O25" s="628"/>
@@ -13208,7 +13639,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="414"/>
-      <c r="S25" s="757"/>
+      <c r="S25" s="802"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
@@ -13235,17 +13666,17 @@
         <v>570</v>
       </c>
       <c r="J26" s="523"/>
-      <c r="K26" s="689">
+      <c r="K26" s="678">
         <v>2588.19</v>
       </c>
-      <c r="L26" s="690">
+      <c r="L26" s="679">
         <v>570</v>
       </c>
       <c r="M26" s="526"/>
-      <c r="N26" s="771">
+      <c r="N26" s="627">
         <v>2587.8000000000002</v>
       </c>
-      <c r="O26" s="772">
+      <c r="O26" s="628">
         <v>570</v>
       </c>
       <c r="P26" s="327">
@@ -13257,7 +13688,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="438"/>
-      <c r="S26" s="609"/>
+      <c r="S26" s="799"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -13280,11 +13711,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="523"/>
-      <c r="K27" s="679"/>
-      <c r="L27" s="680"/>
+      <c r="K27" s="678"/>
+      <c r="L27" s="679"/>
       <c r="M27" s="526"/>
-      <c r="N27" s="771"/>
-      <c r="O27" s="772"/>
+      <c r="N27" s="627"/>
+      <c r="O27" s="628"/>
       <c r="P27" s="327">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -13293,8 +13724,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R27" s="676"/>
-      <c r="S27" s="610"/>
+      <c r="R27" s="675"/>
+      <c r="S27" s="426"/>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
@@ -13321,17 +13752,17 @@
         <v>9</v>
       </c>
       <c r="J28" s="523"/>
-      <c r="K28" s="689">
+      <c r="K28" s="678">
         <v>345.43</v>
       </c>
-      <c r="L28" s="690">
+      <c r="L28" s="679">
         <v>9</v>
       </c>
       <c r="M28" s="526"/>
-      <c r="N28" s="771">
+      <c r="N28" s="627">
         <v>345.93</v>
       </c>
-      <c r="O28" s="772">
+      <c r="O28" s="628">
         <v>9</v>
       </c>
       <c r="P28" s="327">
@@ -13343,7 +13774,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="211"/>
-      <c r="S28" s="605"/>
+      <c r="S28" s="422"/>
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
@@ -13370,8 +13801,8 @@
         <v>0</v>
       </c>
       <c r="J29" s="523"/>
-      <c r="K29" s="692"/>
-      <c r="L29" s="693"/>
+      <c r="K29" s="685"/>
+      <c r="L29" s="686"/>
       <c r="M29" s="526"/>
       <c r="N29" s="627"/>
       <c r="O29" s="628"/>
@@ -13384,7 +13815,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="211"/>
-      <c r="S29" s="611"/>
+      <c r="S29" s="447"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
@@ -13407,8 +13838,8 @@
         <v>0</v>
       </c>
       <c r="J30" s="523"/>
-      <c r="K30" s="679"/>
-      <c r="L30" s="680"/>
+      <c r="K30" s="678"/>
+      <c r="L30" s="679"/>
       <c r="M30" s="526"/>
       <c r="N30" s="627"/>
       <c r="O30" s="628"/>
@@ -13421,7 +13852,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="211"/>
-      <c r="S30" s="605"/>
+      <c r="S30" s="422"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
@@ -13444,8 +13875,8 @@
         <v>0</v>
       </c>
       <c r="J31" s="523"/>
-      <c r="K31" s="679"/>
-      <c r="L31" s="680"/>
+      <c r="K31" s="678"/>
+      <c r="L31" s="679"/>
       <c r="M31" s="526"/>
       <c r="N31" s="627"/>
       <c r="O31" s="628"/>
@@ -13458,12 +13889,12 @@
         <v>0</v>
       </c>
       <c r="R31" s="415"/>
-      <c r="S31" s="610"/>
+      <c r="S31" s="426"/>
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
     </row>
-    <row r="32" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:22" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="514" t="s">
         <v>39</v>
       </c>
@@ -13485,25 +13916,27 @@
         <v>638</v>
       </c>
       <c r="J32" s="523"/>
-      <c r="K32" s="679">
+      <c r="K32" s="678">
         <v>17339.14</v>
       </c>
-      <c r="L32" s="680">
+      <c r="L32" s="679">
         <v>637</v>
       </c>
       <c r="M32" s="526"/>
-      <c r="N32" s="685"/>
-      <c r="O32" s="686"/>
-      <c r="P32" s="327">
+      <c r="N32" s="697"/>
+      <c r="O32" s="698"/>
+      <c r="P32" s="818">
         <f t="shared" si="3"/>
         <v>-17366.36</v>
       </c>
-      <c r="Q32" s="328">
+      <c r="Q32" s="819">
         <f t="shared" si="3"/>
         <v>-638</v>
       </c>
-      <c r="R32" s="672"/>
-      <c r="S32" s="612"/>
+      <c r="R32" s="671"/>
+      <c r="S32" s="815" t="s">
+        <v>178</v>
+      </c>
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
@@ -13526,21 +13959,21 @@
         <v>0</v>
       </c>
       <c r="J33" s="523"/>
-      <c r="K33" s="679"/>
-      <c r="L33" s="680"/>
+      <c r="K33" s="678"/>
+      <c r="L33" s="679"/>
       <c r="M33" s="526"/>
-      <c r="N33" s="627"/>
-      <c r="O33" s="628"/>
-      <c r="P33" s="327">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="328">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="672"/>
-      <c r="S33" s="613"/>
+      <c r="N33" s="697"/>
+      <c r="O33" s="698"/>
+      <c r="P33" s="396">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="397">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="671"/>
+      <c r="S33" s="800"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
@@ -13567,21 +14000,21 @@
         <v>0</v>
       </c>
       <c r="J34" s="523"/>
-      <c r="K34" s="679"/>
-      <c r="L34" s="680"/>
+      <c r="K34" s="678"/>
+      <c r="L34" s="679"/>
       <c r="M34" s="526"/>
-      <c r="N34" s="627"/>
-      <c r="O34" s="628"/>
-      <c r="P34" s="327">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="328">
+      <c r="N34" s="697"/>
+      <c r="O34" s="698"/>
+      <c r="P34" s="396">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="397">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R34" s="416"/>
-      <c r="S34" s="605"/>
+      <c r="S34" s="422"/>
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
@@ -13608,25 +14041,27 @@
         <v>34</v>
       </c>
       <c r="J35" s="523"/>
-      <c r="K35" s="689">
+      <c r="K35" s="678">
         <v>340</v>
       </c>
-      <c r="L35" s="690">
+      <c r="L35" s="679">
         <v>34</v>
       </c>
       <c r="M35" s="526"/>
-      <c r="N35" s="627"/>
-      <c r="O35" s="628"/>
-      <c r="P35" s="327">
+      <c r="N35" s="697"/>
+      <c r="O35" s="698"/>
+      <c r="P35" s="396">
         <f t="shared" si="3"/>
         <v>-340</v>
       </c>
-      <c r="Q35" s="328">
+      <c r="Q35" s="397">
         <f t="shared" si="3"/>
         <v>-34</v>
       </c>
       <c r="R35" s="417"/>
-      <c r="S35" s="605"/>
+      <c r="S35" s="803" t="s">
+        <v>174</v>
+      </c>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
@@ -13657,10 +14092,10 @@
         <v>108</v>
       </c>
       <c r="J36" s="523"/>
-      <c r="K36" s="689">
+      <c r="K36" s="678">
         <v>2884.18</v>
       </c>
-      <c r="L36" s="690">
+      <c r="L36" s="679">
         <v>108</v>
       </c>
       <c r="M36" s="526"/>
@@ -13672,16 +14107,18 @@
         <f>10+19+83</f>
         <v>112</v>
       </c>
-      <c r="P36" s="327">
+      <c r="P36" s="396">
         <f t="shared" si="3"/>
         <v>-10.770000000000437</v>
       </c>
-      <c r="Q36" s="328">
+      <c r="Q36" s="397">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="R36" s="418"/>
-      <c r="S36" s="605"/>
+      <c r="S36" s="803" t="s">
+        <v>182</v>
+      </c>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
@@ -13704,8 +14141,8 @@
         <v>0</v>
       </c>
       <c r="J37" s="523"/>
-      <c r="K37" s="679"/>
-      <c r="L37" s="680"/>
+      <c r="K37" s="678"/>
+      <c r="L37" s="679"/>
       <c r="M37" s="526"/>
       <c r="N37" s="627"/>
       <c r="O37" s="628"/>
@@ -13718,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="418"/>
-      <c r="S37" s="614"/>
+      <c r="S37" s="430"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
@@ -13745,10 +14182,10 @@
         <v>53</v>
       </c>
       <c r="J38" s="523"/>
-      <c r="K38" s="689">
+      <c r="K38" s="678">
         <v>795</v>
       </c>
-      <c r="L38" s="690">
+      <c r="L38" s="679">
         <v>53</v>
       </c>
       <c r="M38" s="526"/>
@@ -13766,8 +14203,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R38" s="674"/>
-      <c r="S38" s="605"/>
+      <c r="R38" s="673"/>
+      <c r="S38" s="422"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
@@ -13775,7 +14212,7 @@
     <row r="39" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="109"/>
       <c r="B39" s="515" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" s="115"/>
       <c r="D39" s="29"/>
@@ -13795,10 +14232,10 @@
         <v>370</v>
       </c>
       <c r="J39" s="523"/>
-      <c r="K39" s="689">
+      <c r="K39" s="678">
         <v>7485.12</v>
       </c>
-      <c r="L39" s="690">
+      <c r="L39" s="679">
         <v>370</v>
       </c>
       <c r="M39" s="526"/>
@@ -13808,16 +14245,18 @@
       <c r="O39" s="628">
         <v>374</v>
       </c>
-      <c r="P39" s="327">
+      <c r="P39" s="396">
         <f t="shared" si="3"/>
         <v>57.900000000000546</v>
       </c>
-      <c r="Q39" s="328">
+      <c r="Q39" s="397">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="R39" s="674"/>
-      <c r="S39" s="615"/>
+      <c r="R39" s="673"/>
+      <c r="S39" s="820" t="s">
+        <v>179</v>
+      </c>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
@@ -13840,21 +14279,23 @@
         <v>0</v>
       </c>
       <c r="J40" s="523"/>
-      <c r="K40" s="679"/>
-      <c r="L40" s="680"/>
+      <c r="K40" s="678"/>
+      <c r="L40" s="679"/>
       <c r="M40" s="526"/>
       <c r="N40" s="627"/>
       <c r="O40" s="628"/>
-      <c r="P40" s="327">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="328">
+      <c r="P40" s="396">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="397">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R40" s="114"/>
-      <c r="S40" s="616"/>
+      <c r="S40" s="820" t="s">
+        <v>179</v>
+      </c>
       <c r="T40" s="13"/>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
@@ -13877,21 +14318,23 @@
         <v>0</v>
       </c>
       <c r="J41" s="523"/>
-      <c r="K41" s="679"/>
-      <c r="L41" s="680"/>
+      <c r="K41" s="678"/>
+      <c r="L41" s="679"/>
       <c r="M41" s="526"/>
       <c r="N41" s="627"/>
       <c r="O41" s="628"/>
-      <c r="P41" s="327">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="328">
+      <c r="P41" s="396">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="397">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R41" s="419"/>
-      <c r="S41" s="617"/>
+      <c r="S41" s="820" t="s">
+        <v>179</v>
+      </c>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
@@ -13914,21 +14357,23 @@
         <v>0</v>
       </c>
       <c r="J42" s="523"/>
-      <c r="K42" s="681"/>
-      <c r="L42" s="682"/>
+      <c r="K42" s="680"/>
+      <c r="L42" s="681"/>
       <c r="M42" s="526"/>
       <c r="N42" s="627"/>
       <c r="O42" s="628"/>
-      <c r="P42" s="327">
+      <c r="P42" s="396">
         <f t="shared" ref="P42:Q45" si="8">H42-K42</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="328">
+      <c r="Q42" s="397">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R42" s="419"/>
-      <c r="S42" s="605"/>
+      <c r="S42" s="820" t="s">
+        <v>179</v>
+      </c>
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
@@ -13951,21 +14396,23 @@
         <v>0</v>
       </c>
       <c r="J43" s="542"/>
-      <c r="K43" s="683"/>
-      <c r="L43" s="684"/>
+      <c r="K43" s="682"/>
+      <c r="L43" s="683"/>
       <c r="M43" s="542"/>
       <c r="N43" s="627"/>
       <c r="O43" s="628"/>
-      <c r="P43" s="327">
+      <c r="P43" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="328">
+      <c r="Q43" s="397">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R43" s="420"/>
-      <c r="S43" s="605"/>
+      <c r="S43" s="820" t="s">
+        <v>179</v>
+      </c>
       <c r="T43" s="13"/>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
@@ -13988,21 +14435,23 @@
         <v>0</v>
       </c>
       <c r="J44" s="523"/>
-      <c r="K44" s="683"/>
-      <c r="L44" s="684"/>
+      <c r="K44" s="682"/>
+      <c r="L44" s="683"/>
       <c r="M44" s="542"/>
       <c r="N44" s="627"/>
       <c r="O44" s="628"/>
-      <c r="P44" s="327">
+      <c r="P44" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="328">
+      <c r="Q44" s="397">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R44" s="674"/>
-      <c r="S44" s="605"/>
+      <c r="R44" s="673"/>
+      <c r="S44" s="820" t="s">
+        <v>179</v>
+      </c>
       <c r="T44" s="13"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
@@ -14025,21 +14474,23 @@
         <v>0</v>
       </c>
       <c r="J45" s="523"/>
-      <c r="K45" s="683"/>
-      <c r="L45" s="684"/>
+      <c r="K45" s="682"/>
+      <c r="L45" s="683"/>
       <c r="M45" s="542"/>
       <c r="N45" s="627"/>
       <c r="O45" s="628"/>
-      <c r="P45" s="327">
+      <c r="P45" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="328">
+      <c r="Q45" s="397">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R45" s="674"/>
-      <c r="S45" s="605"/>
+      <c r="R45" s="673"/>
+      <c r="S45" s="820" t="s">
+        <v>179</v>
+      </c>
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
@@ -14066,10 +14517,10 @@
         <v>23</v>
       </c>
       <c r="J46" s="523"/>
-      <c r="K46" s="773">
+      <c r="K46" s="682">
         <v>541.46</v>
       </c>
-      <c r="L46" s="774">
+      <c r="L46" s="683">
         <v>23</v>
       </c>
       <c r="M46" s="542"/>
@@ -14079,16 +14530,18 @@
       <c r="O46" s="628">
         <v>23</v>
       </c>
-      <c r="P46" s="327">
+      <c r="P46" s="396">
         <f>N46-H46</f>
         <v>298.53999999999996</v>
       </c>
-      <c r="Q46" s="328">
+      <c r="Q46" s="397">
         <f>O46-I46</f>
         <v>0</v>
       </c>
-      <c r="R46" s="674"/>
-      <c r="S46" s="605"/>
+      <c r="R46" s="673"/>
+      <c r="S46" s="820" t="s">
+        <v>179</v>
+      </c>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
@@ -14115,10 +14568,10 @@
         <v>43</v>
       </c>
       <c r="J47" s="523"/>
-      <c r="K47" s="773">
+      <c r="K47" s="682">
         <v>1297.06</v>
       </c>
-      <c r="L47" s="774">
+      <c r="L47" s="683">
         <v>43</v>
       </c>
       <c r="M47" s="542"/>
@@ -14128,16 +14581,18 @@
       <c r="O47" s="628">
         <v>43</v>
       </c>
-      <c r="P47" s="327">
+      <c r="P47" s="396">
         <f t="shared" ref="P47:Q48" si="9">N47-H47</f>
         <v>60.880000000000109</v>
       </c>
-      <c r="Q47" s="328">
+      <c r="Q47" s="397">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R47" s="674"/>
-      <c r="S47" s="611"/>
+      <c r="R47" s="673"/>
+      <c r="S47" s="820" t="s">
+        <v>180</v>
+      </c>
       <c r="T47" s="13"/>
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
@@ -14160,8 +14615,8 @@
         <v>0</v>
       </c>
       <c r="J48" s="523"/>
-      <c r="K48" s="683"/>
-      <c r="L48" s="684"/>
+      <c r="K48" s="682"/>
+      <c r="L48" s="683"/>
       <c r="M48" s="542"/>
       <c r="N48" s="631"/>
       <c r="O48" s="632"/>
@@ -14173,8 +14628,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R48" s="674"/>
-      <c r="S48" s="605"/>
+      <c r="R48" s="673"/>
+      <c r="S48" s="422"/>
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
@@ -14197,8 +14652,8 @@
         <v>0</v>
       </c>
       <c r="J49" s="523"/>
-      <c r="K49" s="683"/>
-      <c r="L49" s="684"/>
+      <c r="K49" s="682"/>
+      <c r="L49" s="683"/>
       <c r="M49" s="542"/>
       <c r="N49" s="629"/>
       <c r="O49" s="630"/>
@@ -14210,8 +14665,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R49" s="674"/>
-      <c r="S49" s="605"/>
+      <c r="R49" s="673"/>
+      <c r="S49" s="422"/>
       <c r="T49" s="13"/>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
@@ -14232,8 +14687,8 @@
         <v>0</v>
       </c>
       <c r="J50" s="523"/>
-      <c r="K50" s="683"/>
-      <c r="L50" s="684"/>
+      <c r="K50" s="682"/>
+      <c r="L50" s="683"/>
       <c r="M50" s="542"/>
       <c r="N50" s="629"/>
       <c r="O50" s="630"/>
@@ -14245,8 +14700,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R50" s="674"/>
-      <c r="S50" s="605"/>
+      <c r="R50" s="673"/>
+      <c r="S50" s="422"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
@@ -14289,10 +14744,10 @@
     <row r="52" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="145"/>
       <c r="D52" s="147"/>
-      <c r="F52" s="736" t="s">
+      <c r="F52" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="736"/>
+      <c r="G52" s="760"/>
       <c r="H52" s="560">
         <f>SUM(H5:H35)</f>
         <v>34696.020000000004</v>
@@ -14491,9 +14946,8 @@
       <c r="B63" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S21:S23"/>
     <mergeCell ref="S24:S25"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="B1:C1"/>
@@ -14512,13 +14966,2408 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="146" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="156" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="161" customWidth="1"/>
+    <col min="17" max="17" width="10" style="146" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" style="109" customWidth="1"/>
+    <col min="19" max="19" width="41.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="771" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="771"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="569">
+        <v>45297</v>
+      </c>
+      <c r="C2" s="570"/>
+      <c r="F2" s="746" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="768" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="768"/>
+      <c r="P2" s="777" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="778"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="568"/>
+      <c r="C3" s="772" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="755"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="756" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="757"/>
+      <c r="H3" s="586"/>
+      <c r="I3" s="781" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="768"/>
+      <c r="O3" s="768"/>
+      <c r="P3" s="779"/>
+      <c r="Q3" s="780"/>
+      <c r="R3" s="434"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+    </row>
+    <row r="4" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="587" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="782"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="237" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="222"/>
+      <c r="N4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="827" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="828" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="435"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="2:26" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="28">
+        <v>72.650000000000006</v>
+      </c>
+      <c r="G5" s="31">
+        <v>6</v>
+      </c>
+      <c r="H5" s="223">
+        <f t="shared" ref="H5:I49" si="0">F5+C5</f>
+        <v>72.650000000000006</v>
+      </c>
+      <c r="I5" s="41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J5" s="54"/>
+      <c r="K5" s="805">
+        <v>72.650000000000006</v>
+      </c>
+      <c r="L5" s="806">
+        <v>6</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="627">
+        <v>72.650000000000006</v>
+      </c>
+      <c r="O5" s="707">
+        <v>6</v>
+      </c>
+      <c r="P5" s="831">
+        <f>K5-H5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="832">
+        <f>L5-I5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="687"/>
+      <c r="S5" s="430"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+    </row>
+    <row r="6" spans="2:26" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="267"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="28">
+        <v>3334.48</v>
+      </c>
+      <c r="G6" s="31">
+        <v>105</v>
+      </c>
+      <c r="H6" s="223">
+        <f t="shared" si="0"/>
+        <v>3334.48</v>
+      </c>
+      <c r="I6" s="41">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="J6" s="54"/>
+      <c r="K6" s="678">
+        <v>3334.48</v>
+      </c>
+      <c r="L6" s="679">
+        <v>105</v>
+      </c>
+      <c r="M6" s="42"/>
+      <c r="N6" s="627">
+        <v>2827.01</v>
+      </c>
+      <c r="O6" s="707">
+        <v>90</v>
+      </c>
+      <c r="P6" s="833">
+        <f t="shared" ref="P6:P50" si="1">K6-H6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="834">
+        <f t="shared" ref="Q6:Q50" si="2">L6-I6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="688"/>
+      <c r="S6" s="426"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="28">
+        <v>734.29</v>
+      </c>
+      <c r="G7" s="31">
+        <v>60</v>
+      </c>
+      <c r="H7" s="223">
+        <f t="shared" si="0"/>
+        <v>734.29</v>
+      </c>
+      <c r="I7" s="41">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="678">
+        <v>734.29</v>
+      </c>
+      <c r="L7" s="679">
+        <v>60</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="627">
+        <v>734.26</v>
+      </c>
+      <c r="O7" s="707">
+        <v>60</v>
+      </c>
+      <c r="P7" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="53"/>
+      <c r="S7" s="426"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+    </row>
+    <row r="8" spans="2:26" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="514" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="28">
+        <v>4288.82</v>
+      </c>
+      <c r="G8" s="31">
+        <v>184</v>
+      </c>
+      <c r="H8" s="224">
+        <f t="shared" si="0"/>
+        <v>4288.82</v>
+      </c>
+      <c r="I8" s="225">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="678">
+        <v>4288.82</v>
+      </c>
+      <c r="L8" s="679">
+        <v>184</v>
+      </c>
+      <c r="M8" s="42"/>
+      <c r="N8" s="627">
+        <v>4287.57</v>
+      </c>
+      <c r="O8" s="707">
+        <v>203</v>
+      </c>
+      <c r="P8" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="689"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="2:26" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="514" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="639">
+        <v>283.52</v>
+      </c>
+      <c r="G9" s="640">
+        <v>15</v>
+      </c>
+      <c r="H9" s="224">
+        <f t="shared" si="0"/>
+        <v>283.52</v>
+      </c>
+      <c r="I9" s="225">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="678">
+        <v>283.52</v>
+      </c>
+      <c r="L9" s="679">
+        <v>15</v>
+      </c>
+      <c r="M9" s="42"/>
+      <c r="N9" s="627">
+        <v>283.39</v>
+      </c>
+      <c r="O9" s="707">
+        <v>15</v>
+      </c>
+      <c r="P9" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="689"/>
+      <c r="S9" s="795"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="2:26" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="514" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="28">
+        <v>120</v>
+      </c>
+      <c r="G10" s="31">
+        <v>12</v>
+      </c>
+      <c r="H10" s="226">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I10" s="225">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="678">
+        <v>120</v>
+      </c>
+      <c r="L10" s="679">
+        <v>12</v>
+      </c>
+      <c r="M10" s="42"/>
+      <c r="N10" s="627">
+        <v>120</v>
+      </c>
+      <c r="O10" s="707">
+        <v>12</v>
+      </c>
+      <c r="P10" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="410"/>
+      <c r="S10" s="446"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="2:26" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="514" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="28">
+        <v>70</v>
+      </c>
+      <c r="G11" s="31">
+        <v>7</v>
+      </c>
+      <c r="H11" s="535">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I11" s="522">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J11" s="523"/>
+      <c r="K11" s="678">
+        <v>70</v>
+      </c>
+      <c r="L11" s="679">
+        <v>7</v>
+      </c>
+      <c r="M11" s="42"/>
+      <c r="N11" s="627">
+        <v>60</v>
+      </c>
+      <c r="O11" s="707">
+        <v>6</v>
+      </c>
+      <c r="P11" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="410"/>
+      <c r="S11" s="432"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="2:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="514" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="60">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="523"/>
+      <c r="K12" s="678"/>
+      <c r="L12" s="679"/>
+      <c r="M12" s="526"/>
+      <c r="N12" s="627"/>
+      <c r="O12" s="707"/>
+      <c r="P12" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="690"/>
+      <c r="S12" s="810"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="2:26" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="515" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="28">
+        <v>495.86</v>
+      </c>
+      <c r="G13" s="31">
+        <v>15</v>
+      </c>
+      <c r="H13" s="521">
+        <f t="shared" si="0"/>
+        <v>495.86</v>
+      </c>
+      <c r="I13" s="522">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J13" s="523"/>
+      <c r="K13" s="807">
+        <v>495.86</v>
+      </c>
+      <c r="L13" s="679">
+        <v>15</v>
+      </c>
+      <c r="M13" s="526"/>
+      <c r="N13" s="684"/>
+      <c r="O13" s="823"/>
+      <c r="P13" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="411"/>
+      <c r="S13" s="821"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="2:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="515" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="523"/>
+      <c r="K14" s="678"/>
+      <c r="L14" s="679"/>
+      <c r="M14" s="526"/>
+      <c r="N14" s="627"/>
+      <c r="O14" s="707"/>
+      <c r="P14" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="412"/>
+      <c r="S14" s="822"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="2:26" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="514" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="28">
+        <v>570.15</v>
+      </c>
+      <c r="G15" s="31">
+        <v>19</v>
+      </c>
+      <c r="H15" s="521">
+        <f t="shared" si="0"/>
+        <v>570.15</v>
+      </c>
+      <c r="I15" s="522">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J15" s="523"/>
+      <c r="K15" s="678">
+        <v>570.15</v>
+      </c>
+      <c r="L15" s="679">
+        <v>19</v>
+      </c>
+      <c r="M15" s="526"/>
+      <c r="N15" s="627">
+        <v>570.15</v>
+      </c>
+      <c r="O15" s="707">
+        <v>20</v>
+      </c>
+      <c r="P15" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="412"/>
+      <c r="S15" s="794"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+    </row>
+    <row r="16" spans="2:26" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="506" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="508"/>
+      <c r="D16" s="509"/>
+      <c r="E16" s="507"/>
+      <c r="F16" s="641"/>
+      <c r="G16" s="642"/>
+      <c r="H16" s="583">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="584">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="523"/>
+      <c r="K16" s="678"/>
+      <c r="L16" s="679"/>
+      <c r="M16" s="526"/>
+      <c r="N16" s="627"/>
+      <c r="O16" s="707"/>
+      <c r="P16" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="436"/>
+      <c r="S16" s="695"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="2:22" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="663" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="28">
+        <v>3642.93</v>
+      </c>
+      <c r="G17" s="31">
+        <v>183</v>
+      </c>
+      <c r="H17" s="521">
+        <f t="shared" si="0"/>
+        <v>3642.93</v>
+      </c>
+      <c r="I17" s="522">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="J17" s="523"/>
+      <c r="K17" s="685">
+        <v>4556.53</v>
+      </c>
+      <c r="L17" s="686">
+        <v>227</v>
+      </c>
+      <c r="M17" s="526"/>
+      <c r="N17" s="627">
+        <v>3582.39</v>
+      </c>
+      <c r="O17" s="707">
+        <v>189</v>
+      </c>
+      <c r="P17" s="833">
+        <f t="shared" si="1"/>
+        <v>913.59999999999991</v>
+      </c>
+      <c r="Q17" s="834">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="R17" s="437"/>
+      <c r="S17" s="651" t="s">
+        <v>183</v>
+      </c>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="2:22" ht="20.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="662" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="523"/>
+      <c r="K18" s="678"/>
+      <c r="L18" s="679"/>
+      <c r="M18" s="526"/>
+      <c r="N18" s="627"/>
+      <c r="O18" s="707"/>
+      <c r="P18" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="437"/>
+      <c r="S18" s="608"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+    </row>
+    <row r="19" spans="2:22" ht="36" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="664" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="523"/>
+      <c r="K19" s="678"/>
+      <c r="L19" s="679"/>
+      <c r="M19" s="526"/>
+      <c r="N19" s="627"/>
+      <c r="O19" s="707"/>
+      <c r="P19" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="691"/>
+      <c r="S19" s="607"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+    </row>
+    <row r="20" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="514" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="31">
+        <v>0</v>
+      </c>
+      <c r="H20" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="523"/>
+      <c r="K20" s="678"/>
+      <c r="L20" s="679"/>
+      <c r="M20" s="526"/>
+      <c r="N20" s="627"/>
+      <c r="O20" s="707"/>
+      <c r="P20" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="691"/>
+      <c r="S20" s="607"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+    </row>
+    <row r="21" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="514" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="523"/>
+      <c r="K21" s="678"/>
+      <c r="L21" s="679"/>
+      <c r="M21" s="526"/>
+      <c r="N21" s="627"/>
+      <c r="O21" s="707"/>
+      <c r="P21" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="413"/>
+      <c r="S21" s="797"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="13"/>
+    </row>
+    <row r="22" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="514" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="28">
+        <v>315.85000000000002</v>
+      </c>
+      <c r="G22" s="31">
+        <v>10</v>
+      </c>
+      <c r="H22" s="521">
+        <f t="shared" si="0"/>
+        <v>315.85000000000002</v>
+      </c>
+      <c r="I22" s="522">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="523"/>
+      <c r="K22" s="678">
+        <v>315.85000000000002</v>
+      </c>
+      <c r="L22" s="679">
+        <v>10</v>
+      </c>
+      <c r="M22" s="526"/>
+      <c r="N22" s="627">
+        <v>315.85000000000002</v>
+      </c>
+      <c r="O22" s="707">
+        <v>10</v>
+      </c>
+      <c r="P22" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="677"/>
+      <c r="S22" s="798"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="13"/>
+    </row>
+    <row r="23" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="514" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="28">
+        <v>28.28</v>
+      </c>
+      <c r="G23" s="31">
+        <v>0</v>
+      </c>
+      <c r="H23" s="521">
+        <f t="shared" si="0"/>
+        <v>28.28</v>
+      </c>
+      <c r="I23" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="523"/>
+      <c r="K23" s="678">
+        <v>28.28</v>
+      </c>
+      <c r="L23" s="679">
+        <v>0</v>
+      </c>
+      <c r="M23" s="526"/>
+      <c r="N23" s="684"/>
+      <c r="O23" s="823"/>
+      <c r="P23" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="692"/>
+      <c r="S23" s="804" t="s">
+        <v>173</v>
+      </c>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="13"/>
+    </row>
+    <row r="24" spans="2:22" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="514" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28">
+        <v>108.89</v>
+      </c>
+      <c r="G24" s="793">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="521">
+        <f t="shared" si="0"/>
+        <v>108.89</v>
+      </c>
+      <c r="I24" s="522">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="J24" s="523"/>
+      <c r="K24" s="685">
+        <v>98.924999999999997</v>
+      </c>
+      <c r="L24" s="686">
+        <v>6</v>
+      </c>
+      <c r="M24" s="526"/>
+      <c r="N24" s="696">
+        <v>105.72</v>
+      </c>
+      <c r="O24" s="824">
+        <v>6</v>
+      </c>
+      <c r="P24" s="833">
+        <f t="shared" si="1"/>
+        <v>-9.9650000000000034</v>
+      </c>
+      <c r="Q24" s="834">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R24" s="693"/>
+      <c r="S24" s="796" t="s">
+        <v>176</v>
+      </c>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+    </row>
+    <row r="25" spans="2:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="514" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="523"/>
+      <c r="K25" s="678"/>
+      <c r="L25" s="679"/>
+      <c r="M25" s="526"/>
+      <c r="N25" s="627"/>
+      <c r="O25" s="707"/>
+      <c r="P25" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="414"/>
+      <c r="S25" s="796"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+    </row>
+    <row r="26" spans="2:22" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="514" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="28">
+        <v>2587.8000000000002</v>
+      </c>
+      <c r="G26" s="31">
+        <v>570</v>
+      </c>
+      <c r="H26" s="521">
+        <f t="shared" si="0"/>
+        <v>2587.8000000000002</v>
+      </c>
+      <c r="I26" s="522">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="J26" s="523"/>
+      <c r="K26" s="678">
+        <v>2588.19</v>
+      </c>
+      <c r="L26" s="679">
+        <v>570</v>
+      </c>
+      <c r="M26" s="526"/>
+      <c r="N26" s="627">
+        <v>2587.8000000000002</v>
+      </c>
+      <c r="O26" s="707">
+        <v>570</v>
+      </c>
+      <c r="P26" s="833">
+        <f t="shared" si="1"/>
+        <v>0.38999999999987267</v>
+      </c>
+      <c r="Q26" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="438"/>
+      <c r="S26" s="799"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+    </row>
+    <row r="27" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="514" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="523"/>
+      <c r="K27" s="678"/>
+      <c r="L27" s="679"/>
+      <c r="M27" s="526"/>
+      <c r="N27" s="627"/>
+      <c r="O27" s="707"/>
+      <c r="P27" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="694"/>
+      <c r="S27" s="426"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+    </row>
+    <row r="28" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="514" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="115"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="87">
+        <v>345.43</v>
+      </c>
+      <c r="G28" s="88">
+        <v>9</v>
+      </c>
+      <c r="H28" s="521">
+        <f t="shared" si="0"/>
+        <v>345.43</v>
+      </c>
+      <c r="I28" s="522">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J28" s="523"/>
+      <c r="K28" s="678">
+        <v>345.43</v>
+      </c>
+      <c r="L28" s="679">
+        <v>9</v>
+      </c>
+      <c r="M28" s="526"/>
+      <c r="N28" s="627">
+        <v>345.93</v>
+      </c>
+      <c r="O28" s="707">
+        <v>9</v>
+      </c>
+      <c r="P28" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="211"/>
+      <c r="S28" s="422"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+    </row>
+    <row r="29" spans="2:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="515" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="115"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="87">
+        <v>-9.2899999999999991</v>
+      </c>
+      <c r="G29" s="88">
+        <v>0</v>
+      </c>
+      <c r="H29" s="521">
+        <f t="shared" si="0"/>
+        <v>-9.2899999999999991</v>
+      </c>
+      <c r="I29" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="523"/>
+      <c r="K29" s="685"/>
+      <c r="L29" s="686"/>
+      <c r="M29" s="526"/>
+      <c r="N29" s="627"/>
+      <c r="O29" s="707"/>
+      <c r="P29" s="833">
+        <f t="shared" si="1"/>
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="Q29" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="211"/>
+      <c r="S29" s="447"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+    </row>
+    <row r="30" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="514" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="115"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="523"/>
+      <c r="K30" s="678"/>
+      <c r="L30" s="679"/>
+      <c r="M30" s="526"/>
+      <c r="N30" s="627"/>
+      <c r="O30" s="707"/>
+      <c r="P30" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="211"/>
+      <c r="S30" s="422"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+    </row>
+    <row r="31" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="514" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="115"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="521">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="522">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="523"/>
+      <c r="K31" s="678"/>
+      <c r="L31" s="679"/>
+      <c r="M31" s="526"/>
+      <c r="N31" s="627"/>
+      <c r="O31" s="707"/>
+      <c r="P31" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="415"/>
+      <c r="S31" s="426"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="2:22" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="514" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="115"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="87">
+        <v>17366.36</v>
+      </c>
+      <c r="G32" s="88">
+        <v>638</v>
+      </c>
+      <c r="H32" s="535">
+        <f t="shared" si="0"/>
+        <v>17366.36</v>
+      </c>
+      <c r="I32" s="536">
+        <f t="shared" si="0"/>
+        <v>638</v>
+      </c>
+      <c r="J32" s="523"/>
+      <c r="K32" s="678">
+        <v>17339.14</v>
+      </c>
+      <c r="L32" s="679">
+        <v>637</v>
+      </c>
+      <c r="M32" s="526"/>
+      <c r="N32" s="684"/>
+      <c r="O32" s="823"/>
+      <c r="P32" s="833">
+        <f t="shared" si="1"/>
+        <v>-27.220000000001164</v>
+      </c>
+      <c r="Q32" s="834">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R32" s="690"/>
+      <c r="S32" s="814" t="s">
+        <v>184</v>
+      </c>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+    </row>
+    <row r="33" spans="1:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="592" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="115"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="535">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="536">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="523"/>
+      <c r="K33" s="678"/>
+      <c r="L33" s="679"/>
+      <c r="M33" s="526"/>
+      <c r="N33" s="627"/>
+      <c r="O33" s="707"/>
+      <c r="P33" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="690"/>
+      <c r="S33" s="800"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+    </row>
+    <row r="34" spans="1:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="514" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="115">
+        <v>0</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="535">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="536">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="523"/>
+      <c r="K34" s="678"/>
+      <c r="L34" s="679"/>
+      <c r="M34" s="526"/>
+      <c r="N34" s="627"/>
+      <c r="O34" s="707"/>
+      <c r="P34" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="416"/>
+      <c r="S34" s="422"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+    </row>
+    <row r="35" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="514" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="255">
+        <v>340</v>
+      </c>
+      <c r="D35" s="97">
+        <v>34</v>
+      </c>
+      <c r="E35" s="98"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="535">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="I35" s="536">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="J35" s="523"/>
+      <c r="K35" s="678">
+        <v>340</v>
+      </c>
+      <c r="L35" s="679">
+        <v>34</v>
+      </c>
+      <c r="M35" s="526"/>
+      <c r="N35" s="684"/>
+      <c r="O35" s="823"/>
+      <c r="P35" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="417"/>
+      <c r="S35" s="422"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+    </row>
+    <row r="36" spans="1:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="514" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="255">
+        <v>733.65</v>
+      </c>
+      <c r="D36" s="97">
+        <v>9</v>
+      </c>
+      <c r="E36" s="102"/>
+      <c r="F36" s="96">
+        <v>2150.5300000000002</v>
+      </c>
+      <c r="G36" s="103">
+        <v>99</v>
+      </c>
+      <c r="H36" s="535">
+        <f t="shared" si="0"/>
+        <v>2884.1800000000003</v>
+      </c>
+      <c r="I36" s="536">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="J36" s="523"/>
+      <c r="K36" s="678">
+        <v>2884.18</v>
+      </c>
+      <c r="L36" s="679">
+        <v>108</v>
+      </c>
+      <c r="M36" s="526"/>
+      <c r="N36" s="627">
+        <f>211+426+2236.41</f>
+        <v>2873.41</v>
+      </c>
+      <c r="O36" s="707">
+        <f>10+19+83</f>
+        <v>112</v>
+      </c>
+      <c r="P36" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="418"/>
+      <c r="S36" s="422"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+    </row>
+    <row r="37" spans="1:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="514" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="255"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="535">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="536">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="523"/>
+      <c r="K37" s="678"/>
+      <c r="L37" s="679"/>
+      <c r="M37" s="526"/>
+      <c r="N37" s="627"/>
+      <c r="O37" s="707"/>
+      <c r="P37" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="418"/>
+      <c r="S37" s="430"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+    </row>
+    <row r="38" spans="1:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="514" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="115">
+        <v>795</v>
+      </c>
+      <c r="D38" s="29">
+        <v>53</v>
+      </c>
+      <c r="E38" s="102"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="535">
+        <f t="shared" si="0"/>
+        <v>795</v>
+      </c>
+      <c r="I38" s="536">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="J38" s="523"/>
+      <c r="K38" s="678">
+        <v>795</v>
+      </c>
+      <c r="L38" s="679">
+        <v>53</v>
+      </c>
+      <c r="M38" s="526"/>
+      <c r="N38" s="627">
+        <v>795</v>
+      </c>
+      <c r="O38" s="707">
+        <v>53</v>
+      </c>
+      <c r="P38" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="692"/>
+      <c r="S38" s="422"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+    </row>
+    <row r="39" spans="1:22" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="109"/>
+      <c r="B39" s="515" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="115"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="28">
+        <v>7485.12</v>
+      </c>
+      <c r="G39" s="31">
+        <v>370</v>
+      </c>
+      <c r="H39" s="535">
+        <f t="shared" si="0"/>
+        <v>7485.12</v>
+      </c>
+      <c r="I39" s="536">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="J39" s="523"/>
+      <c r="K39" s="678">
+        <v>7485.12</v>
+      </c>
+      <c r="L39" s="679">
+        <v>370</v>
+      </c>
+      <c r="M39" s="526"/>
+      <c r="N39" s="627">
+        <v>7543.02</v>
+      </c>
+      <c r="O39" s="707">
+        <v>374</v>
+      </c>
+      <c r="P39" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="692"/>
+      <c r="S39" s="801"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+    </row>
+    <row r="40" spans="1:22" ht="39" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="663" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="115"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="537">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="538">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="523"/>
+      <c r="K40" s="678"/>
+      <c r="L40" s="679"/>
+      <c r="M40" s="526"/>
+      <c r="N40" s="627"/>
+      <c r="O40" s="707"/>
+      <c r="P40" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="114"/>
+      <c r="S40" s="801" t="s">
+        <v>179</v>
+      </c>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+    </row>
+    <row r="41" spans="1:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="505" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="115"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="537">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="538">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="523"/>
+      <c r="K41" s="678"/>
+      <c r="L41" s="679"/>
+      <c r="M41" s="526"/>
+      <c r="N41" s="627"/>
+      <c r="O41" s="707"/>
+      <c r="P41" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="419"/>
+      <c r="S41" s="801" t="s">
+        <v>179</v>
+      </c>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+    </row>
+    <row r="42" spans="1:22" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="514" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="255"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="258"/>
+      <c r="H42" s="539">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="538">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="523"/>
+      <c r="K42" s="680"/>
+      <c r="L42" s="681"/>
+      <c r="M42" s="526"/>
+      <c r="N42" s="627"/>
+      <c r="O42" s="707"/>
+      <c r="P42" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="419"/>
+      <c r="S42" s="801" t="s">
+        <v>179</v>
+      </c>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+    </row>
+    <row r="43" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="514" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="255"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="258"/>
+      <c r="H43" s="539">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="538">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="542"/>
+      <c r="K43" s="682"/>
+      <c r="L43" s="683"/>
+      <c r="M43" s="542"/>
+      <c r="N43" s="627"/>
+      <c r="O43" s="707"/>
+      <c r="P43" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="420"/>
+      <c r="S43" s="801" t="s">
+        <v>179</v>
+      </c>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+    </row>
+    <row r="44" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="515" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="115"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="259"/>
+      <c r="H44" s="539">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="538">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="523"/>
+      <c r="K44" s="682"/>
+      <c r="L44" s="683"/>
+      <c r="M44" s="542"/>
+      <c r="N44" s="627"/>
+      <c r="O44" s="707"/>
+      <c r="P44" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="692"/>
+      <c r="S44" s="801" t="s">
+        <v>179</v>
+      </c>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+    </row>
+    <row r="45" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="515" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="115"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="259"/>
+      <c r="H45" s="539">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="538">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="523"/>
+      <c r="K45" s="682"/>
+      <c r="L45" s="683"/>
+      <c r="M45" s="542"/>
+      <c r="N45" s="627"/>
+      <c r="O45" s="707"/>
+      <c r="P45" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="692"/>
+      <c r="S45" s="801" t="s">
+        <v>179</v>
+      </c>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+    </row>
+    <row r="46" spans="1:22" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="514" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="115"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="28">
+        <v>541.46</v>
+      </c>
+      <c r="G46" s="259">
+        <v>23</v>
+      </c>
+      <c r="H46" s="539">
+        <f t="shared" si="0"/>
+        <v>541.46</v>
+      </c>
+      <c r="I46" s="538">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="J46" s="523"/>
+      <c r="K46" s="682">
+        <v>541.46</v>
+      </c>
+      <c r="L46" s="683">
+        <v>23</v>
+      </c>
+      <c r="M46" s="542"/>
+      <c r="N46" s="627">
+        <v>840</v>
+      </c>
+      <c r="O46" s="707">
+        <v>23</v>
+      </c>
+      <c r="P46" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="692"/>
+      <c r="S46" s="801"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+    </row>
+    <row r="47" spans="1:22" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="519" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="375"/>
+      <c r="D47" s="374"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="28">
+        <v>1297.06</v>
+      </c>
+      <c r="G47" s="259">
+        <v>43</v>
+      </c>
+      <c r="H47" s="539">
+        <f t="shared" si="0"/>
+        <v>1297.06</v>
+      </c>
+      <c r="I47" s="538">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="J47" s="523"/>
+      <c r="K47" s="682">
+        <v>1297.06</v>
+      </c>
+      <c r="L47" s="683">
+        <v>43</v>
+      </c>
+      <c r="M47" s="542"/>
+      <c r="N47" s="627">
+        <v>1357.94</v>
+      </c>
+      <c r="O47" s="707">
+        <v>43</v>
+      </c>
+      <c r="P47" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="692"/>
+      <c r="S47" s="801"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+    </row>
+    <row r="48" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="519" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="115"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="259"/>
+      <c r="H48" s="539">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="538">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="523"/>
+      <c r="K48" s="682"/>
+      <c r="L48" s="683"/>
+      <c r="M48" s="542"/>
+      <c r="N48" s="631"/>
+      <c r="O48" s="825"/>
+      <c r="P48" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="692"/>
+      <c r="S48" s="422"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+    </row>
+    <row r="49" spans="2:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="265" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="440"/>
+      <c r="D49" s="441"/>
+      <c r="E49" s="442"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="259"/>
+      <c r="H49" s="539">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="538">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="523"/>
+      <c r="K49" s="682"/>
+      <c r="L49" s="683"/>
+      <c r="M49" s="542"/>
+      <c r="N49" s="629"/>
+      <c r="O49" s="826"/>
+      <c r="P49" s="833">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="834">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="692"/>
+      <c r="S49" s="422"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+    </row>
+    <row r="50" spans="2:22" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="261"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="259"/>
+      <c r="H50" s="539">
+        <f t="shared" ref="H50:I51" si="3">F50+C50</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="538">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="523"/>
+      <c r="K50" s="682"/>
+      <c r="L50" s="683"/>
+      <c r="M50" s="542"/>
+      <c r="N50" s="629"/>
+      <c r="O50" s="826"/>
+      <c r="P50" s="835">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="836">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="692"/>
+      <c r="S50" s="422"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+    </row>
+    <row r="51" spans="2:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="266"/>
+      <c r="C51" s="269"/>
+      <c r="D51" s="271"/>
+      <c r="E51" s="273"/>
+      <c r="F51" s="275"/>
+      <c r="G51" s="277"/>
+      <c r="H51" s="539">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="538">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="523"/>
+      <c r="K51" s="543"/>
+      <c r="L51" s="544"/>
+      <c r="M51" s="542"/>
+      <c r="N51" s="246"/>
+      <c r="O51" s="247"/>
+      <c r="P51" s="829">
+        <f t="shared" ref="P10:Q51" si="4">H51-K51</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="830">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="143"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+    </row>
+    <row r="52" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="145"/>
+      <c r="D52" s="147"/>
+      <c r="F52" s="760" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="760"/>
+      <c r="H52" s="560">
+        <f>SUM(H5:H35)</f>
+        <v>34696.020000000004</v>
+      </c>
+      <c r="I52" s="561">
+        <f>SUM(I5:I35)</f>
+        <v>1866</v>
+      </c>
+      <c r="J52" s="149"/>
+      <c r="K52" s="149"/>
+      <c r="L52" s="149"/>
+      <c r="M52" s="150"/>
+      <c r="N52" s="559">
+        <f>SUM(N5:N43)</f>
+        <v>27104.149999999998</v>
+      </c>
+      <c r="O52" s="559">
+        <f>SUM(O5:O43)</f>
+        <v>1735</v>
+      </c>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="154"/>
+      <c r="R52" s="155"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="P53" s="157"/>
+      <c r="Q53" s="158"/>
+      <c r="R53" s="439"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+    </row>
+    <row r="54" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="77"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="1"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+    </row>
+    <row r="55" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="352" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="353"/>
+      <c r="E55" s="354"/>
+      <c r="F55" s="354"/>
+      <c r="G55" s="355"/>
+      <c r="H55" s="166"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="166"/>
+      <c r="K55" s="166"/>
+      <c r="L55" s="166"/>
+      <c r="M55" s="166"/>
+      <c r="N55" s="166"/>
+      <c r="O55" s="167"/>
+      <c r="P55" s="168"/>
+      <c r="Q55" s="169"/>
+    </row>
+    <row r="56" spans="2:22" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="170"/>
+      <c r="D56" s="315"/>
+      <c r="E56" s="316"/>
+      <c r="F56" s="316"/>
+      <c r="G56" s="317"/>
+      <c r="H56" s="317"/>
+      <c r="I56" s="317"/>
+      <c r="J56" s="301"/>
+      <c r="K56" s="301"/>
+      <c r="L56" s="301"/>
+      <c r="M56" s="301"/>
+      <c r="N56" s="301"/>
+      <c r="O56" s="302"/>
+      <c r="P56" s="303"/>
+      <c r="Q56" s="304"/>
+      <c r="R56" s="174"/>
+      <c r="S56" s="173"/>
+      <c r="T56" s="174"/>
+    </row>
+    <row r="57" spans="2:22" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="175"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="178"/>
+      <c r="P57" s="179"/>
+      <c r="Q57" s="169"/>
+    </row>
+    <row r="58" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="175"/>
+      <c r="C58" s="485"/>
+      <c r="D58" s="486"/>
+      <c r="E58" s="487"/>
+      <c r="F58" s="487"/>
+      <c r="G58" s="487"/>
+      <c r="H58" s="487"/>
+      <c r="I58" s="488"/>
+      <c r="J58" s="488"/>
+      <c r="K58" s="488"/>
+      <c r="L58" s="181"/>
+      <c r="M58" s="181"/>
+      <c r="N58" s="181"/>
+      <c r="O58" s="181"/>
+      <c r="P58" s="179"/>
+      <c r="Q58" s="169"/>
+    </row>
+    <row r="59" spans="2:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="175"/>
+      <c r="C59" s="600"/>
+      <c r="D59" s="601"/>
+      <c r="E59" s="602"/>
+      <c r="F59" s="602"/>
+      <c r="G59" s="602"/>
+      <c r="H59" s="602"/>
+      <c r="I59" s="602"/>
+      <c r="J59" s="602"/>
+      <c r="K59" s="602"/>
+      <c r="L59" s="183"/>
+      <c r="M59" s="183"/>
+      <c r="N59" s="183"/>
+      <c r="O59" s="178"/>
+      <c r="P59" s="184"/>
+      <c r="Q59" s="185"/>
+    </row>
+    <row r="60" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="175"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="178"/>
+      <c r="P60" s="184"/>
+      <c r="Q60" s="185"/>
+    </row>
+    <row r="61" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="175"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="187"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="178"/>
+      <c r="P61" s="184"/>
+      <c r="Q61" s="185"/>
+    </row>
+    <row r="62" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="175"/>
+      <c r="C62" s="176"/>
+      <c r="D62" s="188"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="178"/>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="65" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14557,10 +17406,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="708" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="709"/>
+      <c r="B1" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="719"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -14575,26 +17424,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="720">
+      <c r="B2" s="744">
         <v>44989</v>
       </c>
-      <c r="C2" s="721"/>
-      <c r="F2" s="722" t="s">
+      <c r="C2" s="745"/>
+      <c r="F2" s="746" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="723"/>
-      <c r="H2" s="724"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="726" t="s">
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="726"/>
-      <c r="L2" s="727"/>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="713" t="s">
+      <c r="N2" s="723" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="713"/>
+      <c r="O2" s="723"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -14604,33 +17453,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="730" t="s">
+      <c r="C3" s="754" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="731"/>
+      <c r="D3" s="755"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="732" t="s">
+      <c r="F3" s="756" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="733"/>
+      <c r="G3" s="757"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="734" t="s">
+      <c r="I3" s="758" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="728"/>
-      <c r="K3" s="728"/>
-      <c r="L3" s="729"/>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="713"/>
-      <c r="O3" s="713"/>
-      <c r="P3" s="695" t="s">
+      <c r="N3" s="723"/>
+      <c r="O3" s="723"/>
+      <c r="P3" s="731" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="696"/>
-      <c r="R3" s="697" t="s">
+      <c r="Q3" s="732"/>
+      <c r="R3" s="733" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="698"/>
+      <c r="S3" s="734"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -14656,7 +17505,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="735"/>
+      <c r="I4" s="759"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -14732,8 +17581,8 @@
       <c r="Q5" s="38">
         <v>0</v>
       </c>
-      <c r="R5" s="699"/>
-      <c r="S5" s="699"/>
+      <c r="R5" s="735"/>
+      <c r="S5" s="735"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -14770,8 +17619,8 @@
         <f>O6-I6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="700"/>
-      <c r="S6" s="700"/>
+      <c r="R6" s="736"/>
+      <c r="S6" s="736"/>
       <c r="T6" s="45"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -14858,8 +17707,8 @@
       <c r="Q8" s="52">
         <v>0</v>
       </c>
-      <c r="R8" s="701"/>
-      <c r="S8" s="701"/>
+      <c r="R8" s="737"/>
+      <c r="S8" s="737"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -14946,8 +17795,8 @@
       <c r="Q10" s="52">
         <v>0</v>
       </c>
-      <c r="R10" s="702"/>
-      <c r="S10" s="702"/>
+      <c r="R10" s="738"/>
+      <c r="S10" s="738"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -15087,8 +17936,8 @@
       <c r="Q13" s="52">
         <v>0</v>
       </c>
-      <c r="R13" s="703"/>
-      <c r="S13" s="703"/>
+      <c r="R13" s="739"/>
+      <c r="S13" s="739"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -15396,8 +18245,8 @@
       <c r="Q20" s="52">
         <v>0</v>
       </c>
-      <c r="R20" s="704"/>
-      <c r="S20" s="704"/>
+      <c r="R20" s="740"/>
+      <c r="S20" s="740"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -15484,8 +18333,8 @@
       <c r="Q22" s="52">
         <v>0</v>
       </c>
-      <c r="R22" s="705"/>
-      <c r="S22" s="705"/>
+      <c r="R22" s="741"/>
+      <c r="S22" s="741"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -15531,8 +18380,8 @@
       <c r="Q23" s="52">
         <v>0</v>
       </c>
-      <c r="R23" s="706"/>
-      <c r="S23" s="706"/>
+      <c r="R23" s="742"/>
+      <c r="S23" s="742"/>
       <c r="T23" s="45"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -15672,8 +18521,8 @@
       <c r="Q26" s="52">
         <v>0</v>
       </c>
-      <c r="R26" s="707"/>
-      <c r="S26" s="707"/>
+      <c r="R26" s="743"/>
+      <c r="S26" s="743"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -16356,10 +19205,10 @@
     <row r="43" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="145"/>
       <c r="D43" s="147"/>
-      <c r="F43" s="694" t="s">
+      <c r="F43" s="730" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="694"/>
+      <c r="G43" s="730"/>
       <c r="H43" s="148">
         <f>SUM(H5:H34)</f>
         <v>52842.86</v>
@@ -16580,14 +19429,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -16600,6 +19441,14 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16642,10 +19491,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="708" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="709"/>
+      <c r="B1" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="719"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -16660,26 +19509,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="720">
+      <c r="B2" s="744">
         <v>45017</v>
       </c>
-      <c r="C2" s="721"/>
-      <c r="F2" s="722" t="s">
+      <c r="C2" s="745"/>
+      <c r="F2" s="746" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="723"/>
-      <c r="H2" s="724"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="726" t="s">
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="726"/>
-      <c r="L2" s="727"/>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="713" t="s">
+      <c r="N2" s="723" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="713"/>
+      <c r="O2" s="723"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -16689,33 +19538,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="730" t="s">
+      <c r="C3" s="754" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="731"/>
+      <c r="D3" s="755"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="732" t="s">
+      <c r="F3" s="756" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="733"/>
+      <c r="G3" s="757"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="734" t="s">
+      <c r="I3" s="758" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="728"/>
-      <c r="K3" s="728"/>
-      <c r="L3" s="729"/>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="713"/>
-      <c r="O3" s="713"/>
-      <c r="P3" s="695" t="s">
+      <c r="N3" s="723"/>
+      <c r="O3" s="723"/>
+      <c r="P3" s="731" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="696"/>
-      <c r="R3" s="697" t="s">
+      <c r="Q3" s="732"/>
+      <c r="R3" s="733" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="698"/>
+      <c r="S3" s="734"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -16741,7 +19590,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="735"/>
+      <c r="I4" s="759"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -16816,8 +19665,8 @@
         <f>O5-I5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="699"/>
-      <c r="S5" s="699"/>
+      <c r="R5" s="735"/>
+      <c r="S5" s="735"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -16870,8 +19719,8 @@
         <f>O6-I6</f>
         <v>-2</v>
       </c>
-      <c r="R6" s="700"/>
-      <c r="S6" s="700"/>
+      <c r="R6" s="736"/>
+      <c r="S6" s="736"/>
       <c r="T6" s="180" t="s">
         <v>79</v>
       </c>
@@ -16976,8 +19825,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="701"/>
-      <c r="S8" s="701"/>
+      <c r="R8" s="737"/>
+      <c r="S8" s="737"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -17064,8 +19913,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="702"/>
-      <c r="S10" s="702"/>
+      <c r="R10" s="738"/>
+      <c r="S10" s="738"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -17216,8 +20065,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="703"/>
-      <c r="S13" s="703"/>
+      <c r="R13" s="739"/>
+      <c r="S13" s="739"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -17550,8 +20399,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="704"/>
-      <c r="S20" s="704"/>
+      <c r="R20" s="740"/>
+      <c r="S20" s="740"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -17638,8 +20487,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="705"/>
-      <c r="S22" s="705"/>
+      <c r="R22" s="741"/>
+      <c r="S22" s="741"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -17688,8 +20537,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="706"/>
-      <c r="S23" s="706"/>
+      <c r="R23" s="742"/>
+      <c r="S23" s="742"/>
       <c r="T23" s="180" t="s">
         <v>80</v>
       </c>
@@ -17828,8 +20677,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="707"/>
-      <c r="S26" s="707"/>
+      <c r="R26" s="743"/>
+      <c r="S26" s="743"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -18933,10 +21782,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="736" t="s">
+      <c r="F51" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="736"/>
+      <c r="G51" s="760"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>74525.02</v>
@@ -19164,14 +22013,6 @@
     <sortCondition ref="B5:B50"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -19184,6 +22025,14 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.31" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19226,10 +22075,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="708" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="709"/>
+      <c r="B1" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="719"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -19244,26 +22093,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="720">
+      <c r="B2" s="744">
         <v>45056</v>
       </c>
-      <c r="C2" s="721"/>
-      <c r="F2" s="722" t="s">
+      <c r="C2" s="745"/>
+      <c r="F2" s="746" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="723"/>
-      <c r="H2" s="724"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="726" t="s">
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="726"/>
-      <c r="L2" s="727"/>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="713" t="s">
+      <c r="N2" s="723" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="713"/>
+      <c r="O2" s="723"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -19273,33 +22122,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="730" t="s">
+      <c r="C3" s="754" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="731"/>
+      <c r="D3" s="755"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="732" t="s">
+      <c r="F3" s="756" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="733"/>
+      <c r="G3" s="757"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="734" t="s">
+      <c r="I3" s="758" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="728"/>
-      <c r="K3" s="728"/>
-      <c r="L3" s="729"/>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="713"/>
-      <c r="O3" s="713"/>
-      <c r="P3" s="695" t="s">
+      <c r="N3" s="723"/>
+      <c r="O3" s="723"/>
+      <c r="P3" s="731" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="696"/>
-      <c r="R3" s="697" t="s">
+      <c r="Q3" s="732"/>
+      <c r="R3" s="733" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="698"/>
+      <c r="S3" s="734"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -19325,7 +22174,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="735"/>
+      <c r="I4" s="759"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -19396,8 +22245,8 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="699"/>
-      <c r="S5" s="699"/>
+      <c r="R5" s="735"/>
+      <c r="S5" s="735"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -19446,8 +22295,8 @@
         <f>I6-L6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="700"/>
-      <c r="S6" s="700"/>
+      <c r="R6" s="736"/>
+      <c r="S6" s="736"/>
       <c r="T6" s="180"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -19542,8 +22391,8 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="R8" s="701"/>
-      <c r="S8" s="701"/>
+      <c r="R8" s="737"/>
+      <c r="S8" s="737"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -19618,8 +22467,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="702"/>
-      <c r="S10" s="702"/>
+      <c r="R10" s="738"/>
+      <c r="S10" s="738"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -19740,8 +22589,8 @@
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="R13" s="703"/>
-      <c r="S13" s="703"/>
+      <c r="R13" s="739"/>
+      <c r="S13" s="739"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -20022,8 +22871,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="704"/>
-      <c r="S20" s="704"/>
+      <c r="R20" s="740"/>
+      <c r="S20" s="740"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -20098,8 +22947,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="705"/>
-      <c r="S22" s="705"/>
+      <c r="R22" s="741"/>
+      <c r="S22" s="741"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -20144,8 +22993,8 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="R23" s="706"/>
-      <c r="S23" s="706"/>
+      <c r="R23" s="742"/>
+      <c r="S23" s="742"/>
       <c r="T23" s="180"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -20274,8 +23123,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="707"/>
-      <c r="S26" s="707"/>
+      <c r="R26" s="743"/>
+      <c r="S26" s="743"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -21281,10 +24130,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="736" t="s">
+      <c r="F51" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="736"/>
+      <c r="G51" s="760"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>51160.97</v>
@@ -21507,6 +24356,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -21519,14 +24376,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21570,10 +24419,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="708" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="709"/>
+      <c r="B1" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="719"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -21588,26 +24437,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="720">
+      <c r="B2" s="744">
         <v>45082</v>
       </c>
-      <c r="C2" s="721"/>
-      <c r="F2" s="722" t="s">
+      <c r="C2" s="745"/>
+      <c r="F2" s="746" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="723"/>
-      <c r="H2" s="724"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="726" t="s">
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="726"/>
-      <c r="L2" s="727"/>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="713" t="s">
+      <c r="N2" s="723" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="713"/>
+      <c r="O2" s="723"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -21617,33 +24466,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="730" t="s">
+      <c r="C3" s="754" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="731"/>
+      <c r="D3" s="755"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="732" t="s">
+      <c r="F3" s="756" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="733"/>
+      <c r="G3" s="757"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="734" t="s">
+      <c r="I3" s="758" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="728"/>
-      <c r="K3" s="728"/>
-      <c r="L3" s="729"/>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="713"/>
-      <c r="O3" s="713"/>
-      <c r="P3" s="695" t="s">
+      <c r="N3" s="723"/>
+      <c r="O3" s="723"/>
+      <c r="P3" s="731" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="696"/>
-      <c r="R3" s="697" t="s">
+      <c r="Q3" s="732"/>
+      <c r="R3" s="733" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="698"/>
+      <c r="S3" s="734"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -21669,7 +24518,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="735"/>
+      <c r="I4" s="759"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -21732,8 +24581,8 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="699"/>
-      <c r="S5" s="699"/>
+      <c r="R5" s="735"/>
+      <c r="S5" s="735"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -21782,8 +24631,8 @@
         <f>O6-L6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="700"/>
-      <c r="S6" s="700"/>
+      <c r="R6" s="736"/>
+      <c r="S6" s="736"/>
       <c r="T6" s="180"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -21874,8 +24723,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="701"/>
-      <c r="S8" s="701"/>
+      <c r="R8" s="737"/>
+      <c r="S8" s="737"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -21950,8 +24799,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="702"/>
-      <c r="S10" s="702"/>
+      <c r="R10" s="738"/>
+      <c r="S10" s="738"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -22098,8 +24947,8 @@
         <f>O13-I13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="703"/>
-      <c r="S13" s="703"/>
+      <c r="R13" s="739"/>
+      <c r="S13" s="739"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -22418,8 +25267,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R20" s="704"/>
-      <c r="S20" s="704"/>
+      <c r="R20" s="740"/>
+      <c r="S20" s="740"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -22506,8 +25355,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R22" s="705"/>
-      <c r="S22" s="705"/>
+      <c r="R22" s="741"/>
+      <c r="S22" s="741"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -22556,8 +25405,8 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="R23" s="706"/>
-      <c r="S23" s="706"/>
+      <c r="R23" s="742"/>
+      <c r="S23" s="742"/>
       <c r="T23" s="347" t="s">
         <v>99</v>
       </c>
@@ -22708,8 +25557,8 @@
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="R26" s="707"/>
-      <c r="S26" s="707"/>
+      <c r="R26" s="743"/>
+      <c r="S26" s="743"/>
       <c r="T26" s="347" t="s">
         <v>99</v>
       </c>
@@ -23786,10 +26635,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="736" t="s">
+      <c r="F51" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="736"/>
+      <c r="G51" s="760"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>55132.759999999995</v>
@@ -24017,14 +26866,6 @@
     <sortCondition ref="B27:B47"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -24037,6 +26878,14 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24082,10 +26931,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="708" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="709"/>
+      <c r="B1" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="719"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -24099,30 +26948,30 @@
       <c r="R1" s="13"/>
     </row>
     <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="742">
+      <c r="B2" s="766">
         <v>45108</v>
       </c>
-      <c r="C2" s="743"/>
-      <c r="F2" s="722" t="s">
+      <c r="C2" s="767"/>
+      <c r="F2" s="746" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="723"/>
-      <c r="H2" s="724"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="726" t="s">
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="726"/>
-      <c r="L2" s="727"/>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="713" t="s">
+      <c r="N2" s="723" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="713"/>
-      <c r="P2" s="737" t="s">
+      <c r="O2" s="723"/>
+      <c r="P2" s="761" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="738"/>
+      <c r="Q2" s="762"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -24130,27 +26979,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="730" t="s">
+      <c r="C3" s="754" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="731"/>
+      <c r="D3" s="755"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="732" t="s">
+      <c r="F3" s="756" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="733"/>
+      <c r="G3" s="757"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="734" t="s">
+      <c r="I3" s="758" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="728"/>
-      <c r="K3" s="728"/>
-      <c r="L3" s="729"/>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="713"/>
-      <c r="O3" s="713"/>
-      <c r="P3" s="739"/>
-      <c r="Q3" s="740"/>
+      <c r="N3" s="723"/>
+      <c r="O3" s="723"/>
+      <c r="P3" s="763"/>
+      <c r="Q3" s="764"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -24177,7 +27026,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="735"/>
+      <c r="I4" s="759"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -24702,7 +27551,7 @@
         <v>-16</v>
       </c>
       <c r="R15" s="411"/>
-      <c r="S15" s="741" t="s">
+      <c r="S15" s="765" t="s">
         <v>109</v>
       </c>
       <c r="T15" s="13"/>
@@ -24753,7 +27602,7 @@
         <v>6</v>
       </c>
       <c r="R16" s="412"/>
-      <c r="S16" s="741"/>
+      <c r="S16" s="765"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -26228,10 +29077,10 @@
     <row r="51" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="736" t="s">
+      <c r="F51" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="736"/>
+      <c r="G51" s="760"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>34034.630000000005</v>
@@ -26501,10 +29350,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="708" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="709"/>
+      <c r="B1" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="719"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -26518,30 +29367,30 @@
       <c r="R1" s="13"/>
     </row>
     <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="742">
+      <c r="B2" s="766">
         <v>45136</v>
       </c>
-      <c r="C2" s="743"/>
-      <c r="F2" s="722" t="s">
+      <c r="C2" s="767"/>
+      <c r="F2" s="746" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="723"/>
-      <c r="H2" s="724"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="726" t="s">
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="726"/>
-      <c r="L2" s="727"/>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="744" t="s">
+      <c r="N2" s="768" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="744"/>
-      <c r="P2" s="737" t="s">
+      <c r="O2" s="768"/>
+      <c r="P2" s="761" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="738"/>
+      <c r="Q2" s="762"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -26549,27 +29398,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="730" t="s">
+      <c r="C3" s="754" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="731"/>
+      <c r="D3" s="755"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="732" t="s">
+      <c r="F3" s="756" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="733"/>
+      <c r="G3" s="757"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="734" t="s">
+      <c r="I3" s="758" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="728"/>
-      <c r="K3" s="728"/>
-      <c r="L3" s="729"/>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="744"/>
-      <c r="O3" s="744"/>
-      <c r="P3" s="739"/>
-      <c r="Q3" s="740"/>
+      <c r="N3" s="768"/>
+      <c r="O3" s="768"/>
+      <c r="P3" s="763"/>
+      <c r="Q3" s="764"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -26596,7 +29445,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="735"/>
+      <c r="I4" s="759"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -28551,10 +31400,10 @@
     <row r="51" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="736" t="s">
+      <c r="F51" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="736"/>
+      <c r="G51" s="760"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>42356.71</v>
@@ -28775,16 +31624,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.23622047244094491" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="65" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28827,10 +31676,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="747"/>
+      <c r="B1" s="771" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="771"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -28848,26 +31697,26 @@
         <v>45171</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="722" t="s">
+      <c r="F2" s="746" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="723"/>
-      <c r="H2" s="724"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="726" t="s">
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="726"/>
-      <c r="L2" s="727"/>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="744" t="s">
+      <c r="N2" s="768" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="744"/>
-      <c r="P2" s="737" t="s">
+      <c r="O2" s="768"/>
+      <c r="P2" s="761" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="738"/>
+      <c r="Q2" s="762"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -28875,27 +31724,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="748" t="s">
+      <c r="C3" s="772" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="731"/>
+      <c r="D3" s="755"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="732" t="s">
+      <c r="F3" s="756" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="733"/>
+      <c r="G3" s="757"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="734" t="s">
+      <c r="I3" s="758" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="728"/>
-      <c r="K3" s="728"/>
-      <c r="L3" s="729"/>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="744"/>
-      <c r="O3" s="744"/>
-      <c r="P3" s="739"/>
-      <c r="Q3" s="740"/>
+      <c r="N3" s="768"/>
+      <c r="O3" s="768"/>
+      <c r="P3" s="763"/>
+      <c r="Q3" s="764"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -28922,7 +31771,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="735"/>
+      <c r="I4" s="759"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -29406,10 +32255,10 @@
         <v>3</v>
       </c>
       <c r="M15" s="526"/>
-      <c r="N15" s="749">
+      <c r="N15" s="773">
         <v>96.813999999999993</v>
       </c>
-      <c r="O15" s="751">
+      <c r="O15" s="775">
         <v>3</v>
       </c>
       <c r="P15" s="562">
@@ -29421,7 +32270,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="411"/>
-      <c r="S15" s="745" t="s">
+      <c r="S15" s="769" t="s">
         <v>137</v>
       </c>
       <c r="T15" s="13"/>
@@ -29453,8 +32302,8 @@
       <c r="K16" s="528"/>
       <c r="L16" s="529"/>
       <c r="M16" s="526"/>
-      <c r="N16" s="750"/>
-      <c r="O16" s="752"/>
+      <c r="N16" s="774"/>
+      <c r="O16" s="776"/>
       <c r="P16" s="562">
         <f t="shared" si="3"/>
         <v>-33.090000000000003</v>
@@ -29464,7 +32313,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="412"/>
-      <c r="S16" s="746"/>
+      <c r="S16" s="770"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -30885,10 +33734,10 @@
     <row r="51" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="736" t="s">
+      <c r="F51" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="736"/>
+      <c r="G51" s="760"/>
       <c r="H51" s="560">
         <f>SUM(H5:H34)</f>
         <v>51673.75</v>
@@ -31165,10 +34014,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="747"/>
+      <c r="B1" s="771" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="771"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -31186,26 +34035,26 @@
         <v>45201</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="722" t="s">
+      <c r="F2" s="746" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="723"/>
-      <c r="H2" s="724"/>
-      <c r="I2" s="725"/>
-      <c r="J2" s="726" t="s">
+      <c r="G2" s="747"/>
+      <c r="H2" s="748"/>
+      <c r="I2" s="749"/>
+      <c r="J2" s="750" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="726"/>
-      <c r="L2" s="727"/>
+      <c r="K2" s="750"/>
+      <c r="L2" s="751"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="744" t="s">
+      <c r="N2" s="768" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="744"/>
-      <c r="P2" s="758" t="s">
+      <c r="O2" s="768"/>
+      <c r="P2" s="777" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="759"/>
+      <c r="Q2" s="778"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -31213,27 +34062,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="748" t="s">
+      <c r="C3" s="772" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="731"/>
+      <c r="D3" s="755"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="732" t="s">
+      <c r="F3" s="756" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="733"/>
+      <c r="G3" s="757"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="762" t="s">
+      <c r="I3" s="781" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="728"/>
-      <c r="K3" s="728"/>
-      <c r="L3" s="729"/>
+      <c r="J3" s="752"/>
+      <c r="K3" s="752"/>
+      <c r="L3" s="753"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="744"/>
-      <c r="O3" s="744"/>
-      <c r="P3" s="760"/>
-      <c r="Q3" s="761"/>
+      <c r="N3" s="768"/>
+      <c r="O3" s="768"/>
+      <c r="P3" s="779"/>
+      <c r="Q3" s="780"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -31260,7 +34109,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="782"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -31754,10 +34603,10 @@
         <v>103</v>
       </c>
       <c r="M15" s="526"/>
-      <c r="N15" s="753">
+      <c r="N15" s="783">
         <v>3617.26</v>
       </c>
-      <c r="O15" s="755">
+      <c r="O15" s="785">
         <v>141</v>
       </c>
       <c r="P15" s="597">
@@ -31769,7 +34618,7 @@
         <v>38</v>
       </c>
       <c r="R15" s="411"/>
-      <c r="S15" s="757" t="s">
+      <c r="S15" s="787" t="s">
         <v>145</v>
       </c>
       <c r="T15" s="13"/>
@@ -31797,8 +34646,8 @@
       <c r="K16" s="524"/>
       <c r="L16" s="525"/>
       <c r="M16" s="526"/>
-      <c r="N16" s="754"/>
-      <c r="O16" s="756"/>
+      <c r="N16" s="784"/>
+      <c r="O16" s="786"/>
       <c r="P16" s="597">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -31808,7 +34657,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="412"/>
-      <c r="S16" s="757"/>
+      <c r="S16" s="787"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -32013,7 +34862,7 @@
         <v>-35</v>
       </c>
       <c r="R21" s="413"/>
-      <c r="S21" s="757" t="s">
+      <c r="S21" s="787" t="s">
         <v>145</v>
       </c>
       <c r="T21" s="77"/>
@@ -32052,7 +34901,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="577"/>
-      <c r="S22" s="757"/>
+      <c r="S22" s="787"/>
       <c r="T22" s="78"/>
       <c r="U22" s="78"/>
       <c r="V22" s="13"/>
@@ -32101,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="578"/>
-      <c r="S23" s="757" t="s">
+      <c r="S23" s="787" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="13"/>
@@ -32140,7 +34989,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="414"/>
-      <c r="S24" s="757"/>
+      <c r="S24" s="787"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
@@ -33243,10 +36092,10 @@
     <row r="51" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="736" t="s">
+      <c r="F51" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="736"/>
+      <c r="G51" s="760"/>
       <c r="H51" s="560">
         <f>SUM(H5:H34)</f>
         <v>22552.550000000003</v>
@@ -33450,6 +36299,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:L3"/>
@@ -33458,12 +36313,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.23622047244094491" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/INVENTARIO ALMACEN  Dic   -2023 rtr.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/INVENTARIO ALMACEN  Dic   -2023 rtr.xlsx
@@ -5413,6 +5413,174 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="28" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="8" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="46" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5449,48 +5617,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5590,6 +5716,21 @@
     <xf numFmtId="1" fontId="30" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="30" fillId="8" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="8" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="8" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="8" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5608,21 +5749,6 @@
     <xf numFmtId="0" fontId="12" fillId="26" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="8" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="8" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="8" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="8" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="42" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5638,149 +5764,23 @@
     <xf numFmtId="0" fontId="12" fillId="27" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="28" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="8" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="46" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6218,10 +6218,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="719"/>
+      <c r="B1" s="774" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="775"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -6233,21 +6233,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="720">
+      <c r="B2" s="776">
         <v>44955</v>
       </c>
-      <c r="C2" s="721"/>
-      <c r="F2" s="722" t="s">
+      <c r="C2" s="777"/>
+      <c r="F2" s="778" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="722"/>
-      <c r="H2" s="722"/>
+      <c r="G2" s="778"/>
+      <c r="H2" s="778"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="723" t="s">
+      <c r="K2" s="779" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="723"/>
+      <c r="L2" s="779"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="Q2" s="12"/>
@@ -6257,30 +6257,30 @@
     </row>
     <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="724" t="s">
+      <c r="C3" s="780" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="725"/>
+      <c r="D3" s="781"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="726" t="s">
+      <c r="F3" s="782" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="727"/>
+      <c r="G3" s="783"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="728" t="s">
+      <c r="I3" s="784" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="723"/>
-      <c r="L3" s="723"/>
-      <c r="M3" s="731" t="s">
+      <c r="K3" s="779"/>
+      <c r="L3" s="779"/>
+      <c r="M3" s="761" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="732"/>
-      <c r="O3" s="733" t="s">
+      <c r="N3" s="762"/>
+      <c r="O3" s="763" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="734"/>
+      <c r="P3" s="764"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -6306,7 +6306,7 @@
       <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="729"/>
+      <c r="I4" s="785"/>
       <c r="J4" s="16"/>
       <c r="K4" s="21" t="s">
         <v>10</v>
@@ -6367,8 +6367,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="735"/>
-      <c r="P5" s="735"/>
+      <c r="O5" s="765"/>
+      <c r="P5" s="765"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -6410,8 +6410,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="736"/>
-      <c r="P6" s="736"/>
+      <c r="O6" s="766"/>
+      <c r="P6" s="766"/>
       <c r="Q6" s="45"/>
       <c r="R6" s="13"/>
       <c r="S6" s="46"/>
@@ -6494,8 +6494,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="737"/>
-      <c r="P8" s="737"/>
+      <c r="O8" s="767"/>
+      <c r="P8" s="767"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -6576,8 +6576,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="738"/>
-      <c r="P10" s="738"/>
+      <c r="O10" s="768"/>
+      <c r="P10" s="768"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -6705,8 +6705,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="739"/>
-      <c r="P13" s="739"/>
+      <c r="O13" s="769"/>
+      <c r="P13" s="769"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="66"/>
       <c r="S13" s="66"/>
@@ -6974,8 +6974,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="740"/>
-      <c r="P20" s="740"/>
+      <c r="O20" s="770"/>
+      <c r="P20" s="770"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -7060,8 +7060,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="741"/>
-      <c r="P22" s="741"/>
+      <c r="O22" s="771"/>
+      <c r="P22" s="771"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="78"/>
       <c r="S22" s="78"/>
@@ -7103,8 +7103,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="742"/>
-      <c r="P23" s="742"/>
+      <c r="O23" s="772"/>
+      <c r="P23" s="772"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -7226,8 +7226,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="743"/>
-      <c r="P26" s="743"/>
+      <c r="O26" s="773"/>
+      <c r="P26" s="773"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
@@ -7740,10 +7740,10 @@
     <row r="40" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="145"/>
       <c r="D40" s="147"/>
-      <c r="F40" s="730" t="s">
+      <c r="F40" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="730"/>
+      <c r="G40" s="760"/>
       <c r="H40" s="148">
         <f>SUM(H5:H31)</f>
         <v>51250.14</v>
@@ -7943,6 +7943,13 @@
     <sortCondition ref="B5:B38"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -7955,13 +7962,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8004,10 +8004,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="771" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="771"/>
+      <c r="B1" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="813"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -8025,26 +8025,26 @@
         <v>45201</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="746" t="s">
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="768" t="s">
+      <c r="N2" s="810" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="768"/>
-      <c r="P2" s="777" t="s">
+      <c r="O2" s="810"/>
+      <c r="P2" s="824" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="778"/>
+      <c r="Q2" s="825"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -8052,27 +8052,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="772" t="s">
+      <c r="C3" s="814" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="781" t="s">
+      <c r="I3" s="828" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="768"/>
-      <c r="O3" s="768"/>
-      <c r="P3" s="779"/>
-      <c r="Q3" s="780"/>
+      <c r="N3" s="810"/>
+      <c r="O3" s="810"/>
+      <c r="P3" s="826"/>
+      <c r="Q3" s="827"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -8099,7 +8099,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="782"/>
+      <c r="I4" s="829"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -8560,10 +8560,10 @@
         <v>24</v>
       </c>
       <c r="M14" s="526"/>
-      <c r="N14" s="788">
+      <c r="N14" s="830">
         <v>744.11</v>
       </c>
-      <c r="O14" s="790">
+      <c r="O14" s="832">
         <v>24</v>
       </c>
       <c r="P14" s="562">
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="411"/>
-      <c r="S14" s="787"/>
+      <c r="S14" s="823"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
@@ -8601,8 +8601,8 @@
       <c r="K15" s="524"/>
       <c r="L15" s="525"/>
       <c r="M15" s="526"/>
-      <c r="N15" s="789"/>
-      <c r="O15" s="791"/>
+      <c r="N15" s="831"/>
+      <c r="O15" s="833"/>
       <c r="P15" s="562">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8612,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="412"/>
-      <c r="S15" s="787"/>
+      <c r="S15" s="823"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="413"/>
-      <c r="S20" s="787"/>
+      <c r="S20" s="823"/>
       <c r="T20" s="77"/>
       <c r="U20" s="77"/>
       <c r="V20" s="13"/>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="623"/>
-      <c r="S21" s="787"/>
+      <c r="S21" s="823"/>
       <c r="T21" s="78"/>
       <c r="U21" s="78"/>
       <c r="V21" s="13"/>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="624"/>
-      <c r="S22" s="787"/>
+      <c r="S22" s="823"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="414"/>
-      <c r="S23" s="787"/>
+      <c r="S23" s="823"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -10019,10 +10019,10 @@
     <row r="50" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="145"/>
       <c r="D50" s="147"/>
-      <c r="F50" s="760" t="s">
+      <c r="F50" s="802" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="760"/>
+      <c r="G50" s="802"/>
       <c r="H50" s="560">
         <f>SUM(H5:H33)</f>
         <v>25434.93</v>
@@ -10277,10 +10277,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="771" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="771"/>
+      <c r="B1" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="813"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -10298,24 +10298,24 @@
         <v>45255</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="746" t="s">
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="768"/>
-      <c r="O2" s="768"/>
-      <c r="P2" s="777" t="s">
+      <c r="N2" s="810"/>
+      <c r="O2" s="810"/>
+      <c r="P2" s="824" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="778"/>
+      <c r="Q2" s="825"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -10323,27 +10323,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="772" t="s">
+      <c r="C3" s="814" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="781" t="s">
+      <c r="I3" s="828" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="768"/>
-      <c r="O3" s="768"/>
-      <c r="P3" s="779"/>
-      <c r="Q3" s="780"/>
+      <c r="N3" s="810"/>
+      <c r="O3" s="810"/>
+      <c r="P3" s="826"/>
+      <c r="Q3" s="827"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -10370,7 +10370,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="782"/>
+      <c r="I4" s="829"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -10781,7 +10781,7 @@
         <v>-17</v>
       </c>
       <c r="R13" s="411"/>
-      <c r="S13" s="792" t="s">
+      <c r="S13" s="834" t="s">
         <v>163</v>
       </c>
       <c r="T13" s="13"/>
@@ -10828,7 +10828,7 @@
         <v>-24</v>
       </c>
       <c r="R14" s="412"/>
-      <c r="S14" s="792"/>
+      <c r="S14" s="834"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="413"/>
-      <c r="S21" s="787"/>
+      <c r="S21" s="823"/>
       <c r="T21" s="77"/>
       <c r="U21" s="77"/>
       <c r="V21" s="13"/>
@@ -11172,7 +11172,7 @@
         <v>-12</v>
       </c>
       <c r="R22" s="658"/>
-      <c r="S22" s="787"/>
+      <c r="S22" s="823"/>
       <c r="T22" s="78"/>
       <c r="U22" s="78"/>
       <c r="V22" s="13"/>
@@ -11220,7 +11220,7 @@
         <v>-79</v>
       </c>
       <c r="R23" s="659"/>
-      <c r="S23" s="792" t="s">
+      <c r="S23" s="834" t="s">
         <v>164</v>
       </c>
       <c r="T23" s="13"/>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="414"/>
-      <c r="S24" s="792"/>
+      <c r="S24" s="834"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
@@ -11556,7 +11556,7 @@
         <v>-231</v>
       </c>
       <c r="R31" s="656"/>
-      <c r="S31" s="813" t="s">
+      <c r="S31" s="734" t="s">
         <v>177</v>
       </c>
       <c r="T31" s="13"/>
@@ -12322,10 +12322,10 @@
     <row r="51" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="760" t="s">
+      <c r="F51" s="802" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="760"/>
+      <c r="G51" s="802"/>
       <c r="H51" s="560">
         <f>SUM(H5:H34)</f>
         <v>41458.51</v>
@@ -12581,10 +12581,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="771" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="771"/>
+      <c r="B1" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="813"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -12602,26 +12602,26 @@
         <v>45297</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="746" t="s">
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="768" t="s">
+      <c r="N2" s="810" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="768"/>
-      <c r="P2" s="777" t="s">
+      <c r="O2" s="810"/>
+      <c r="P2" s="824" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="778"/>
+      <c r="Q2" s="825"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -12629,27 +12629,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="772" t="s">
+      <c r="C3" s="814" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="781" t="s">
+      <c r="I3" s="828" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="768"/>
-      <c r="O3" s="768"/>
-      <c r="P3" s="779"/>
-      <c r="Q3" s="780"/>
+      <c r="N3" s="810"/>
+      <c r="O3" s="810"/>
+      <c r="P3" s="826"/>
+      <c r="Q3" s="827"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -12676,7 +12676,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="782"/>
+      <c r="I4" s="829"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -12725,10 +12725,10 @@
         <v>6</v>
       </c>
       <c r="J5" s="54"/>
-      <c r="K5" s="805">
+      <c r="K5" s="728">
         <v>72.650000000000006</v>
       </c>
-      <c r="L5" s="806">
+      <c r="L5" s="729">
         <v>6</v>
       </c>
       <c r="M5" s="42"/>
@@ -12787,16 +12787,16 @@
       <c r="O6" s="628">
         <v>90</v>
       </c>
-      <c r="P6" s="839">
+      <c r="P6" s="758">
         <f>N6-K6</f>
         <v>-507.4699999999998</v>
       </c>
-      <c r="Q6" s="840">
+      <c r="Q6" s="759">
         <f>O6-L6</f>
         <v>-15</v>
       </c>
       <c r="R6" s="669"/>
-      <c r="S6" s="816" t="s">
+      <c r="S6" s="737" t="s">
         <v>181</v>
       </c>
       <c r="T6" s="13"/>
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="670"/>
-      <c r="S9" s="795"/>
+      <c r="S9" s="720"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="671"/>
-      <c r="S12" s="810"/>
+      <c r="S12" s="733"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
       <c r="V12" s="13"/>
@@ -13109,7 +13109,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="523"/>
-      <c r="K13" s="807">
+      <c r="K13" s="730">
         <v>495.86</v>
       </c>
       <c r="L13" s="679">
@@ -13118,16 +13118,16 @@
       <c r="M13" s="526"/>
       <c r="N13" s="697"/>
       <c r="O13" s="698"/>
-      <c r="P13" s="837">
+      <c r="P13" s="756">
         <f t="shared" ref="P13:Q41" si="3">N13-H13</f>
         <v>-495.86</v>
       </c>
-      <c r="Q13" s="838">
+      <c r="Q13" s="757">
         <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="R13" s="411"/>
-      <c r="S13" s="811" t="s">
+      <c r="S13" s="835" t="s">
         <v>172</v>
       </c>
       <c r="T13" s="13"/>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="412"/>
-      <c r="S14" s="812"/>
+      <c r="S14" s="836"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
@@ -13215,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="412"/>
-      <c r="S15" s="794"/>
+      <c r="S15" s="719"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
@@ -13292,16 +13292,16 @@
       <c r="O17" s="628">
         <v>189</v>
       </c>
-      <c r="P17" s="817">
+      <c r="P17" s="738">
         <f t="shared" si="3"/>
         <v>-60.539999999999964</v>
       </c>
-      <c r="Q17" s="808">
+      <c r="Q17" s="731">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="R17" s="437"/>
-      <c r="S17" s="809" t="s">
+      <c r="S17" s="732" t="s">
         <v>175</v>
       </c>
       <c r="T17" s="13"/>
@@ -13455,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="413"/>
-      <c r="S21" s="797"/>
+      <c r="S21" s="721"/>
       <c r="T21" s="77"/>
       <c r="U21" s="77"/>
       <c r="V21" s="13"/>
@@ -13504,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="677"/>
-      <c r="S22" s="798"/>
+      <c r="S22" s="722"/>
       <c r="T22" s="77"/>
       <c r="U22" s="77"/>
       <c r="V22" s="13"/>
@@ -13549,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="673"/>
-      <c r="S23" s="804" t="s">
+      <c r="S23" s="727" t="s">
         <v>173</v>
       </c>
       <c r="T23" s="78"/>
@@ -13566,7 +13566,7 @@
       <c r="F24" s="28">
         <v>108.89</v>
       </c>
-      <c r="G24" s="793">
+      <c r="G24" s="718">
         <v>-1</v>
       </c>
       <c r="H24" s="521">
@@ -13591,16 +13591,16 @@
       <c r="O24" s="628">
         <v>6</v>
       </c>
-      <c r="P24" s="818">
+      <c r="P24" s="739">
         <f t="shared" si="3"/>
         <v>-3.1700000000000017</v>
       </c>
-      <c r="Q24" s="819">
+      <c r="Q24" s="740">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="R24" s="674"/>
-      <c r="S24" s="802" t="s">
+      <c r="S24" s="837" t="s">
         <v>176</v>
       </c>
       <c r="T24" s="13"/>
@@ -13639,7 +13639,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="414"/>
-      <c r="S25" s="802"/>
+      <c r="S25" s="837"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
@@ -13688,7 +13688,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="438"/>
-      <c r="S26" s="799"/>
+      <c r="S26" s="723"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -13925,16 +13925,16 @@
       <c r="M32" s="526"/>
       <c r="N32" s="697"/>
       <c r="O32" s="698"/>
-      <c r="P32" s="818">
+      <c r="P32" s="739">
         <f t="shared" si="3"/>
         <v>-17366.36</v>
       </c>
-      <c r="Q32" s="819">
+      <c r="Q32" s="740">
         <f t="shared" si="3"/>
         <v>-638</v>
       </c>
       <c r="R32" s="671"/>
-      <c r="S32" s="815" t="s">
+      <c r="S32" s="736" t="s">
         <v>178</v>
       </c>
       <c r="T32" s="13"/>
@@ -13973,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="671"/>
-      <c r="S33" s="800"/>
+      <c r="S33" s="724"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
@@ -14059,7 +14059,7 @@
         <v>-34</v>
       </c>
       <c r="R35" s="417"/>
-      <c r="S35" s="803" t="s">
+      <c r="S35" s="726" t="s">
         <v>174</v>
       </c>
       <c r="T35" s="13"/>
@@ -14116,7 +14116,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="418"/>
-      <c r="S36" s="803" t="s">
+      <c r="S36" s="726" t="s">
         <v>182</v>
       </c>
       <c r="T36" s="13"/>
@@ -14254,7 +14254,7 @@
         <v>4</v>
       </c>
       <c r="R39" s="673"/>
-      <c r="S39" s="820" t="s">
+      <c r="S39" s="741" t="s">
         <v>179</v>
       </c>
       <c r="T39" s="13"/>
@@ -14293,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="114"/>
-      <c r="S40" s="820" t="s">
+      <c r="S40" s="741" t="s">
         <v>179</v>
       </c>
       <c r="T40" s="13"/>
@@ -14332,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="419"/>
-      <c r="S41" s="820" t="s">
+      <c r="S41" s="741" t="s">
         <v>179</v>
       </c>
       <c r="T41" s="13"/>
@@ -14371,7 +14371,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="419"/>
-      <c r="S42" s="820" t="s">
+      <c r="S42" s="741" t="s">
         <v>179</v>
       </c>
       <c r="T42" s="13"/>
@@ -14410,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="420"/>
-      <c r="S43" s="820" t="s">
+      <c r="S43" s="741" t="s">
         <v>179</v>
       </c>
       <c r="T43" s="13"/>
@@ -14449,7 +14449,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="673"/>
-      <c r="S44" s="820" t="s">
+      <c r="S44" s="741" t="s">
         <v>179</v>
       </c>
       <c r="T44" s="13"/>
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="673"/>
-      <c r="S45" s="820" t="s">
+      <c r="S45" s="741" t="s">
         <v>179</v>
       </c>
       <c r="T45" s="13"/>
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="673"/>
-      <c r="S46" s="820" t="s">
+      <c r="S46" s="741" t="s">
         <v>179</v>
       </c>
       <c r="T46" s="13"/>
@@ -14590,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="673"/>
-      <c r="S47" s="820" t="s">
+      <c r="S47" s="741" t="s">
         <v>180</v>
       </c>
       <c r="T47" s="13"/>
@@ -14744,10 +14744,10 @@
     <row r="52" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="145"/>
       <c r="D52" s="147"/>
-      <c r="F52" s="760" t="s">
+      <c r="F52" s="802" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="760"/>
+      <c r="G52" s="802"/>
       <c r="H52" s="560">
         <f>SUM(H5:H35)</f>
         <v>34696.020000000004</v>
@@ -14969,7 +14969,7 @@
   <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -14996,10 +14996,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="771" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="771"/>
+      <c r="B1" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="813"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -15017,26 +15017,26 @@
         <v>45297</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="746" t="s">
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="768" t="s">
+      <c r="N2" s="810" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="768"/>
-      <c r="P2" s="777" t="s">
+      <c r="O2" s="810"/>
+      <c r="P2" s="824" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="778"/>
+      <c r="Q2" s="825"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -15044,27 +15044,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="772" t="s">
+      <c r="C3" s="814" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="781" t="s">
+      <c r="I3" s="828" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="768"/>
-      <c r="O3" s="768"/>
-      <c r="P3" s="779"/>
-      <c r="Q3" s="780"/>
+      <c r="N3" s="810"/>
+      <c r="O3" s="810"/>
+      <c r="P3" s="826"/>
+      <c r="Q3" s="827"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -15091,7 +15091,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="782"/>
+      <c r="I4" s="829"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -15106,10 +15106,10 @@
       <c r="O4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="827" t="s">
+      <c r="P4" s="746" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="828" t="s">
+      <c r="Q4" s="747" t="s">
         <v>11</v>
       </c>
       <c r="R4" s="435"/>
@@ -15140,10 +15140,10 @@
         <v>6</v>
       </c>
       <c r="J5" s="54"/>
-      <c r="K5" s="805">
+      <c r="K5" s="728">
         <v>72.650000000000006</v>
       </c>
-      <c r="L5" s="806">
+      <c r="L5" s="729">
         <v>6</v>
       </c>
       <c r="M5" s="42"/>
@@ -15153,11 +15153,11 @@
       <c r="O5" s="707">
         <v>6</v>
       </c>
-      <c r="P5" s="831">
+      <c r="P5" s="750">
         <f>K5-H5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="832">
+      <c r="Q5" s="751">
         <f>L5-I5</f>
         <v>0</v>
       </c>
@@ -15202,11 +15202,11 @@
       <c r="O6" s="707">
         <v>90</v>
       </c>
-      <c r="P6" s="833">
+      <c r="P6" s="752">
         <f t="shared" ref="P6:P50" si="1">K6-H6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="834">
+      <c r="Q6" s="753">
         <f t="shared" ref="Q6:Q50" si="2">L6-I6</f>
         <v>0</v>
       </c>
@@ -15255,11 +15255,11 @@
       <c r="O7" s="707">
         <v>60</v>
       </c>
-      <c r="P7" s="833">
+      <c r="P7" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="834">
+      <c r="Q7" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15304,11 +15304,11 @@
       <c r="O8" s="707">
         <v>203</v>
       </c>
-      <c r="P8" s="833">
+      <c r="P8" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="834">
+      <c r="Q8" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15353,16 +15353,16 @@
       <c r="O9" s="707">
         <v>15</v>
       </c>
-      <c r="P9" s="833">
+      <c r="P9" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="834">
+      <c r="Q9" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="689"/>
-      <c r="S9" s="795"/>
+      <c r="S9" s="720"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
@@ -15402,11 +15402,11 @@
       <c r="O10" s="707">
         <v>12</v>
       </c>
-      <c r="P10" s="833">
+      <c r="P10" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="834">
+      <c r="Q10" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15451,11 +15451,11 @@
       <c r="O11" s="707">
         <v>6</v>
       </c>
-      <c r="P11" s="833">
+      <c r="P11" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="834">
+      <c r="Q11" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15465,7 +15465,7 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
     </row>
-    <row r="12" spans="2:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="514" t="s">
         <v>19</v>
       </c>
@@ -15492,16 +15492,16 @@
       <c r="M12" s="526"/>
       <c r="N12" s="627"/>
       <c r="O12" s="707"/>
-      <c r="P12" s="833">
+      <c r="P12" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="834">
+      <c r="Q12" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="690"/>
-      <c r="S12" s="810"/>
+      <c r="S12" s="733"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
       <c r="V12" s="13"/>
@@ -15528,7 +15528,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="523"/>
-      <c r="K13" s="807">
+      <c r="K13" s="730">
         <v>495.86</v>
       </c>
       <c r="L13" s="679">
@@ -15536,17 +15536,17 @@
       </c>
       <c r="M13" s="526"/>
       <c r="N13" s="684"/>
-      <c r="O13" s="823"/>
-      <c r="P13" s="833">
+      <c r="O13" s="742"/>
+      <c r="P13" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="834">
+      <c r="Q13" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="411"/>
-      <c r="S13" s="821"/>
+      <c r="S13" s="838"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
@@ -15574,16 +15574,16 @@
       <c r="M14" s="526"/>
       <c r="N14" s="627"/>
       <c r="O14" s="707"/>
-      <c r="P14" s="833">
+      <c r="P14" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="834">
+      <c r="Q14" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="412"/>
-      <c r="S14" s="822"/>
+      <c r="S14" s="839"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
@@ -15623,21 +15623,21 @@
       <c r="O15" s="707">
         <v>20</v>
       </c>
-      <c r="P15" s="833">
+      <c r="P15" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="834">
+      <c r="Q15" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15" s="412"/>
-      <c r="S15" s="794"/>
+      <c r="S15" s="719"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
     </row>
-    <row r="16" spans="2:26" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:26" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="506" t="s">
         <v>76</v>
       </c>
@@ -15660,11 +15660,11 @@
       <c r="M16" s="526"/>
       <c r="N16" s="627"/>
       <c r="O16" s="707"/>
-      <c r="P16" s="833">
+      <c r="P16" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="834">
+      <c r="Q16" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15709,11 +15709,11 @@
       <c r="O17" s="707">
         <v>189</v>
       </c>
-      <c r="P17" s="833">
+      <c r="P17" s="752">
         <f t="shared" si="1"/>
         <v>913.59999999999991</v>
       </c>
-      <c r="Q17" s="834">
+      <c r="Q17" s="753">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -15748,11 +15748,11 @@
       <c r="M18" s="526"/>
       <c r="N18" s="627"/>
       <c r="O18" s="707"/>
-      <c r="P18" s="833">
+      <c r="P18" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="834">
+      <c r="Q18" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15785,11 +15785,11 @@
       <c r="M19" s="526"/>
       <c r="N19" s="627"/>
       <c r="O19" s="707"/>
-      <c r="P19" s="833">
+      <c r="P19" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="834">
+      <c r="Q19" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15799,7 +15799,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="514" t="s">
         <v>61</v>
       </c>
@@ -15826,11 +15826,11 @@
       <c r="M20" s="526"/>
       <c r="N20" s="627"/>
       <c r="O20" s="707"/>
-      <c r="P20" s="833">
+      <c r="P20" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="834">
+      <c r="Q20" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15840,7 +15840,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="514" t="s">
         <v>119</v>
       </c>
@@ -15863,16 +15863,16 @@
       <c r="M21" s="526"/>
       <c r="N21" s="627"/>
       <c r="O21" s="707"/>
-      <c r="P21" s="833">
+      <c r="P21" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="834">
+      <c r="Q21" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="413"/>
-      <c r="S21" s="797"/>
+      <c r="S21" s="721"/>
       <c r="T21" s="77"/>
       <c r="U21" s="77"/>
       <c r="V21" s="13"/>
@@ -15912,16 +15912,16 @@
       <c r="O22" s="707">
         <v>10</v>
       </c>
-      <c r="P22" s="833">
+      <c r="P22" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="834">
+      <c r="Q22" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="677"/>
-      <c r="S22" s="798"/>
+      <c r="S22" s="722"/>
       <c r="T22" s="77"/>
       <c r="U22" s="77"/>
       <c r="V22" s="13"/>
@@ -15956,17 +15956,17 @@
       </c>
       <c r="M23" s="526"/>
       <c r="N23" s="684"/>
-      <c r="O23" s="823"/>
-      <c r="P23" s="833">
+      <c r="O23" s="742"/>
+      <c r="P23" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="834">
+      <c r="Q23" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R23" s="692"/>
-      <c r="S23" s="804" t="s">
+      <c r="S23" s="727" t="s">
         <v>173</v>
       </c>
       <c r="T23" s="78"/>
@@ -15983,8 +15983,8 @@
       <c r="F24" s="28">
         <v>108.89</v>
       </c>
-      <c r="G24" s="793">
-        <v>-1</v>
+      <c r="G24" s="718">
+        <v>6</v>
       </c>
       <c r="H24" s="521">
         <f t="shared" si="0"/>
@@ -15992,7 +15992,7 @@
       </c>
       <c r="I24" s="522">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24" s="523"/>
       <c r="K24" s="685">
@@ -16005,26 +16005,26 @@
       <c r="N24" s="696">
         <v>105.72</v>
       </c>
-      <c r="O24" s="824">
+      <c r="O24" s="743">
         <v>6</v>
       </c>
-      <c r="P24" s="833">
+      <c r="P24" s="752">
         <f t="shared" si="1"/>
         <v>-9.9650000000000034</v>
       </c>
-      <c r="Q24" s="834">
+      <c r="Q24" s="753">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R24" s="693"/>
-      <c r="S24" s="796" t="s">
+      <c r="S24" s="840" t="s">
         <v>176</v>
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="2:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="514" t="s">
         <v>94</v>
       </c>
@@ -16047,16 +16047,16 @@
       <c r="M25" s="526"/>
       <c r="N25" s="627"/>
       <c r="O25" s="707"/>
-      <c r="P25" s="833">
+      <c r="P25" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="834">
+      <c r="Q25" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R25" s="414"/>
-      <c r="S25" s="796"/>
+      <c r="S25" s="840"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
@@ -16096,21 +16096,21 @@
       <c r="O26" s="707">
         <v>570</v>
       </c>
-      <c r="P26" s="833">
+      <c r="P26" s="752">
         <f t="shared" si="1"/>
         <v>0.38999999999987267</v>
       </c>
-      <c r="Q26" s="834">
+      <c r="Q26" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R26" s="438"/>
-      <c r="S26" s="799"/>
+      <c r="S26" s="723"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="514" t="s">
         <v>27</v>
       </c>
@@ -16133,11 +16133,11 @@
       <c r="M27" s="526"/>
       <c r="N27" s="627"/>
       <c r="O27" s="707"/>
-      <c r="P27" s="833">
+      <c r="P27" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="834">
+      <c r="Q27" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16182,11 +16182,11 @@
       <c r="O28" s="707">
         <v>9</v>
       </c>
-      <c r="P28" s="833">
+      <c r="P28" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="834">
+      <c r="Q28" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16223,11 +16223,11 @@
       <c r="M29" s="526"/>
       <c r="N29" s="627"/>
       <c r="O29" s="707"/>
-      <c r="P29" s="833">
+      <c r="P29" s="752">
         <f t="shared" si="1"/>
         <v>9.2899999999999991</v>
       </c>
-      <c r="Q29" s="834">
+      <c r="Q29" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16237,7 +16237,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="514" t="s">
         <v>34</v>
       </c>
@@ -16260,11 +16260,11 @@
       <c r="M30" s="526"/>
       <c r="N30" s="627"/>
       <c r="O30" s="707"/>
-      <c r="P30" s="833">
+      <c r="P30" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="834">
+      <c r="Q30" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16274,7 +16274,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="514" t="s">
         <v>70</v>
       </c>
@@ -16297,11 +16297,11 @@
       <c r="M31" s="526"/>
       <c r="N31" s="627"/>
       <c r="O31" s="707"/>
-      <c r="P31" s="833">
+      <c r="P31" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="834">
+      <c r="Q31" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16341,24 +16341,24 @@
       </c>
       <c r="M32" s="526"/>
       <c r="N32" s="684"/>
-      <c r="O32" s="823"/>
-      <c r="P32" s="833">
+      <c r="O32" s="742"/>
+      <c r="P32" s="752">
         <f t="shared" si="1"/>
         <v>-27.220000000001164</v>
       </c>
-      <c r="Q32" s="834">
+      <c r="Q32" s="753">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R32" s="690"/>
-      <c r="S32" s="814" t="s">
+      <c r="S32" s="735" t="s">
         <v>184</v>
       </c>
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
     </row>
-    <row r="33" spans="1:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="592" t="s">
         <v>120</v>
       </c>
@@ -16381,21 +16381,21 @@
       <c r="M33" s="526"/>
       <c r="N33" s="627"/>
       <c r="O33" s="707"/>
-      <c r="P33" s="833">
+      <c r="P33" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="834">
+      <c r="Q33" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R33" s="690"/>
-      <c r="S33" s="800"/>
+      <c r="S33" s="724"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34" spans="1:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="514" t="s">
         <v>57</v>
       </c>
@@ -16422,11 +16422,11 @@
       <c r="M34" s="526"/>
       <c r="N34" s="627"/>
       <c r="O34" s="707"/>
-      <c r="P34" s="833">
+      <c r="P34" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="834">
+      <c r="Q34" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16466,12 +16466,12 @@
       </c>
       <c r="M35" s="526"/>
       <c r="N35" s="684"/>
-      <c r="O35" s="823"/>
-      <c r="P35" s="833">
+      <c r="O35" s="742"/>
+      <c r="P35" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="834">
+      <c r="Q35" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16522,11 +16522,11 @@
         <f>10+19+83</f>
         <v>112</v>
       </c>
-      <c r="P36" s="833">
+      <c r="P36" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="834">
+      <c r="Q36" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16536,7 +16536,7 @@
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
     </row>
-    <row r="37" spans="1:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="514" t="s">
         <v>31</v>
       </c>
@@ -16559,11 +16559,11 @@
       <c r="M37" s="526"/>
       <c r="N37" s="627"/>
       <c r="O37" s="707"/>
-      <c r="P37" s="833">
+      <c r="P37" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="834">
+      <c r="Q37" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16608,11 +16608,11 @@
       <c r="O38" s="707">
         <v>53</v>
       </c>
-      <c r="P38" s="833">
+      <c r="P38" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="834">
+      <c r="Q38" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16658,16 +16658,16 @@
       <c r="O39" s="707">
         <v>374</v>
       </c>
-      <c r="P39" s="833">
+      <c r="P39" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="834">
+      <c r="Q39" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R39" s="692"/>
-      <c r="S39" s="801"/>
+      <c r="S39" s="725"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
@@ -16695,23 +16695,23 @@
       <c r="M40" s="526"/>
       <c r="N40" s="627"/>
       <c r="O40" s="707"/>
-      <c r="P40" s="833">
+      <c r="P40" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="834">
+      <c r="Q40" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R40" s="114"/>
-      <c r="S40" s="801" t="s">
+      <c r="S40" s="725" t="s">
         <v>179</v>
       </c>
       <c r="T40" s="13"/>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
     </row>
-    <row r="41" spans="1:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="505" t="s">
         <v>131</v>
       </c>
@@ -16734,23 +16734,23 @@
       <c r="M41" s="526"/>
       <c r="N41" s="627"/>
       <c r="O41" s="707"/>
-      <c r="P41" s="833">
+      <c r="P41" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="834">
+      <c r="Q41" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R41" s="419"/>
-      <c r="S41" s="801" t="s">
+      <c r="S41" s="725" t="s">
         <v>179</v>
       </c>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
     </row>
-    <row r="42" spans="1:22" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="514" t="s">
         <v>37</v>
       </c>
@@ -16773,23 +16773,23 @@
       <c r="M42" s="526"/>
       <c r="N42" s="627"/>
       <c r="O42" s="707"/>
-      <c r="P42" s="833">
+      <c r="P42" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="834">
+      <c r="Q42" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R42" s="419"/>
-      <c r="S42" s="801" t="s">
+      <c r="S42" s="725" t="s">
         <v>179</v>
       </c>
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
     </row>
-    <row r="43" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="514" t="s">
         <v>41</v>
       </c>
@@ -16812,23 +16812,23 @@
       <c r="M43" s="542"/>
       <c r="N43" s="627"/>
       <c r="O43" s="707"/>
-      <c r="P43" s="833">
+      <c r="P43" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="834">
+      <c r="Q43" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R43" s="420"/>
-      <c r="S43" s="801" t="s">
+      <c r="S43" s="725" t="s">
         <v>179</v>
       </c>
       <c r="T43" s="13"/>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
     </row>
-    <row r="44" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="515" t="s">
         <v>43</v>
       </c>
@@ -16851,23 +16851,23 @@
       <c r="M44" s="542"/>
       <c r="N44" s="627"/>
       <c r="O44" s="707"/>
-      <c r="P44" s="833">
+      <c r="P44" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="834">
+      <c r="Q44" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R44" s="692"/>
-      <c r="S44" s="801" t="s">
+      <c r="S44" s="725" t="s">
         <v>179</v>
       </c>
       <c r="T44" s="13"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
     </row>
-    <row r="45" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="515" t="s">
         <v>42</v>
       </c>
@@ -16890,16 +16890,16 @@
       <c r="M45" s="542"/>
       <c r="N45" s="627"/>
       <c r="O45" s="707"/>
-      <c r="P45" s="833">
+      <c r="P45" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="834">
+      <c r="Q45" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R45" s="692"/>
-      <c r="S45" s="801" t="s">
+      <c r="S45" s="725" t="s">
         <v>179</v>
       </c>
       <c r="T45" s="13"/>
@@ -16941,16 +16941,16 @@
       <c r="O46" s="707">
         <v>23</v>
       </c>
-      <c r="P46" s="833">
+      <c r="P46" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="834">
+      <c r="Q46" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R46" s="692"/>
-      <c r="S46" s="801"/>
+      <c r="S46" s="725"/>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
@@ -16990,21 +16990,21 @@
       <c r="O47" s="707">
         <v>43</v>
       </c>
-      <c r="P47" s="833">
+      <c r="P47" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="834">
+      <c r="Q47" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R47" s="692"/>
-      <c r="S47" s="801"/>
+      <c r="S47" s="725"/>
       <c r="T47" s="13"/>
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
     </row>
-    <row r="48" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="519" t="s">
         <v>44</v>
       </c>
@@ -17026,12 +17026,12 @@
       <c r="L48" s="683"/>
       <c r="M48" s="542"/>
       <c r="N48" s="631"/>
-      <c r="O48" s="825"/>
-      <c r="P48" s="833">
+      <c r="O48" s="744"/>
+      <c r="P48" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="834">
+      <c r="Q48" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17041,7 +17041,7 @@
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
     </row>
-    <row r="49" spans="2:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:22" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="265" t="s">
         <v>45</v>
       </c>
@@ -17063,12 +17063,12 @@
       <c r="L49" s="683"/>
       <c r="M49" s="542"/>
       <c r="N49" s="629"/>
-      <c r="O49" s="826"/>
-      <c r="P49" s="833">
+      <c r="O49" s="745"/>
+      <c r="P49" s="752">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="834">
+      <c r="Q49" s="753">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17098,12 +17098,12 @@
       <c r="L50" s="683"/>
       <c r="M50" s="542"/>
       <c r="N50" s="629"/>
-      <c r="O50" s="826"/>
-      <c r="P50" s="835">
+      <c r="O50" s="745"/>
+      <c r="P50" s="754">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="836">
+      <c r="Q50" s="755">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17134,11 +17134,11 @@
       <c r="M51" s="542"/>
       <c r="N51" s="246"/>
       <c r="O51" s="247"/>
-      <c r="P51" s="829">
-        <f t="shared" ref="P10:Q51" si="4">H51-K51</f>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="830">
+      <c r="P51" s="748">
+        <f t="shared" ref="P51:Q51" si="4">H51-K51</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="749">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -17151,17 +17151,17 @@
     <row r="52" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="145"/>
       <c r="D52" s="147"/>
-      <c r="F52" s="760" t="s">
+      <c r="F52" s="802" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="760"/>
+      <c r="G52" s="802"/>
       <c r="H52" s="560">
         <f>SUM(H5:H35)</f>
         <v>34696.020000000004</v>
       </c>
       <c r="I52" s="561">
         <f>SUM(I5:I35)</f>
-        <v>1866</v>
+        <v>1873</v>
       </c>
       <c r="J52" s="149"/>
       <c r="K52" s="149"/>
@@ -17406,10 +17406,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="719"/>
+      <c r="B1" s="774" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="775"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -17424,26 +17424,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="744">
+      <c r="B2" s="786">
         <v>44989</v>
       </c>
-      <c r="C2" s="745"/>
-      <c r="F2" s="746" t="s">
+      <c r="C2" s="787"/>
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="723" t="s">
+      <c r="N2" s="779" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="723"/>
+      <c r="O2" s="779"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -17453,33 +17453,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="754" t="s">
+      <c r="C3" s="796" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="758" t="s">
+      <c r="I3" s="800" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="723"/>
-      <c r="O3" s="723"/>
-      <c r="P3" s="731" t="s">
+      <c r="N3" s="779"/>
+      <c r="O3" s="779"/>
+      <c r="P3" s="761" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="732"/>
-      <c r="R3" s="733" t="s">
+      <c r="Q3" s="762"/>
+      <c r="R3" s="763" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="734"/>
+      <c r="S3" s="764"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -17505,7 +17505,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="759"/>
+      <c r="I4" s="801"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -17581,8 +17581,8 @@
       <c r="Q5" s="38">
         <v>0</v>
       </c>
-      <c r="R5" s="735"/>
-      <c r="S5" s="735"/>
+      <c r="R5" s="765"/>
+      <c r="S5" s="765"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -17619,8 +17619,8 @@
         <f>O6-I6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="736"/>
-      <c r="S6" s="736"/>
+      <c r="R6" s="766"/>
+      <c r="S6" s="766"/>
       <c r="T6" s="45"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -17707,8 +17707,8 @@
       <c r="Q8" s="52">
         <v>0</v>
       </c>
-      <c r="R8" s="737"/>
-      <c r="S8" s="737"/>
+      <c r="R8" s="767"/>
+      <c r="S8" s="767"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -17795,8 +17795,8 @@
       <c r="Q10" s="52">
         <v>0</v>
       </c>
-      <c r="R10" s="738"/>
-      <c r="S10" s="738"/>
+      <c r="R10" s="768"/>
+      <c r="S10" s="768"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -17936,8 +17936,8 @@
       <c r="Q13" s="52">
         <v>0</v>
       </c>
-      <c r="R13" s="739"/>
-      <c r="S13" s="739"/>
+      <c r="R13" s="769"/>
+      <c r="S13" s="769"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -18245,8 +18245,8 @@
       <c r="Q20" s="52">
         <v>0</v>
       </c>
-      <c r="R20" s="740"/>
-      <c r="S20" s="740"/>
+      <c r="R20" s="770"/>
+      <c r="S20" s="770"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -18333,8 +18333,8 @@
       <c r="Q22" s="52">
         <v>0</v>
       </c>
-      <c r="R22" s="741"/>
-      <c r="S22" s="741"/>
+      <c r="R22" s="771"/>
+      <c r="S22" s="771"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -18380,8 +18380,8 @@
       <c r="Q23" s="52">
         <v>0</v>
       </c>
-      <c r="R23" s="742"/>
-      <c r="S23" s="742"/>
+      <c r="R23" s="772"/>
+      <c r="S23" s="772"/>
       <c r="T23" s="45"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -18521,8 +18521,8 @@
       <c r="Q26" s="52">
         <v>0</v>
       </c>
-      <c r="R26" s="743"/>
-      <c r="S26" s="743"/>
+      <c r="R26" s="773"/>
+      <c r="S26" s="773"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -19205,10 +19205,10 @@
     <row r="43" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="145"/>
       <c r="D43" s="147"/>
-      <c r="F43" s="730" t="s">
+      <c r="F43" s="760" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="730"/>
+      <c r="G43" s="760"/>
       <c r="H43" s="148">
         <f>SUM(H5:H34)</f>
         <v>52842.86</v>
@@ -19429,6 +19429,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -19441,14 +19449,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19491,10 +19491,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="719"/>
+      <c r="B1" s="774" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="775"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -19509,26 +19509,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="744">
+      <c r="B2" s="786">
         <v>45017</v>
       </c>
-      <c r="C2" s="745"/>
-      <c r="F2" s="746" t="s">
+      <c r="C2" s="787"/>
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="723" t="s">
+      <c r="N2" s="779" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="723"/>
+      <c r="O2" s="779"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -19538,33 +19538,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="754" t="s">
+      <c r="C3" s="796" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="758" t="s">
+      <c r="I3" s="800" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="723"/>
-      <c r="O3" s="723"/>
-      <c r="P3" s="731" t="s">
+      <c r="N3" s="779"/>
+      <c r="O3" s="779"/>
+      <c r="P3" s="761" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="732"/>
-      <c r="R3" s="733" t="s">
+      <c r="Q3" s="762"/>
+      <c r="R3" s="763" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="734"/>
+      <c r="S3" s="764"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -19590,7 +19590,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="759"/>
+      <c r="I4" s="801"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -19665,8 +19665,8 @@
         <f>O5-I5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="735"/>
-      <c r="S5" s="735"/>
+      <c r="R5" s="765"/>
+      <c r="S5" s="765"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -19719,8 +19719,8 @@
         <f>O6-I6</f>
         <v>-2</v>
       </c>
-      <c r="R6" s="736"/>
-      <c r="S6" s="736"/>
+      <c r="R6" s="766"/>
+      <c r="S6" s="766"/>
       <c r="T6" s="180" t="s">
         <v>79</v>
       </c>
@@ -19825,8 +19825,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="737"/>
-      <c r="S8" s="737"/>
+      <c r="R8" s="767"/>
+      <c r="S8" s="767"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -19913,8 +19913,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="738"/>
-      <c r="S10" s="738"/>
+      <c r="R10" s="768"/>
+      <c r="S10" s="768"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -20065,8 +20065,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="739"/>
-      <c r="S13" s="739"/>
+      <c r="R13" s="769"/>
+      <c r="S13" s="769"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -20399,8 +20399,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="740"/>
-      <c r="S20" s="740"/>
+      <c r="R20" s="770"/>
+      <c r="S20" s="770"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -20487,8 +20487,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="741"/>
-      <c r="S22" s="741"/>
+      <c r="R22" s="771"/>
+      <c r="S22" s="771"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -20537,8 +20537,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="742"/>
-      <c r="S23" s="742"/>
+      <c r="R23" s="772"/>
+      <c r="S23" s="772"/>
       <c r="T23" s="180" t="s">
         <v>80</v>
       </c>
@@ -20677,8 +20677,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="743"/>
-      <c r="S26" s="743"/>
+      <c r="R26" s="773"/>
+      <c r="S26" s="773"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -21782,10 +21782,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="760" t="s">
+      <c r="F51" s="802" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="760"/>
+      <c r="G51" s="802"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>74525.02</v>
@@ -22013,6 +22013,14 @@
     <sortCondition ref="B5:B50"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -22025,14 +22033,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.31" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22075,10 +22075,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="719"/>
+      <c r="B1" s="774" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="775"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -22093,26 +22093,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="744">
+      <c r="B2" s="786">
         <v>45056</v>
       </c>
-      <c r="C2" s="745"/>
-      <c r="F2" s="746" t="s">
+      <c r="C2" s="787"/>
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="723" t="s">
+      <c r="N2" s="779" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="723"/>
+      <c r="O2" s="779"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -22122,33 +22122,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="754" t="s">
+      <c r="C3" s="796" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="758" t="s">
+      <c r="I3" s="800" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="723"/>
-      <c r="O3" s="723"/>
-      <c r="P3" s="731" t="s">
+      <c r="N3" s="779"/>
+      <c r="O3" s="779"/>
+      <c r="P3" s="761" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="732"/>
-      <c r="R3" s="733" t="s">
+      <c r="Q3" s="762"/>
+      <c r="R3" s="763" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="734"/>
+      <c r="S3" s="764"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -22174,7 +22174,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="759"/>
+      <c r="I4" s="801"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -22245,8 +22245,8 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="735"/>
-      <c r="S5" s="735"/>
+      <c r="R5" s="765"/>
+      <c r="S5" s="765"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -22295,8 +22295,8 @@
         <f>I6-L6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="736"/>
-      <c r="S6" s="736"/>
+      <c r="R6" s="766"/>
+      <c r="S6" s="766"/>
       <c r="T6" s="180"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -22391,8 +22391,8 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="R8" s="737"/>
-      <c r="S8" s="737"/>
+      <c r="R8" s="767"/>
+      <c r="S8" s="767"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -22467,8 +22467,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="738"/>
-      <c r="S10" s="738"/>
+      <c r="R10" s="768"/>
+      <c r="S10" s="768"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -22589,8 +22589,8 @@
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="R13" s="739"/>
-      <c r="S13" s="739"/>
+      <c r="R13" s="769"/>
+      <c r="S13" s="769"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -22871,8 +22871,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="740"/>
-      <c r="S20" s="740"/>
+      <c r="R20" s="770"/>
+      <c r="S20" s="770"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -22947,8 +22947,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="741"/>
-      <c r="S22" s="741"/>
+      <c r="R22" s="771"/>
+      <c r="S22" s="771"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -22993,8 +22993,8 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="R23" s="742"/>
-      <c r="S23" s="742"/>
+      <c r="R23" s="772"/>
+      <c r="S23" s="772"/>
       <c r="T23" s="180"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -23123,8 +23123,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="743"/>
-      <c r="S26" s="743"/>
+      <c r="R26" s="773"/>
+      <c r="S26" s="773"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -24130,10 +24130,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="760" t="s">
+      <c r="F51" s="802" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="760"/>
+      <c r="G51" s="802"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>51160.97</v>
@@ -24356,14 +24356,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -24376,6 +24368,14 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24419,10 +24419,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="719"/>
+      <c r="B1" s="774" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="775"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -24437,26 +24437,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="744">
+      <c r="B2" s="786">
         <v>45082</v>
       </c>
-      <c r="C2" s="745"/>
-      <c r="F2" s="746" t="s">
+      <c r="C2" s="787"/>
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="723" t="s">
+      <c r="N2" s="779" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="723"/>
+      <c r="O2" s="779"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -24466,33 +24466,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="754" t="s">
+      <c r="C3" s="796" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="758" t="s">
+      <c r="I3" s="800" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="723"/>
-      <c r="O3" s="723"/>
-      <c r="P3" s="731" t="s">
+      <c r="N3" s="779"/>
+      <c r="O3" s="779"/>
+      <c r="P3" s="761" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="732"/>
-      <c r="R3" s="733" t="s">
+      <c r="Q3" s="762"/>
+      <c r="R3" s="763" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="734"/>
+      <c r="S3" s="764"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -24518,7 +24518,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="759"/>
+      <c r="I4" s="801"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -24581,8 +24581,8 @@
         <f>I5-L5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="735"/>
-      <c r="S5" s="735"/>
+      <c r="R5" s="765"/>
+      <c r="S5" s="765"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -24631,8 +24631,8 @@
         <f>O6-L6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="736"/>
-      <c r="S6" s="736"/>
+      <c r="R6" s="766"/>
+      <c r="S6" s="766"/>
       <c r="T6" s="180"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -24723,8 +24723,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="737"/>
-      <c r="S8" s="737"/>
+      <c r="R8" s="767"/>
+      <c r="S8" s="767"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -24799,8 +24799,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="738"/>
-      <c r="S10" s="738"/>
+      <c r="R10" s="768"/>
+      <c r="S10" s="768"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -24947,8 +24947,8 @@
         <f>O13-I13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="739"/>
-      <c r="S13" s="739"/>
+      <c r="R13" s="769"/>
+      <c r="S13" s="769"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -25267,8 +25267,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R20" s="740"/>
-      <c r="S20" s="740"/>
+      <c r="R20" s="770"/>
+      <c r="S20" s="770"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -25355,8 +25355,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R22" s="741"/>
-      <c r="S22" s="741"/>
+      <c r="R22" s="771"/>
+      <c r="S22" s="771"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -25405,8 +25405,8 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="R23" s="742"/>
-      <c r="S23" s="742"/>
+      <c r="R23" s="772"/>
+      <c r="S23" s="772"/>
       <c r="T23" s="347" t="s">
         <v>99</v>
       </c>
@@ -25557,8 +25557,8 @@
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="R26" s="743"/>
-      <c r="S26" s="743"/>
+      <c r="R26" s="773"/>
+      <c r="S26" s="773"/>
       <c r="T26" s="347" t="s">
         <v>99</v>
       </c>
@@ -26635,10 +26635,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="760" t="s">
+      <c r="F51" s="802" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="760"/>
+      <c r="G51" s="802"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>55132.759999999995</v>
@@ -26866,6 +26866,14 @@
     <sortCondition ref="B27:B47"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -26878,14 +26886,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26931,10 +26931,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="719"/>
+      <c r="B1" s="774" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="775"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -26948,30 +26948,30 @@
       <c r="R1" s="13"/>
     </row>
     <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="766">
+      <c r="B2" s="808">
         <v>45108</v>
       </c>
-      <c r="C2" s="767"/>
-      <c r="F2" s="746" t="s">
+      <c r="C2" s="809"/>
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="723" t="s">
+      <c r="N2" s="779" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="723"/>
-      <c r="P2" s="761" t="s">
+      <c r="O2" s="779"/>
+      <c r="P2" s="803" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="762"/>
+      <c r="Q2" s="804"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -26979,27 +26979,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="754" t="s">
+      <c r="C3" s="796" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="758" t="s">
+      <c r="I3" s="800" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="723"/>
-      <c r="O3" s="723"/>
-      <c r="P3" s="763"/>
-      <c r="Q3" s="764"/>
+      <c r="N3" s="779"/>
+      <c r="O3" s="779"/>
+      <c r="P3" s="805"/>
+      <c r="Q3" s="806"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -27026,7 +27026,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="759"/>
+      <c r="I4" s="801"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -27551,7 +27551,7 @@
         <v>-16</v>
       </c>
       <c r="R15" s="411"/>
-      <c r="S15" s="765" t="s">
+      <c r="S15" s="807" t="s">
         <v>109</v>
       </c>
       <c r="T15" s="13"/>
@@ -27602,7 +27602,7 @@
         <v>6</v>
       </c>
       <c r="R16" s="412"/>
-      <c r="S16" s="765"/>
+      <c r="S16" s="807"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -29077,10 +29077,10 @@
     <row r="51" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="760" t="s">
+      <c r="F51" s="802" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="760"/>
+      <c r="G51" s="802"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>34034.630000000005</v>
@@ -29350,10 +29350,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="719"/>
+      <c r="B1" s="774" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="775"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -29367,30 +29367,30 @@
       <c r="R1" s="13"/>
     </row>
     <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="766">
+      <c r="B2" s="808">
         <v>45136</v>
       </c>
-      <c r="C2" s="767"/>
-      <c r="F2" s="746" t="s">
+      <c r="C2" s="809"/>
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="768" t="s">
+      <c r="N2" s="810" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="768"/>
-      <c r="P2" s="761" t="s">
+      <c r="O2" s="810"/>
+      <c r="P2" s="803" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="762"/>
+      <c r="Q2" s="804"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -29398,27 +29398,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="754" t="s">
+      <c r="C3" s="796" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="758" t="s">
+      <c r="I3" s="800" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="768"/>
-      <c r="O3" s="768"/>
-      <c r="P3" s="763"/>
-      <c r="Q3" s="764"/>
+      <c r="N3" s="810"/>
+      <c r="O3" s="810"/>
+      <c r="P3" s="805"/>
+      <c r="Q3" s="806"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -29445,7 +29445,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="759"/>
+      <c r="I4" s="801"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -31400,10 +31400,10 @@
     <row r="51" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="760" t="s">
+      <c r="F51" s="802" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="760"/>
+      <c r="G51" s="802"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>42356.71</v>
@@ -31624,16 +31624,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
     <mergeCell ref="N2:O3"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.23622047244094491" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="65" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31676,10 +31676,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="771" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="771"/>
+      <c r="B1" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="813"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -31697,26 +31697,26 @@
         <v>45171</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="746" t="s">
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="768" t="s">
+      <c r="N2" s="810" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="768"/>
-      <c r="P2" s="761" t="s">
+      <c r="O2" s="810"/>
+      <c r="P2" s="803" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="762"/>
+      <c r="Q2" s="804"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -31724,27 +31724,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="772" t="s">
+      <c r="C3" s="814" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="758" t="s">
+      <c r="I3" s="800" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="768"/>
-      <c r="O3" s="768"/>
-      <c r="P3" s="763"/>
-      <c r="Q3" s="764"/>
+      <c r="N3" s="810"/>
+      <c r="O3" s="810"/>
+      <c r="P3" s="805"/>
+      <c r="Q3" s="806"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -31771,7 +31771,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="759"/>
+      <c r="I4" s="801"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -32255,10 +32255,10 @@
         <v>3</v>
       </c>
       <c r="M15" s="526"/>
-      <c r="N15" s="773">
+      <c r="N15" s="815">
         <v>96.813999999999993</v>
       </c>
-      <c r="O15" s="775">
+      <c r="O15" s="817">
         <v>3</v>
       </c>
       <c r="P15" s="562">
@@ -32270,7 +32270,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="411"/>
-      <c r="S15" s="769" t="s">
+      <c r="S15" s="811" t="s">
         <v>137</v>
       </c>
       <c r="T15" s="13"/>
@@ -32302,8 +32302,8 @@
       <c r="K16" s="528"/>
       <c r="L16" s="529"/>
       <c r="M16" s="526"/>
-      <c r="N16" s="774"/>
-      <c r="O16" s="776"/>
+      <c r="N16" s="816"/>
+      <c r="O16" s="818"/>
       <c r="P16" s="562">
         <f t="shared" si="3"/>
         <v>-33.090000000000003</v>
@@ -32313,7 +32313,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="412"/>
-      <c r="S16" s="770"/>
+      <c r="S16" s="812"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -33734,10 +33734,10 @@
     <row r="51" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="760" t="s">
+      <c r="F51" s="802" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="760"/>
+      <c r="G51" s="802"/>
       <c r="H51" s="560">
         <f>SUM(H5:H34)</f>
         <v>51673.75</v>
@@ -34014,10 +34014,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="771" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="771"/>
+      <c r="B1" s="813" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="813"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -34035,26 +34035,26 @@
         <v>45201</v>
       </c>
       <c r="C2" s="570"/>
-      <c r="F2" s="746" t="s">
+      <c r="F2" s="788" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="747"/>
-      <c r="H2" s="748"/>
-      <c r="I2" s="749"/>
-      <c r="J2" s="750" t="s">
+      <c r="G2" s="789"/>
+      <c r="H2" s="790"/>
+      <c r="I2" s="791"/>
+      <c r="J2" s="792" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="750"/>
-      <c r="L2" s="751"/>
+      <c r="K2" s="792"/>
+      <c r="L2" s="793"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="768" t="s">
+      <c r="N2" s="810" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="768"/>
-      <c r="P2" s="777" t="s">
+      <c r="O2" s="810"/>
+      <c r="P2" s="824" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="778"/>
+      <c r="Q2" s="825"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
@@ -34062,27 +34062,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="568"/>
-      <c r="C3" s="772" t="s">
+      <c r="C3" s="814" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="797"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="756" t="s">
+      <c r="F3" s="798" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="757"/>
+      <c r="G3" s="799"/>
       <c r="H3" s="586"/>
-      <c r="I3" s="781" t="s">
+      <c r="I3" s="828" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="752"/>
-      <c r="K3" s="752"/>
-      <c r="L3" s="753"/>
+      <c r="J3" s="794"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="795"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="768"/>
-      <c r="O3" s="768"/>
-      <c r="P3" s="779"/>
-      <c r="Q3" s="780"/>
+      <c r="N3" s="810"/>
+      <c r="O3" s="810"/>
+      <c r="P3" s="826"/>
+      <c r="Q3" s="827"/>
       <c r="R3" s="434"/>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
@@ -34109,7 +34109,7 @@
       <c r="H4" s="587" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="782"/>
+      <c r="I4" s="829"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -34603,10 +34603,10 @@
         <v>103</v>
       </c>
       <c r="M15" s="526"/>
-      <c r="N15" s="783">
+      <c r="N15" s="819">
         <v>3617.26</v>
       </c>
-      <c r="O15" s="785">
+      <c r="O15" s="821">
         <v>141</v>
       </c>
       <c r="P15" s="597">
@@ -34618,7 +34618,7 @@
         <v>38</v>
       </c>
       <c r="R15" s="411"/>
-      <c r="S15" s="787" t="s">
+      <c r="S15" s="823" t="s">
         <v>145</v>
       </c>
       <c r="T15" s="13"/>
@@ -34646,8 +34646,8 @@
       <c r="K16" s="524"/>
       <c r="L16" s="525"/>
       <c r="M16" s="526"/>
-      <c r="N16" s="784"/>
-      <c r="O16" s="786"/>
+      <c r="N16" s="820"/>
+      <c r="O16" s="822"/>
       <c r="P16" s="597">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -34657,7 +34657,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="412"/>
-      <c r="S16" s="787"/>
+      <c r="S16" s="823"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -34862,7 +34862,7 @@
         <v>-35</v>
       </c>
       <c r="R21" s="413"/>
-      <c r="S21" s="787" t="s">
+      <c r="S21" s="823" t="s">
         <v>145</v>
       </c>
       <c r="T21" s="77"/>
@@ -34901,7 +34901,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="577"/>
-      <c r="S22" s="787"/>
+      <c r="S22" s="823"/>
       <c r="T22" s="78"/>
       <c r="U22" s="78"/>
       <c r="V22" s="13"/>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="578"/>
-      <c r="S23" s="787" t="s">
+      <c r="S23" s="823" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="13"/>
@@ -34989,7 +34989,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="414"/>
-      <c r="S24" s="787"/>
+      <c r="S24" s="823"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
@@ -36092,10 +36092,10 @@
     <row r="51" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="760" t="s">
+      <c r="F51" s="802" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="760"/>
+      <c r="G51" s="802"/>
       <c r="H51" s="560">
         <f>SUM(H5:H34)</f>
         <v>22552.550000000003</v>
@@ -36299,12 +36299,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:L3"/>
@@ -36313,6 +36307,12 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.23622047244094491" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
